--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业营业成本.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业营业成本.xlsx
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2060</v>
+        <v>1916.6</v>
       </c>
       <c r="C4" t="n">
         <v>8817.5</v>
@@ -2454,7 +2454,7 @@
         <v>10.2</v>
       </c>
       <c r="H4" t="n">
-        <v>141.6</v>
+        <v>123.5</v>
       </c>
       <c r="I4" t="n">
         <v>541.8</v>
@@ -2526,7 +2526,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AF4" t="n">
-        <v>549.1999999999998</v>
+        <v>529.1999999999997</v>
       </c>
       <c r="AG4" t="n">
         <v>2163.5</v>
@@ -2553,7 +2553,7 @@
         <v>7.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>104.9</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="AP4" t="n">
         <v>414.2</v>
@@ -2589,7 +2589,7 @@
         <v>3.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>764.1999999999998</v>
+        <v>736.5</v>
       </c>
       <c r="BB4" t="n">
         <v>2946.8</v>
@@ -2688,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="CH4" t="n">
-        <v>2691.5</v>
+        <v>2690.200000000001</v>
       </c>
       <c r="CI4" t="n">
         <v>12447.3</v>
@@ -2697,7 +2697,7 @@
         <v>19.4</v>
       </c>
       <c r="CK4" t="n">
-        <v>320.5999999999999</v>
+        <v>285.5</v>
       </c>
       <c r="CL4" t="n">
         <v>1608.2</v>
@@ -2715,7 +2715,7 @@
         <v>2.5</v>
       </c>
       <c r="CQ4" t="n">
-        <v>27.20000000000005</v>
+        <v>22.70000000000005</v>
       </c>
       <c r="CR4" t="n">
         <v>5123.8</v>
@@ -2769,7 +2769,7 @@
         <v>-0.1</v>
       </c>
       <c r="DI4" t="n">
-        <v>5.799999999999983</v>
+        <v>2.499999999999972</v>
       </c>
       <c r="DJ4" t="n">
         <v>270.8</v>
@@ -2778,7 +2778,7 @@
         <v>7.5</v>
       </c>
       <c r="DL4" t="n">
-        <v>2417.699999999999</v>
+        <v>2039.699999999999</v>
       </c>
       <c r="DM4" t="n">
         <v>10696.3</v>
@@ -2796,7 +2796,7 @@
         <v>7.2</v>
       </c>
       <c r="DR4" t="n">
-        <v>184.900000000001</v>
+        <v>171.5000000000009</v>
       </c>
       <c r="DS4" t="n">
         <v>14098.8</v>
@@ -3010,7 +3010,7 @@
         <v>6.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1999999999999988</v>
+        <v>0.09999999999999869</v>
       </c>
       <c r="L5" t="n">
         <v>11.9</v>
@@ -3028,7 +3028,7 @@
         <v>5.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1969.5</v>
+        <v>434.7999999999879</v>
       </c>
       <c r="R5" t="n">
         <v>332227.3</v>
@@ -3037,7 +3037,7 @@
         <v>10.1</v>
       </c>
       <c r="T5" t="n">
-        <v>4736.099999999999</v>
+        <v>4392.2</v>
       </c>
       <c r="U5" t="n">
         <v>26681.8</v>
@@ -3046,7 +3046,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>24.80000000000064</v>
+        <v>24.00000000000091</v>
       </c>
       <c r="X5" t="n">
         <v>2965.5</v>
@@ -3064,7 +3064,7 @@
         <v>7.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>492.0999999999999</v>
+        <v>466.0999999999995</v>
       </c>
       <c r="AD5" t="n">
         <v>2419.7</v>
@@ -3082,7 +3082,7 @@
         <v>6.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>2442.100000000035</v>
+        <v>1064.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>371364.6</v>
@@ -3109,7 +3109,7 @@
         <v>0.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>55.10000000000014</v>
+        <v>20.0000000000007</v>
       </c>
       <c r="AS5" t="n">
         <v>5081.7</v>
@@ -3154,7 +3154,7 @@
         <v>5.6</v>
       </c>
       <c r="BG5" t="n">
-        <v>16.59999999999991</v>
+        <v>13.39999999999981</v>
       </c>
       <c r="BH5" t="n">
         <v>730.5</v>
@@ -3163,7 +3163,7 @@
         <v>10</v>
       </c>
       <c r="BJ5" t="n">
-        <v>267.6999999999971</v>
+        <v>229.3999999999978</v>
       </c>
       <c r="BK5" t="n">
         <v>29571.8</v>
@@ -3181,7 +3181,7 @@
         <v>16.8</v>
       </c>
       <c r="BP5" t="n">
-        <v>1541.199999999999</v>
+        <v>1282.299999999997</v>
       </c>
       <c r="BQ5" t="n">
         <v>7396</v>
@@ -3217,7 +3217,7 @@
         <v>12.1</v>
       </c>
       <c r="CB5" t="n">
-        <v>684.5999999999995</v>
+        <v>648.2999999999984</v>
       </c>
       <c r="CC5" t="n">
         <v>22647.2</v>
@@ -3253,7 +3253,7 @@
         <v>-5.5</v>
       </c>
       <c r="CN5" t="n">
-        <v>2403</v>
+        <v>2232</v>
       </c>
       <c r="CO5" t="n">
         <v>11725</v>
@@ -3262,7 +3262,7 @@
         <v>1.5</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1295.1</v>
+        <v>1267.9</v>
       </c>
       <c r="CR5" t="n">
         <v>6448.8</v>
@@ -3289,7 +3289,7 @@
         <v>10.1</v>
       </c>
       <c r="CZ5" t="n">
-        <v>23.90000000000055</v>
+        <v>0.800000000000189</v>
       </c>
       <c r="DA5" t="n">
         <v>5241.7</v>
@@ -3307,7 +3307,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DF5" t="n">
-        <v>2885.699999999999</v>
+        <v>2763.999999999997</v>
       </c>
       <c r="DG5" t="n">
         <v>13706.9</v>
@@ -3316,7 +3316,7 @@
         <v>-0.5</v>
       </c>
       <c r="DI5" t="n">
-        <v>76.60000000000002</v>
+        <v>70.80000000000004</v>
       </c>
       <c r="DJ5" t="n">
         <v>347</v>
@@ -3334,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="DO5" t="n">
-        <v>225.9000000000001</v>
+        <v>141.5999999999999</v>
       </c>
       <c r="DP5" t="n">
         <v>4081.9</v>
@@ -3343,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="DR5" t="n">
-        <v>3494.799999999999</v>
+        <v>3309.899999999998</v>
       </c>
       <c r="DS5" t="n">
         <v>18059.5</v>
@@ -3352,7 +3352,7 @@
         <v>12.4</v>
       </c>
       <c r="DU5" t="n">
-        <v>244.8000000000002</v>
+        <v>219.8000000000003</v>
       </c>
       <c r="DV5" t="n">
         <v>1181.2</v>
@@ -3370,7 +3370,7 @@
         <v>7.5</v>
       </c>
       <c r="EA5" t="n">
-        <v>4405.300000000003</v>
+        <v>3718.900000000002</v>
       </c>
       <c r="EB5" t="n">
         <v>23505.5</v>
@@ -3379,7 +3379,7 @@
         <v>11.7</v>
       </c>
       <c r="ED5" t="n">
-        <v>227</v>
+        <v>209.3</v>
       </c>
       <c r="EE5" t="n">
         <v>1178.4</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1765.5</v>
+        <v>1583</v>
       </c>
       <c r="C6" t="n">
         <v>13464.1</v>
@@ -3539,7 +3539,7 @@
         <v>12.3</v>
       </c>
       <c r="E6" t="n">
-        <v>451.3000000000002</v>
+        <v>439.3</v>
       </c>
       <c r="F6" t="n">
         <v>3183</v>
@@ -3557,7 +3557,7 @@
         <v>7.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.300000000000001</v>
+        <v>1.100000000000002</v>
       </c>
       <c r="L6" t="n">
         <v>15.4</v>
@@ -3566,7 +3566,7 @@
         <v>12.4</v>
       </c>
       <c r="N6" t="n">
-        <v>3218.299999999999</v>
+        <v>3190.800000000001</v>
       </c>
       <c r="O6" t="n">
         <v>22737.1</v>
@@ -3575,7 +3575,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>58812.59999999998</v>
+        <v>56843.09999999998</v>
       </c>
       <c r="R6" t="n">
         <v>402904.7</v>
@@ -3593,7 +3593,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>537.3999999999996</v>
+        <v>512.599999999999</v>
       </c>
       <c r="X6" t="n">
         <v>3642.3</v>
@@ -3602,7 +3602,7 @@
         <v>17.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>971.7999999999993</v>
+        <v>955.1999999999994</v>
       </c>
       <c r="AA6" t="n">
         <v>7788.7</v>
@@ -3620,7 +3620,7 @@
         <v>7.1</v>
       </c>
       <c r="AF6" t="n">
-        <v>498.3000000000002</v>
+        <v>491.1999999999998</v>
       </c>
       <c r="AG6" t="n">
         <v>3348.6</v>
@@ -3629,7 +3629,7 @@
         <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>66608.39999999997</v>
+        <v>64166.29999999993</v>
       </c>
       <c r="AJ6" t="n">
         <v>450323</v>
@@ -3647,7 +3647,7 @@
         <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>121.6999999999999</v>
+        <v>98.39999999999992</v>
       </c>
       <c r="AP6" t="n">
         <v>681.1</v>
@@ -3656,7 +3656,7 @@
         <v>3.7</v>
       </c>
       <c r="AR6" t="n">
-        <v>990.0999999999995</v>
+        <v>934.9999999999993</v>
       </c>
       <c r="AS6" t="n">
         <v>6201.8</v>
@@ -3665,7 +3665,7 @@
         <v>7.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>3717.600000000002</v>
+        <v>3444.700000000006</v>
       </c>
       <c r="AV6" t="n">
         <v>24014.6</v>
@@ -3674,7 +3674,7 @@
         <v>11.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>242.6000000000001</v>
+        <v>224.8</v>
       </c>
       <c r="AY6" t="n">
         <v>1712.7</v>
@@ -3692,7 +3692,7 @@
         <v>4.1</v>
       </c>
       <c r="BD6" t="n">
-        <v>1736.599999999999</v>
+        <v>1720.299999999997</v>
       </c>
       <c r="BE6" t="n">
         <v>11723.8</v>
@@ -3701,7 +3701,7 @@
         <v>5.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>147.3</v>
+        <v>130.7000000000001</v>
       </c>
       <c r="BH6" t="n">
         <v>898.5</v>
@@ -3710,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5121.5</v>
+        <v>4853.800000000003</v>
       </c>
       <c r="BK6" t="n">
         <v>35481.4</v>
@@ -3719,7 +3719,7 @@
         <v>11.7</v>
       </c>
       <c r="BM6" t="n">
-        <v>300.2</v>
+        <v>299.5</v>
       </c>
       <c r="BN6" t="n">
         <v>1929.2</v>
@@ -3737,7 +3737,7 @@
         <v>1.9</v>
       </c>
       <c r="BS6" t="n">
-        <v>340.1999999999998</v>
+        <v>314.9999999999995</v>
       </c>
       <c r="BT6" t="n">
         <v>2972.8</v>
@@ -3764,7 +3764,7 @@
         <v>11.4</v>
       </c>
       <c r="CB6" t="n">
-        <v>4196.099999999999</v>
+        <v>3511.5</v>
       </c>
       <c r="CC6" t="n">
         <v>27800</v>
@@ -3773,7 +3773,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CE6" t="n">
-        <v>849.3000000000002</v>
+        <v>811.1000000000004</v>
       </c>
       <c r="CF6" t="n">
         <v>5447.8</v>
@@ -3791,7 +3791,7 @@
         <v>20.5</v>
       </c>
       <c r="CK6" t="n">
-        <v>402.5</v>
+        <v>284.5999999999999</v>
       </c>
       <c r="CL6" t="n">
         <v>2468.7</v>
@@ -3818,7 +3818,7 @@
         <v>4.3</v>
       </c>
       <c r="CT6" t="n">
-        <v>6860.300000000003</v>
+        <v>6135.700000000002</v>
       </c>
       <c r="CU6" t="n">
         <v>43033.9</v>
@@ -3827,7 +3827,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CW6" t="n">
-        <v>2538.4</v>
+        <v>2479.200000000001</v>
       </c>
       <c r="CX6" t="n">
         <v>17669.7</v>
@@ -3836,7 +3836,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CZ6" t="n">
-        <v>892.0999999999995</v>
+        <v>868.1999999999989</v>
       </c>
       <c r="DA6" t="n">
         <v>6330.4</v>
@@ -3845,7 +3845,7 @@
         <v>13.2</v>
       </c>
       <c r="DC6" t="n">
-        <v>849.3000000000002</v>
+        <v>801.7999999999997</v>
       </c>
       <c r="DD6" t="n">
         <v>5868.8</v>
@@ -3872,7 +3872,7 @@
         <v>3.3</v>
       </c>
       <c r="DL6" t="n">
-        <v>2177.100000000002</v>
+        <v>1887.800000000001</v>
       </c>
       <c r="DM6" t="n">
         <v>16449.2</v>
@@ -3881,7 +3881,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DO6" t="n">
-        <v>679.7000000000007</v>
+        <v>453.8000000000006</v>
       </c>
       <c r="DP6" t="n">
         <v>5104.9</v>
@@ -3908,7 +3908,7 @@
         <v>6.1</v>
       </c>
       <c r="DX6" t="n">
-        <v>975.1999999999998</v>
+        <v>904.0999999999999</v>
       </c>
       <c r="DY6" t="n">
         <v>7859.1</v>
@@ -4185,7 +4185,7 @@
         <v>9.6</v>
       </c>
       <c r="AL7" t="n">
-        <v>241.3</v>
+        <v>202.1000000000001</v>
       </c>
       <c r="AM7" t="n">
         <v>1969.9</v>
@@ -4230,7 +4230,7 @@
         <v>4.4</v>
       </c>
       <c r="BA7" t="n">
-        <v>541.8000000000002</v>
+        <v>512.1999999999994</v>
       </c>
       <c r="BB7" t="n">
         <v>5226.2</v>
@@ -4464,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="EA7" t="n">
-        <v>287.0999999999976</v>
+        <v>278.800000000001</v>
       </c>
       <c r="EB7" t="n">
         <v>33695.2</v>
@@ -4633,7 +4633,7 @@
         <v>11.1</v>
       </c>
       <c r="E8" t="n">
-        <v>459</v>
+        <v>385.0000000000005</v>
       </c>
       <c r="F8" t="n">
         <v>4274.8</v>
@@ -4642,7 +4642,7 @@
         <v>9.9</v>
       </c>
       <c r="H8" t="n">
-        <v>64.89999999999998</v>
+        <v>38.69999999999993</v>
       </c>
       <c r="I8" t="n">
         <v>1008.5</v>
@@ -4651,7 +4651,7 @@
         <v>8.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.900000000000003</v>
+        <v>2.800000000000003</v>
       </c>
       <c r="L8" t="n">
         <v>17.2</v>
@@ -4660,7 +4660,7 @@
         <v>13.9</v>
       </c>
       <c r="N8" t="n">
-        <v>3251.599999999999</v>
+        <v>3012.599999999999</v>
       </c>
       <c r="O8" t="n">
         <v>29715</v>
@@ -4687,7 +4687,7 @@
         <v>10.5</v>
       </c>
       <c r="W8" t="n">
-        <v>553.1000000000004</v>
+        <v>410</v>
       </c>
       <c r="X8" t="n">
         <v>5053.4</v>
@@ -4696,7 +4696,7 @@
         <v>17.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>45.20000000000095</v>
+        <v>32.00000000000022</v>
       </c>
       <c r="AA8" t="n">
         <v>9906.799999999999</v>
@@ -4750,7 +4750,7 @@
         <v>4.3</v>
       </c>
       <c r="AR8" t="n">
-        <v>959.1999999999989</v>
+        <v>909.5999999999974</v>
       </c>
       <c r="AS8" t="n">
         <v>8307.700000000001</v>
@@ -4759,7 +4759,7 @@
         <v>6.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>3695.5</v>
+        <v>3526.300000000003</v>
       </c>
       <c r="AV8" t="n">
         <v>32183.3</v>
@@ -4795,7 +4795,7 @@
         <v>5.4</v>
       </c>
       <c r="BG8" t="n">
-        <v>9.699999999999989</v>
+        <v>9</v>
       </c>
       <c r="BH8" t="n">
         <v>1214.8</v>
@@ -4804,7 +4804,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BJ8" t="n">
-        <v>856.5</v>
+        <v>846.5</v>
       </c>
       <c r="BK8" t="n">
         <v>46160.9</v>
@@ -4822,7 +4822,7 @@
         <v>12.4</v>
       </c>
       <c r="BP8" t="n">
-        <v>70</v>
+        <v>38.40000000000009</v>
       </c>
       <c r="BQ8" t="n">
         <v>12217.2</v>
@@ -4831,7 +4831,7 @@
         <v>2.6</v>
       </c>
       <c r="BS8" t="n">
-        <v>373.9000000000001</v>
+        <v>282</v>
       </c>
       <c r="BT8" t="n">
         <v>3926.3</v>
@@ -4840,7 +4840,7 @@
         <v>20.3</v>
       </c>
       <c r="BV8" t="n">
-        <v>4987.5</v>
+        <v>4785.200000000004</v>
       </c>
       <c r="BW8" t="n">
         <v>42099.2</v>
@@ -4849,7 +4849,7 @@
         <v>11.7</v>
       </c>
       <c r="BY8" t="n">
-        <v>4456</v>
+        <v>4346.399999999995</v>
       </c>
       <c r="BZ8" t="n">
         <v>36958.2</v>
@@ -4885,7 +4885,7 @@
         <v>23.2</v>
       </c>
       <c r="CK8" t="n">
-        <v>10.39999999999964</v>
+        <v>7.999999999999549</v>
       </c>
       <c r="CL8" t="n">
         <v>3261.3</v>
@@ -4975,7 +4975,7 @@
         <v>10.3</v>
       </c>
       <c r="DO8" t="n">
-        <v>117.3000000000011</v>
+        <v>81.40000000000238</v>
       </c>
       <c r="DP8" t="n">
         <v>6498</v>
@@ -5002,7 +5002,7 @@
         <v>6.1</v>
       </c>
       <c r="DX8" t="n">
-        <v>1030.300000000001</v>
+        <v>949.0000000000009</v>
       </c>
       <c r="DY8" t="n">
         <v>10056.3</v>
@@ -5011,7 +5011,7 @@
         <v>7.7</v>
       </c>
       <c r="EA8" t="n">
-        <v>4412.800000000003</v>
+        <v>4125.700000000005</v>
       </c>
       <c r="EB8" t="n">
         <v>39065.4</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.30000000000086</v>
+        <v>1.000000000000675</v>
       </c>
       <c r="C9" t="n">
         <v>18897.6</v>
@@ -5225,7 +5225,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>307.4000000000005</v>
+        <v>296.9999999999999</v>
       </c>
       <c r="U9" t="n">
         <v>47307.1</v>
@@ -5252,7 +5252,7 @@
         <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>405.0000000000005</v>
+        <v>349.3000000000007</v>
       </c>
       <c r="AD9" t="n">
         <v>4329.2</v>
@@ -5279,7 +5279,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AL9" t="n">
-        <v>267.8000000000002</v>
+        <v>175.4000000000004</v>
       </c>
       <c r="AM9" t="n">
         <v>2698.5</v>
@@ -5288,7 +5288,7 @@
         <v>21.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>61.59999999999991</v>
+        <v>46.89999999999982</v>
       </c>
       <c r="AP9" t="n">
         <v>1092.1</v>
@@ -5315,7 +5315,7 @@
         <v>9.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>47.70000000000027</v>
+        <v>45.50000000000045</v>
       </c>
       <c r="AY9" t="n">
         <v>2137.7</v>
@@ -5324,7 +5324,7 @@
         <v>1.6</v>
       </c>
       <c r="BA9" t="n">
-        <v>688.8999999999996</v>
+        <v>509</v>
       </c>
       <c r="BB9" t="n">
         <v>6615.3</v>
@@ -5342,7 +5342,7 @@
         <v>4.9</v>
       </c>
       <c r="BG9" t="n">
-        <v>145.0999999999999</v>
+        <v>135.3999999999999</v>
       </c>
       <c r="BH9" t="n">
         <v>1382.6</v>
@@ -5351,7 +5351,7 @@
         <v>8.9</v>
       </c>
       <c r="BJ9" t="n">
-        <v>5984.099999999999</v>
+        <v>5127.599999999999</v>
       </c>
       <c r="BK9" t="n">
         <v>52044</v>
@@ -5360,7 +5360,7 @@
         <v>8.4</v>
       </c>
       <c r="BM9" t="n">
-        <v>256.4000000000001</v>
+        <v>225.8000000000002</v>
       </c>
       <c r="BN9" t="n">
         <v>2905.5</v>
@@ -5369,7 +5369,7 @@
         <v>11.9</v>
       </c>
       <c r="BP9" t="n">
-        <v>1522.4</v>
+        <v>1452.4</v>
       </c>
       <c r="BQ9" t="n">
         <v>13917.6</v>
@@ -5423,7 +5423,7 @@
         <v>4.6</v>
       </c>
       <c r="CH9" t="n">
-        <v>2684.5</v>
+        <v>2163.800000000003</v>
       </c>
       <c r="CI9" t="n">
         <v>28727.3</v>
@@ -5441,7 +5441,7 @@
         <v>-2.6</v>
       </c>
       <c r="CN9" t="n">
-        <v>141.5000000000041</v>
+        <v>45.50000000000796</v>
       </c>
       <c r="CO9" t="n">
         <v>20520.7</v>
@@ -5459,7 +5459,7 @@
         <v>3.8</v>
       </c>
       <c r="CT9" t="n">
-        <v>6483.900000000001</v>
+        <v>6009.800000000001</v>
       </c>
       <c r="CU9" t="n">
         <v>68089.7</v>
@@ -5477,7 +5477,7 @@
         <v>8.6</v>
       </c>
       <c r="CZ9" t="n">
-        <v>870.7000000000007</v>
+        <v>849.5000000000009</v>
       </c>
       <c r="DA9" t="n">
         <v>9330.6</v>
@@ -5486,7 +5486,7 @@
         <v>11.3</v>
       </c>
       <c r="DC9" t="n">
-        <v>775.1999999999989</v>
+        <v>608.0999999999995</v>
       </c>
       <c r="DD9" t="n">
         <v>8364.9</v>
@@ -5504,7 +5504,7 @@
         <v>1.9</v>
       </c>
       <c r="DI9" t="n">
-        <v>74.69999999999993</v>
+        <v>53.99999999999994</v>
       </c>
       <c r="DJ9" t="n">
         <v>654.8</v>
@@ -5522,7 +5522,7 @@
         <v>9.9</v>
       </c>
       <c r="DO9" t="n">
-        <v>694.5</v>
+        <v>577.1999999999989</v>
       </c>
       <c r="DP9" t="n">
         <v>7309.2</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1685.099999999999</v>
+        <v>1633.799999999998</v>
       </c>
       <c r="C10" t="n">
         <v>20635.7</v>
@@ -5736,7 +5736,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>111.2</v>
+        <v>76.30000000000013</v>
       </c>
       <c r="I10" t="n">
         <v>1231.7</v>
@@ -5754,7 +5754,7 @@
         <v>7.4</v>
       </c>
       <c r="N10" t="n">
-        <v>3505.100000000006</v>
+        <v>3205.600000000006</v>
       </c>
       <c r="O10" t="n">
         <v>36808.2</v>
@@ -5763,7 +5763,7 @@
         <v>4.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1603.199999999953</v>
+        <v>1125.400000000023</v>
       </c>
       <c r="R10" t="n">
         <v>660286.9</v>
@@ -5772,7 +5772,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>4147.800000000003</v>
+        <v>3840.400000000002</v>
       </c>
       <c r="U10" t="n">
         <v>52657.7</v>
@@ -5781,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>572.6000000000004</v>
+        <v>537.5000000000009</v>
       </c>
       <c r="X10" t="n">
         <v>6275.8</v>
@@ -5790,7 +5790,7 @@
         <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>43.00000000000205</v>
+        <v>11.40000000000396</v>
       </c>
       <c r="AA10" t="n">
         <v>12210.1</v>
@@ -5817,7 +5817,7 @@
         <v>5.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>2029.09999999986</v>
+        <v>1647.799999999814</v>
       </c>
       <c r="AJ10" t="n">
         <v>740618</v>
@@ -5835,7 +5835,7 @@
         <v>22.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>85.40000000000009</v>
+        <v>23.80000000000018</v>
       </c>
       <c r="AP10" t="n">
         <v>1239.9</v>
@@ -5853,7 +5853,7 @@
         <v>5</v>
       </c>
       <c r="AU10" t="n">
-        <v>3810.899999999994</v>
+        <v>3600.599999999991</v>
       </c>
       <c r="AV10" t="n">
         <v>40114.4</v>
@@ -5862,7 +5862,7 @@
         <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>199.6999999999998</v>
+        <v>151.9999999999995</v>
       </c>
       <c r="AY10" t="n">
         <v>2205.6</v>
@@ -5880,7 +5880,7 @@
         <v>5.6</v>
       </c>
       <c r="BD10" t="n">
-        <v>1680.299999999999</v>
+        <v>1363.899999999998</v>
       </c>
       <c r="BE10" t="n">
         <v>18570.1</v>
@@ -5925,7 +5925,7 @@
         <v>3.7</v>
       </c>
       <c r="BS10" t="n">
-        <v>120.1999999999998</v>
+        <v>103.2999999999997</v>
       </c>
       <c r="BT10" t="n">
         <v>4918.7</v>
@@ -5952,7 +5952,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CB10" t="n">
-        <v>158.7000000000035</v>
+        <v>113.6000000000059</v>
       </c>
       <c r="CC10" t="n">
         <v>45276.9</v>
@@ -5961,7 +5961,7 @@
         <v>7.3</v>
       </c>
       <c r="CE10" t="n">
-        <v>80.59999999999854</v>
+        <v>70.39999999999873</v>
       </c>
       <c r="CF10" t="n">
         <v>8645.5</v>
@@ -5979,7 +5979,7 @@
         <v>25.4</v>
       </c>
       <c r="CK10" t="n">
-        <v>49.89999999999878</v>
+        <v>39.79999999999802</v>
       </c>
       <c r="CL10" t="n">
         <v>4156.9</v>
@@ -5988,7 +5988,7 @@
         <v>-1.9</v>
       </c>
       <c r="CN10" t="n">
-        <v>1813.799999999999</v>
+        <v>1672.299999999995</v>
       </c>
       <c r="CO10" t="n">
         <v>22735.3</v>
@@ -6015,7 +6015,7 @@
         <v>11.1</v>
       </c>
       <c r="CW10" t="n">
-        <v>2230.599999999999</v>
+        <v>2060.399999999998</v>
       </c>
       <c r="CX10" t="n">
         <v>27740.7</v>
@@ -6087,7 +6087,7 @@
         <v>13.5</v>
       </c>
       <c r="DU10" t="n">
-        <v>201</v>
+        <v>182.9</v>
       </c>
       <c r="DV10" t="n">
         <v>2307.9</v>
@@ -6096,7 +6096,7 @@
         <v>5.1</v>
       </c>
       <c r="DX10" t="n">
-        <v>1025.4</v>
+        <v>948.3000000000011</v>
       </c>
       <c r="DY10" t="n">
         <v>12322.8</v>
@@ -6105,7 +6105,7 @@
         <v>7.4</v>
       </c>
       <c r="EA10" t="n">
-        <v>4257.800000000003</v>
+        <v>4099.000000000006</v>
       </c>
       <c r="EB10" t="n">
         <v>49465.9</v>
@@ -6114,7 +6114,7 @@
         <v>13.6</v>
       </c>
       <c r="ED10" t="n">
-        <v>216.1999999999998</v>
+        <v>208.7999999999997</v>
       </c>
       <c r="EE10" t="n">
         <v>2322.2</v>
@@ -6274,7 +6274,7 @@
         <v>10.4</v>
       </c>
       <c r="E11" t="n">
-        <v>74.19999999999976</v>
+        <v>31.79999999999916</v>
       </c>
       <c r="F11" t="n">
         <v>5735.8</v>
@@ -6310,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>56136.40000000002</v>
+        <v>54533.20000000007</v>
       </c>
       <c r="R11" t="n">
         <v>726852</v>
@@ -6337,7 +6337,7 @@
         <v>14.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>812.5</v>
+        <v>769.499999999998</v>
       </c>
       <c r="AA11" t="n">
         <v>13352.6</v>
@@ -6346,7 +6346,7 @@
         <v>7.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>263.3000000000002</v>
+        <v>253.0000000000014</v>
       </c>
       <c r="AD11" t="n">
         <v>5162.9</v>
@@ -6355,7 +6355,7 @@
         <v>5.3</v>
       </c>
       <c r="AF11" t="n">
-        <v>354.3999999999996</v>
+        <v>315.499999999999</v>
       </c>
       <c r="AG11" t="n">
         <v>5623.3</v>
@@ -6364,7 +6364,7 @@
         <v>5.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>64452.20000000007</v>
+        <v>62423.10000000021</v>
       </c>
       <c r="AJ11" t="n">
         <v>815667.9</v>
@@ -6382,7 +6382,7 @@
         <v>23.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>102.8</v>
+        <v>17.39999999999991</v>
       </c>
       <c r="AP11" t="n">
         <v>1407.5</v>
@@ -6418,7 +6418,7 @@
         <v>2.1</v>
       </c>
       <c r="BA11" t="n">
-        <v>250.6000000000004</v>
+        <v>238.3000000000002</v>
       </c>
       <c r="BB11" t="n">
         <v>8054.9</v>
@@ -6436,7 +6436,7 @@
         <v>3.8</v>
       </c>
       <c r="BG11" t="n">
-        <v>67.7999999999999</v>
+        <v>63.99999999999972</v>
       </c>
       <c r="BH11" t="n">
         <v>1711.3</v>
@@ -6472,7 +6472,7 @@
         <v>5.1</v>
       </c>
       <c r="BS11" t="n">
-        <v>192.3999999999996</v>
+        <v>72.1999999999998</v>
       </c>
       <c r="BT11" t="n">
         <v>5545.9</v>
@@ -6481,7 +6481,7 @@
         <v>22.2</v>
       </c>
       <c r="BV11" t="n">
-        <v>905.6000000000058</v>
+        <v>575.6000000000058</v>
       </c>
       <c r="BW11" t="n">
         <v>58066.8</v>
@@ -6490,7 +6490,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BY11" t="n">
-        <v>645.4000000000005</v>
+        <v>439.300000000001</v>
       </c>
       <c r="BZ11" t="n">
         <v>50809.6</v>
@@ -6499,7 +6499,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="CB11" t="n">
-        <v>4264.300000000003</v>
+        <v>4105.599999999999</v>
       </c>
       <c r="CC11" t="n">
         <v>50104.6</v>
@@ -6508,7 +6508,7 @@
         <v>7.1</v>
       </c>
       <c r="CE11" t="n">
-        <v>855.3000000000011</v>
+        <v>774.7000000000025</v>
       </c>
       <c r="CF11" t="n">
         <v>9576.9</v>
@@ -6517,7 +6517,7 @@
         <v>4.8</v>
       </c>
       <c r="CH11" t="n">
-        <v>2551.399999999998</v>
+        <v>2333.199999999997</v>
       </c>
       <c r="CI11" t="n">
         <v>36066.2</v>
@@ -6526,7 +6526,7 @@
         <v>25.3</v>
       </c>
       <c r="CK11" t="n">
-        <v>87.70000000000073</v>
+        <v>37.80000000000194</v>
       </c>
       <c r="CL11" t="n">
         <v>4627</v>
@@ -6544,7 +6544,7 @@
         <v>1.8</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1078.1</v>
+        <v>1012.800000000001</v>
       </c>
       <c r="CR11" t="n">
         <v>13646.7</v>
@@ -6571,7 +6571,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CZ11" t="n">
-        <v>829.6999999999989</v>
+        <v>809.3999999999996</v>
       </c>
       <c r="DA11" t="n">
         <v>11289.5</v>
@@ -6589,7 +6589,7 @@
         <v>5.5</v>
       </c>
       <c r="DF11" t="n">
-        <v>2152.599999999999</v>
+        <v>2056.599999999999</v>
       </c>
       <c r="DG11" t="n">
         <v>30749.1</v>
@@ -6598,7 +6598,7 @@
         <v>3.3</v>
       </c>
       <c r="DI11" t="n">
-        <v>27.89999999999998</v>
+        <v>19.49999999999989</v>
       </c>
       <c r="DJ11" t="n">
         <v>829.6</v>
@@ -6607,7 +6607,7 @@
         <v>6.7</v>
       </c>
       <c r="DL11" t="n">
-        <v>1560.400000000001</v>
+        <v>1541.799999999999</v>
       </c>
       <c r="DM11" t="n">
         <v>28350.6</v>
@@ -6616,7 +6616,7 @@
         <v>10.3</v>
       </c>
       <c r="DO11" t="n">
-        <v>344.1000000000004</v>
+        <v>325.7000000000008</v>
       </c>
       <c r="DP11" t="n">
         <v>8799</v>
@@ -6625,7 +6625,7 @@
         <v>2.8</v>
       </c>
       <c r="DR11" t="n">
-        <v>2001</v>
+        <v>1578.400000000005</v>
       </c>
       <c r="DS11" t="n">
         <v>37867.2</v>
@@ -6821,7 +6821,7 @@
         <v>10.1</v>
       </c>
       <c r="E12" t="n">
-        <v>110.7999999999998</v>
+        <v>36.60000000000004</v>
       </c>
       <c r="F12" t="n">
         <v>6387.7</v>
@@ -6839,7 +6839,7 @@
         <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.100000000000002</v>
       </c>
       <c r="L12" t="n">
         <v>26.7</v>
@@ -6848,7 +6848,7 @@
         <v>5.5</v>
       </c>
       <c r="N12" t="n">
-        <v>3363.700000000004</v>
+        <v>716.4000000000078</v>
       </c>
       <c r="O12" t="n">
         <v>42803.3</v>
@@ -6866,7 +6866,7 @@
         <v>8.5</v>
       </c>
       <c r="T12" t="n">
-        <v>4870.800000000005</v>
+        <v>1682.000000000009</v>
       </c>
       <c r="U12" t="n">
         <v>59973.7</v>
@@ -6875,7 +6875,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>323.8000000000004</v>
+        <v>250.5000000000011</v>
       </c>
       <c r="X12" t="n">
         <v>7581.6</v>
@@ -6884,7 +6884,7 @@
         <v>13.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>1205</v>
+        <v>392.5</v>
       </c>
       <c r="AA12" t="n">
         <v>14163.1</v>
@@ -6893,7 +6893,7 @@
         <v>6.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>462.0999999999998</v>
+        <v>198.7999999999996</v>
       </c>
       <c r="AD12" t="n">
         <v>5429.7</v>
@@ -6902,7 +6902,7 @@
         <v>5.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>436.3000000000005</v>
+        <v>81.90000000000094</v>
       </c>
       <c r="AG12" t="n">
         <v>5904</v>
@@ -6920,7 +6920,7 @@
         <v>8.4</v>
       </c>
       <c r="AL12" t="n">
-        <v>134.6999999999999</v>
+        <v>62.79999999999981</v>
       </c>
       <c r="AM12" t="n">
         <v>3710.6</v>
@@ -6929,7 +6929,7 @@
         <v>22.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>244</v>
+        <v>141.2</v>
       </c>
       <c r="AP12" t="n">
         <v>1689.4</v>
@@ -6938,7 +6938,7 @@
         <v>13.3</v>
       </c>
       <c r="AR12" t="n">
-        <v>1078.499999999999</v>
+        <v>553.2999999999984</v>
       </c>
       <c r="AS12" t="n">
         <v>11645.9</v>
@@ -6947,7 +6947,7 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>2314.899999999996</v>
+        <v>2133.099999999986</v>
       </c>
       <c r="AV12" t="n">
         <v>48710.3</v>
@@ -6956,7 +6956,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AX12" t="n">
-        <v>337.9</v>
+        <v>198.6999999999997</v>
       </c>
       <c r="AY12" t="n">
         <v>2843.4</v>
@@ -6965,7 +6965,7 @@
         <v>1.8</v>
       </c>
       <c r="BA12" t="n">
-        <v>778.6999999999996</v>
+        <v>528.0999999999992</v>
       </c>
       <c r="BB12" t="n">
         <v>8105.9</v>
@@ -6974,7 +6974,7 @@
         <v>2.2</v>
       </c>
       <c r="BD12" t="n">
-        <v>1787.599999999998</v>
+        <v>623.9999999999961</v>
       </c>
       <c r="BE12" t="n">
         <v>21331.9</v>
@@ -6992,7 +6992,7 @@
         <v>8.5</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3526.899999999991</v>
+        <v>3147.999999999982</v>
       </c>
       <c r="BK12" t="n">
         <v>70109.5</v>
@@ -7001,7 +7001,7 @@
         <v>4.2</v>
       </c>
       <c r="BM12" t="n">
-        <v>381.0000000000002</v>
+        <v>338.6000000000006</v>
       </c>
       <c r="BN12" t="n">
         <v>3748.5</v>
@@ -7010,7 +7010,7 @@
         <v>6.9</v>
       </c>
       <c r="BP12" t="n">
-        <v>1758.9</v>
+        <v>1253.3</v>
       </c>
       <c r="BQ12" t="n">
         <v>17545.2</v>
@@ -7019,7 +7019,7 @@
         <v>4.2</v>
       </c>
       <c r="BS12" t="n">
-        <v>464.4000000000003</v>
+        <v>272.0000000000007</v>
       </c>
       <c r="BT12" t="n">
         <v>6443.8</v>
@@ -7028,7 +7028,7 @@
         <v>22.9</v>
       </c>
       <c r="BV12" t="n">
-        <v>4320.099999999995</v>
+        <v>3414.499999999989</v>
       </c>
       <c r="BW12" t="n">
         <v>64953.6</v>
@@ -7037,7 +7037,7 @@
         <v>10</v>
       </c>
       <c r="BY12" t="n">
-        <v>3791.299999999999</v>
+        <v>3145.899999999998</v>
       </c>
       <c r="BZ12" t="n">
         <v>56577.7</v>
@@ -7064,7 +7064,7 @@
         <v>5</v>
       </c>
       <c r="CH12" t="n">
-        <v>3147.900000000002</v>
+        <v>596.5000000000041</v>
       </c>
       <c r="CI12" t="n">
         <v>38932</v>
@@ -7073,7 +7073,7 @@
         <v>24.2</v>
       </c>
       <c r="CK12" t="n">
-        <v>174.1</v>
+        <v>86.39999999999927</v>
       </c>
       <c r="CL12" t="n">
         <v>5296.1</v>
@@ -7082,7 +7082,7 @@
         <v>0.4</v>
       </c>
       <c r="CN12" t="n">
-        <v>2576.799999999999</v>
+        <v>1708.599999999998</v>
       </c>
       <c r="CO12" t="n">
         <v>24834</v>
@@ -7100,7 +7100,7 @@
         <v>3.8</v>
       </c>
       <c r="CT12" t="n">
-        <v>2922.899999999994</v>
+        <v>2278.199999999983</v>
       </c>
       <c r="CU12" t="n">
         <v>94445.8</v>
@@ -7109,7 +7109,7 @@
         <v>9.4</v>
       </c>
       <c r="CW12" t="n">
-        <v>2533.299999999999</v>
+        <v>932.3999999999978</v>
       </c>
       <c r="CX12" t="n">
         <v>31691.7</v>
@@ -7127,7 +7127,7 @@
         <v>10.2</v>
       </c>
       <c r="DC12" t="n">
-        <v>789.7999999999997</v>
+        <v>733.1999999999994</v>
       </c>
       <c r="DD12" t="n">
         <v>10725.5</v>
@@ -7154,7 +7154,7 @@
         <v>5.1</v>
       </c>
       <c r="DL12" t="n">
-        <v>2362.699999999999</v>
+        <v>802.2999999999979</v>
       </c>
       <c r="DM12" t="n">
         <v>30118.7</v>
@@ -7172,7 +7172,7 @@
         <v>4.2</v>
       </c>
       <c r="DR12" t="n">
-        <v>3027.6</v>
+        <v>1026.6</v>
       </c>
       <c r="DS12" t="n">
         <v>40205.9</v>
@@ -7181,7 +7181,7 @@
         <v>13.6</v>
       </c>
       <c r="DU12" t="n">
-        <v>173.2999999999998</v>
+        <v>12.9999999999996</v>
       </c>
       <c r="DV12" t="n">
         <v>2672.4</v>
@@ -7190,7 +7190,7 @@
         <v>4.5</v>
       </c>
       <c r="DX12" t="n">
-        <v>886.9000000000001</v>
+        <v>718.9000000000001</v>
       </c>
       <c r="DY12" t="n">
         <v>14640.3</v>
@@ -7199,7 +7199,7 @@
         <v>6.9</v>
       </c>
       <c r="EA12" t="n">
-        <v>3649</v>
+        <v>3421.800000000003</v>
       </c>
       <c r="EB12" t="n">
         <v>59808.2</v>
@@ -7208,7 +7208,7 @@
         <v>14.4</v>
       </c>
       <c r="ED12" t="n">
-        <v>75.80000000000001</v>
+        <v>9.499999999999801</v>
       </c>
       <c r="EE12" t="n">
         <v>2792.2</v>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2095.5</v>
+        <v>696.1999999999989</v>
       </c>
       <c r="C13" t="n">
         <v>3191.6</v>
@@ -7368,7 +7368,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>479.6999999999999</v>
+        <v>368.9000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>691.7</v>
@@ -7377,7 +7377,7 @@
         <v>1.1</v>
       </c>
       <c r="H13" t="n">
-        <v>114.8</v>
+        <v>34.7000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>186.4</v>
@@ -7395,7 +7395,7 @@
         <v>-9.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3468.6</v>
+        <v>104.899999999996</v>
       </c>
       <c r="O13" t="n">
         <v>6282.3</v>
@@ -7404,7 +7404,7 @@
         <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>63991.5</v>
+        <v>15093.00000000003</v>
       </c>
       <c r="R13" t="n">
         <v>108848</v>
@@ -7413,7 +7413,7 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>4996.5</v>
+        <v>125.6999999999953</v>
       </c>
       <c r="U13" t="n">
         <v>8267.9</v>
@@ -7422,7 +7422,7 @@
         <v>2.6</v>
       </c>
       <c r="W13" t="n">
-        <v>641.5</v>
+        <v>317.6999999999996</v>
       </c>
       <c r="X13" t="n">
         <v>1088.5</v>
@@ -7449,7 +7449,7 @@
         <v>4.4</v>
       </c>
       <c r="AF13" t="n">
-        <v>470</v>
+        <v>33.69999999999948</v>
       </c>
       <c r="AG13" t="n">
         <v>805.2</v>
@@ -7458,7 +7458,7 @@
         <v>1.8</v>
       </c>
       <c r="AI13" t="n">
-        <v>71501.59999999999</v>
+        <v>16158.10000000006</v>
       </c>
       <c r="AJ13" t="n">
         <v>124507.6</v>
@@ -7467,7 +7467,7 @@
         <v>3.9</v>
       </c>
       <c r="AL13" t="n">
-        <v>270.5</v>
+        <v>135.8000000000001</v>
       </c>
       <c r="AM13" t="n">
         <v>470.8</v>
@@ -7494,7 +7494,7 @@
         <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>4225.799999999999</v>
+        <v>1910.900000000003</v>
       </c>
       <c r="AV13" t="n">
         <v>6677.8</v>
@@ -7530,7 +7530,7 @@
         <v>0.3</v>
       </c>
       <c r="BG13" t="n">
-        <v>151.1</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="BH13" t="n">
         <v>303.2</v>
@@ -7539,7 +7539,7 @@
         <v>7.8</v>
       </c>
       <c r="BJ13" t="n">
-        <v>6283.400000000001</v>
+        <v>2756.50000000001</v>
       </c>
       <c r="BK13" t="n">
         <v>9585.4</v>
@@ -7566,7 +7566,7 @@
         <v>7.5</v>
       </c>
       <c r="BS13" t="n">
-        <v>579.5</v>
+        <v>115.0999999999997</v>
       </c>
       <c r="BT13" t="n">
         <v>1432.8</v>
@@ -7575,7 +7575,7 @@
         <v>22.7</v>
       </c>
       <c r="BV13" t="n">
-        <v>4986.699999999999</v>
+        <v>666.600000000004</v>
       </c>
       <c r="BW13" t="n">
         <v>11081.4</v>
@@ -7584,7 +7584,7 @@
         <v>5.7</v>
       </c>
       <c r="BY13" t="n">
-        <v>4256</v>
+        <v>464.7000000000012</v>
       </c>
       <c r="BZ13" t="n">
         <v>9345.4</v>
@@ -7593,7 +7593,7 @@
         <v>3.4</v>
       </c>
       <c r="CB13" t="n">
-        <v>4469.7</v>
+        <v>1956.800000000003</v>
       </c>
       <c r="CC13" t="n">
         <v>7001.9</v>
@@ -7602,7 +7602,7 @@
         <v>3.3</v>
       </c>
       <c r="CE13" t="n">
-        <v>893.3</v>
+        <v>389.300000000001</v>
       </c>
       <c r="CF13" t="n">
         <v>1423.2</v>
@@ -7620,7 +7620,7 @@
         <v>4</v>
       </c>
       <c r="CK13" t="n">
-        <v>387.1</v>
+        <v>213</v>
       </c>
       <c r="CL13" t="n">
         <v>746.5</v>
@@ -7638,7 +7638,7 @@
         <v>-4.1</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1095.2</v>
+        <v>278.3</v>
       </c>
       <c r="CR13" t="n">
         <v>1989.4</v>
@@ -7647,7 +7647,7 @@
         <v>5</v>
       </c>
       <c r="CT13" t="n">
-        <v>7376.400000000001</v>
+        <v>4453.500000000006</v>
       </c>
       <c r="CU13" t="n">
         <v>12647.4</v>
@@ -7656,7 +7656,7 @@
         <v>3.2</v>
       </c>
       <c r="CW13" t="n">
-        <v>2680.1</v>
+        <v>146.8000000000011</v>
       </c>
       <c r="CX13" t="n">
         <v>4297.4</v>
@@ -7665,7 +7665,7 @@
         <v>3.9</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1022.3</v>
+        <v>196.899999999999</v>
       </c>
       <c r="DA13" t="n">
         <v>1706.2</v>
@@ -7674,7 +7674,7 @@
         <v>3.1</v>
       </c>
       <c r="DC13" t="n">
-        <v>897.7999999999997</v>
+        <v>108</v>
       </c>
       <c r="DD13" t="n">
         <v>1610.4</v>
@@ -7683,7 +7683,7 @@
         <v>4.8</v>
       </c>
       <c r="DF13" t="n">
-        <v>2523.4</v>
+        <v>398.3999999999992</v>
       </c>
       <c r="DG13" t="n">
         <v>4578.2</v>
@@ -7692,7 +7692,7 @@
         <v>7</v>
       </c>
       <c r="DI13" t="n">
-        <v>78.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="DJ13" t="n">
         <v>121.4</v>
@@ -7701,7 +7701,7 @@
         <v>4</v>
       </c>
       <c r="DL13" t="n">
-        <v>2391.4</v>
+        <v>28.70000000000118</v>
       </c>
       <c r="DM13" t="n">
         <v>4143.1</v>
@@ -7710,7 +7710,7 @@
         <v>5.6</v>
       </c>
       <c r="DO13" t="n">
-        <v>753.7</v>
+        <v>671.1000000000001</v>
       </c>
       <c r="DP13" t="n">
         <v>1224.6</v>
@@ -7728,7 +7728,7 @@
         <v>11.9</v>
       </c>
       <c r="DU13" t="n">
-        <v>210.6999999999999</v>
+        <v>37.40000000000009</v>
       </c>
       <c r="DV13" t="n">
         <v>357.7</v>
@@ -7737,7 +7737,7 @@
         <v>7.2</v>
       </c>
       <c r="DX13" t="n">
-        <v>1177.7</v>
+        <v>290.8</v>
       </c>
       <c r="DY13" t="n">
         <v>2233.7</v>
@@ -7746,7 +7746,7 @@
         <v>7.4</v>
       </c>
       <c r="EA13" t="n">
-        <v>4870.1</v>
+        <v>1221.1</v>
       </c>
       <c r="EB13" t="n">
         <v>8983.4</v>
@@ -7755,7 +7755,7 @@
         <v>10.4</v>
       </c>
       <c r="ED13" t="n">
-        <v>221.9</v>
+        <v>146.1</v>
       </c>
       <c r="EE13" t="n">
         <v>389.3</v>
@@ -8471,7 +8471,7 @@
         <v>6.7</v>
       </c>
       <c r="H15" t="n">
-        <v>116.3</v>
+        <v>110.1</v>
       </c>
       <c r="I15" t="n">
         <v>432.4</v>
@@ -8498,7 +8498,7 @@
         <v>5.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>62769.00000000003</v>
+        <v>62666.50000000003</v>
       </c>
       <c r="R15" t="n">
         <v>245271</v>
@@ -8507,7 +8507,7 @@
         <v>5.2</v>
       </c>
       <c r="T15" t="n">
-        <v>4771.900000000001</v>
+        <v>4687.700000000002</v>
       </c>
       <c r="U15" t="n">
         <v>18570.5</v>
@@ -8516,7 +8516,7 @@
         <v>2.4</v>
       </c>
       <c r="W15" t="n">
-        <v>646.4000000000001</v>
+        <v>616.0000000000002</v>
       </c>
       <c r="X15" t="n">
         <v>2551.2</v>
@@ -8534,7 +8534,7 @@
         <v>7.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>421.3</v>
+        <v>390</v>
       </c>
       <c r="AD15" t="n">
         <v>1651.9</v>
@@ -8543,7 +8543,7 @@
         <v>2.1</v>
       </c>
       <c r="AF15" t="n">
-        <v>467.7999999999997</v>
+        <v>466.5999999999997</v>
       </c>
       <c r="AG15" t="n">
         <v>1784</v>
@@ -8552,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>70141.70000000001</v>
+        <v>69919.8</v>
       </c>
       <c r="AJ15" t="n">
         <v>277075.4</v>
@@ -8588,7 +8588,7 @@
         <v>6.3</v>
       </c>
       <c r="AU15" t="n">
-        <v>3933.6</v>
+        <v>3209.199999999998</v>
       </c>
       <c r="AV15" t="n">
         <v>16251.2</v>
@@ -8606,7 +8606,7 @@
         <v>1.1</v>
       </c>
       <c r="BA15" t="n">
-        <v>30.30000000000018</v>
+        <v>26.30000000000041</v>
       </c>
       <c r="BB15" t="n">
         <v>2407.9</v>
@@ -8615,7 +8615,7 @@
         <v>4.4</v>
       </c>
       <c r="BD15" t="n">
-        <v>1754.400000000001</v>
+        <v>1640.700000000003</v>
       </c>
       <c r="BE15" t="n">
         <v>6738.4</v>
@@ -8642,7 +8642,7 @@
         <v>-4.2</v>
       </c>
       <c r="BM15" t="n">
-        <v>287.7</v>
+        <v>233.7</v>
       </c>
       <c r="BN15" t="n">
         <v>1444.7</v>
@@ -8651,7 +8651,7 @@
         <v>7.2</v>
       </c>
       <c r="BP15" t="n">
-        <v>1285.2</v>
+        <v>1098.1</v>
       </c>
       <c r="BQ15" t="n">
         <v>5319.4</v>
@@ -8678,7 +8678,7 @@
         <v>6.5</v>
       </c>
       <c r="BY15" t="n">
-        <v>4259.900000000001</v>
+        <v>4213.2</v>
       </c>
       <c r="BZ15" t="n">
         <v>18382.9</v>
@@ -8687,7 +8687,7 @@
         <v>4.5</v>
       </c>
       <c r="CB15" t="n">
-        <v>64.09999999999673</v>
+        <v>61.99999999999545</v>
       </c>
       <c r="CC15" t="n">
         <v>16492.3</v>
@@ -8714,7 +8714,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CK15" t="n">
-        <v>10.5</v>
+        <v>5.300000000000011</v>
       </c>
       <c r="CL15" t="n">
         <v>1547.6</v>
@@ -8732,7 +8732,7 @@
         <v>3.9</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1075.8</v>
+        <v>1068.3</v>
       </c>
       <c r="CR15" t="n">
         <v>4231</v>
@@ -8750,7 +8750,7 @@
         <v>6.1</v>
       </c>
       <c r="CW15" t="n">
-        <v>2621</v>
+        <v>2553.8</v>
       </c>
       <c r="CX15" t="n">
         <v>10104.4</v>
@@ -8759,7 +8759,7 @@
         <v>5.7</v>
       </c>
       <c r="CZ15" t="n">
-        <v>993.0999999999999</v>
+        <v>970.8999999999999</v>
       </c>
       <c r="DA15" t="n">
         <v>3735.5</v>
@@ -8777,7 +8777,7 @@
         <v>2.7</v>
       </c>
       <c r="DF15" t="n">
-        <v>2521.700000000001</v>
+        <v>2357.800000000002</v>
       </c>
       <c r="DG15" t="n">
         <v>10062.9</v>
@@ -8795,7 +8795,7 @@
         <v>4.9</v>
       </c>
       <c r="DL15" t="n">
-        <v>2459.5</v>
+        <v>2309.8</v>
       </c>
       <c r="DM15" t="n">
         <v>9428.299999999999</v>
@@ -8822,7 +8822,7 @@
         <v>13.8</v>
       </c>
       <c r="DU15" t="n">
-        <v>209.6</v>
+        <v>209.4999999999998</v>
       </c>
       <c r="DV15" t="n">
         <v>787.6</v>
@@ -8840,7 +8840,7 @@
         <v>6</v>
       </c>
       <c r="EA15" t="n">
-        <v>5026.700000000001</v>
+        <v>4698.300000000003</v>
       </c>
       <c r="EB15" t="n">
         <v>20237.3</v>
@@ -8849,7 +8849,7 @@
         <v>11.2</v>
       </c>
       <c r="ED15" t="n">
-        <v>211.8</v>
+        <v>204.9</v>
       </c>
       <c r="EE15" t="n">
         <v>863.3</v>
@@ -9027,7 +9027,7 @@
         <v>2.1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5999999999999992</v>
+        <v>0.1999999999999982</v>
       </c>
       <c r="L16" t="n">
         <v>9</v>
@@ -9234,7 +9234,7 @@
         <v>4.3</v>
       </c>
       <c r="CB16" t="n">
-        <v>465.1000000000022</v>
+        <v>401.0000000000055</v>
       </c>
       <c r="CC16" t="n">
         <v>21331.7</v>
@@ -9243,7 +9243,7 @@
         <v>5.3</v>
       </c>
       <c r="CE16" t="n">
-        <v>104.2000000000007</v>
+        <v>71.40000000000097</v>
       </c>
       <c r="CF16" t="n">
         <v>4028.5</v>
@@ -9252,7 +9252,7 @@
         <v>2.5</v>
       </c>
       <c r="CH16" t="n">
-        <v>95.19999999999891</v>
+        <v>74.29999999999882</v>
       </c>
       <c r="CI16" t="n">
         <v>16011.6</v>
@@ -9261,7 +9261,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CK16" t="n">
-        <v>11.70000000000022</v>
+        <v>1.20000000000022</v>
       </c>
       <c r="CL16" t="n">
         <v>1945.2</v>
@@ -9288,7 +9288,7 @@
         <v>2.3</v>
       </c>
       <c r="CT16" t="n">
-        <v>584.6999999999998</v>
+        <v>361.7999999999983</v>
       </c>
       <c r="CU16" t="n">
         <v>35988.6</v>
@@ -9351,7 +9351,7 @@
         <v>6.3</v>
       </c>
       <c r="DO16" t="n">
-        <v>142.5</v>
+        <v>138.3999999999999</v>
       </c>
       <c r="DP16" t="n">
         <v>3581</v>
@@ -9360,7 +9360,7 @@
         <v>6.7</v>
       </c>
       <c r="DR16" t="n">
-        <v>257.7000000000012</v>
+        <v>142.2000000000035</v>
       </c>
       <c r="DS16" t="n">
         <v>16762.7</v>
@@ -9378,7 +9378,7 @@
         <v>4.8</v>
       </c>
       <c r="DX16" t="n">
-        <v>79.09999999999809</v>
+        <v>47.79999999999723</v>
       </c>
       <c r="DY16" t="n">
         <v>5830.4</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1755.6</v>
+        <v>1520.799999999999</v>
       </c>
       <c r="C17" t="n">
         <v>12027.9</v>
@@ -9556,7 +9556,7 @@
         <v>7.2</v>
       </c>
       <c r="E17" t="n">
-        <v>423.2000000000003</v>
+        <v>314.2000000000005</v>
       </c>
       <c r="F17" t="n">
         <v>2759</v>
@@ -9565,7 +9565,7 @@
         <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>117.5999999999999</v>
+        <v>104.4999999999998</v>
       </c>
       <c r="I17" t="n">
         <v>672.2</v>
@@ -9574,7 +9574,7 @@
         <v>0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>11.8</v>
@@ -9583,7 +9583,7 @@
         <v>13.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2957.700000000001</v>
+        <v>2688.7</v>
       </c>
       <c r="O17" t="n">
         <v>20428.8</v>
@@ -9592,7 +9592,7 @@
         <v>4.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>60909.59999999998</v>
+        <v>56158.80000000002</v>
       </c>
       <c r="R17" t="n">
         <v>380871.8</v>
@@ -9601,7 +9601,7 @@
         <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>4656.099999999999</v>
+        <v>4560.700000000001</v>
       </c>
       <c r="U17" t="n">
         <v>28285.2</v>
@@ -9610,7 +9610,7 @@
         <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5000000000005</v>
+        <v>594.3000000000006</v>
       </c>
       <c r="X17" t="n">
         <v>3941.6</v>
@@ -9619,7 +9619,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>997</v>
+        <v>872.8</v>
       </c>
       <c r="AA17" t="n">
         <v>6977.9</v>
@@ -9628,7 +9628,7 @@
         <v>6.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>431</v>
+        <v>373.1999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>2544.4</v>
@@ -9637,7 +9637,7 @@
         <v>1.1</v>
       </c>
       <c r="AF17" t="n">
-        <v>463.7999999999997</v>
+        <v>401.3999999999992</v>
       </c>
       <c r="AG17" t="n">
         <v>2756.8</v>
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>69027.59999999998</v>
+        <v>63496.59999999998</v>
       </c>
       <c r="AJ17" t="n">
         <v>429233.4</v>
@@ -9655,7 +9655,7 @@
         <v>5</v>
       </c>
       <c r="AL17" t="n">
-        <v>15.80000000000001</v>
+        <v>0.3000000000000096</v>
       </c>
       <c r="AM17" t="n">
         <v>1831.6</v>
@@ -9664,7 +9664,7 @@
         <v>10.7</v>
       </c>
       <c r="AO17" t="n">
-        <v>189.7</v>
+        <v>174.4999999999999</v>
       </c>
       <c r="AP17" t="n">
         <v>1258.2</v>
@@ -9673,7 +9673,7 @@
         <v>21.9</v>
       </c>
       <c r="AR17" t="n">
-        <v>912.6999999999998</v>
+        <v>810.4999999999998</v>
       </c>
       <c r="AS17" t="n">
         <v>5687.8</v>
@@ -9682,7 +9682,7 @@
         <v>5.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>4094.900000000001</v>
+        <v>3599.700000000002</v>
       </c>
       <c r="AV17" t="n">
         <v>25352.5</v>
@@ -9691,7 +9691,7 @@
         <v>6.3</v>
       </c>
       <c r="AX17" t="n">
-        <v>205.8999999999999</v>
+        <v>122.6</v>
       </c>
       <c r="AY17" t="n">
         <v>1311</v>
@@ -9700,7 +9700,7 @@
         <v>2.1</v>
       </c>
       <c r="BA17" t="n">
-        <v>457.1000000000004</v>
+        <v>444.4000000000006</v>
       </c>
       <c r="BB17" t="n">
         <v>3616.8</v>
@@ -9709,7 +9709,7 @@
         <v>-1.2</v>
       </c>
       <c r="BD17" t="n">
-        <v>1709.700000000001</v>
+        <v>1600.200000000002</v>
       </c>
       <c r="BE17" t="n">
         <v>10425</v>
@@ -9718,7 +9718,7 @@
         <v>1.8</v>
       </c>
       <c r="BG17" t="n">
-        <v>165.1</v>
+        <v>134.0999999999999</v>
       </c>
       <c r="BH17" t="n">
         <v>977.8</v>
@@ -9727,7 +9727,7 @@
         <v>8.5</v>
       </c>
       <c r="BJ17" t="n">
-        <v>5255.799999999996</v>
+        <v>5193.199999999997</v>
       </c>
       <c r="BK17" t="n">
         <v>32830.3</v>
@@ -9736,7 +9736,7 @@
         <v>-4.8</v>
       </c>
       <c r="BM17" t="n">
-        <v>43.69999999999982</v>
+        <v>40.89999999999981</v>
       </c>
       <c r="BN17" t="n">
         <v>2019.1</v>
@@ -9745,7 +9745,7 @@
         <v>4.8</v>
       </c>
       <c r="BP17" t="n">
-        <v>1358.6</v>
+        <v>1092.7</v>
       </c>
       <c r="BQ17" t="n">
         <v>8333.799999999999</v>
@@ -9754,7 +9754,7 @@
         <v>6.3</v>
       </c>
       <c r="BS17" t="n">
-        <v>465</v>
+        <v>418.1000000000004</v>
       </c>
       <c r="BT17" t="n">
         <v>3874.9</v>
@@ -9772,7 +9772,7 @@
         <v>6.6</v>
       </c>
       <c r="BY17" t="n">
-        <v>391.9000000000015</v>
+        <v>95.40000000000418</v>
       </c>
       <c r="BZ17" t="n">
         <v>27655</v>
@@ -9781,7 +9781,7 @@
         <v>4.7</v>
       </c>
       <c r="CB17" t="n">
-        <v>4241.5</v>
+        <v>3776.399999999998</v>
       </c>
       <c r="CC17" t="n">
         <v>26519.6</v>
@@ -9790,7 +9790,7 @@
         <v>5</v>
       </c>
       <c r="CE17" t="n">
-        <v>871.3999999999996</v>
+        <v>767.1999999999989</v>
       </c>
       <c r="CF17" t="n">
         <v>5030.7</v>
@@ -9799,7 +9799,7 @@
         <v>2.9</v>
       </c>
       <c r="CH17" t="n">
-        <v>2900.200000000001</v>
+        <v>2805.000000000002</v>
       </c>
       <c r="CI17" t="n">
         <v>19335.1</v>
@@ -9808,7 +9808,7 @@
         <v>7.6</v>
       </c>
       <c r="CK17" t="n">
-        <v>380</v>
+        <v>368.2999999999998</v>
       </c>
       <c r="CL17" t="n">
         <v>2364.5</v>
@@ -9817,7 +9817,7 @@
         <v>1.3</v>
       </c>
       <c r="CN17" t="n">
-        <v>1907.6</v>
+        <v>1763.5</v>
       </c>
       <c r="CO17" t="n">
         <v>11042.9</v>
@@ -9826,7 +9826,7 @@
         <v>2.3</v>
       </c>
       <c r="CQ17" t="n">
-        <v>1135.799999999999</v>
+        <v>1014.699999999998</v>
       </c>
       <c r="CR17" t="n">
         <v>6491.3</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="CT17" t="n">
-        <v>7523.699999999997</v>
+        <v>6938.999999999997</v>
       </c>
       <c r="CU17" t="n">
         <v>44142.9</v>
@@ -9844,7 +9844,7 @@
         <v>6.1</v>
       </c>
       <c r="CW17" t="n">
-        <v>2448.200000000001</v>
+        <v>2069.300000000001</v>
       </c>
       <c r="CX17" t="n">
         <v>15733.4</v>
@@ -9853,7 +9853,7 @@
         <v>3.6</v>
       </c>
       <c r="CZ17" t="n">
-        <v>963.0999999999995</v>
+        <v>906.3999999999994</v>
       </c>
       <c r="DA17" t="n">
         <v>5695.8</v>
@@ -9862,7 +9862,7 @@
         <v>-1.2</v>
       </c>
       <c r="DC17" t="n">
-        <v>794</v>
+        <v>670.1000000000004</v>
       </c>
       <c r="DD17" t="n">
         <v>5203.6</v>
@@ -9871,7 +9871,7 @@
         <v>4.5</v>
       </c>
       <c r="DF17" t="n">
-        <v>2539.800000000001</v>
+        <v>2134.100000000002</v>
       </c>
       <c r="DG17" t="n">
         <v>15854</v>
@@ -9880,7 +9880,7 @@
         <v>6.1</v>
       </c>
       <c r="DI17" t="n">
-        <v>75.89999999999998</v>
+        <v>66.5</v>
       </c>
       <c r="DJ17" t="n">
         <v>469.8</v>
@@ -9889,7 +9889,7 @@
         <v>7.7</v>
       </c>
       <c r="DL17" t="n">
-        <v>2420.4</v>
+        <v>2204.100000000001</v>
       </c>
       <c r="DM17" t="n">
         <v>14782.1</v>
@@ -9898,7 +9898,7 @@
         <v>5.7</v>
       </c>
       <c r="DO17" t="n">
-        <v>686</v>
+        <v>543.5</v>
       </c>
       <c r="DP17" t="n">
         <v>4596.5</v>
@@ -9907,7 +9907,7 @@
         <v>8.6</v>
       </c>
       <c r="DR17" t="n">
-        <v>3288.799999999999</v>
+        <v>3031.099999999998</v>
       </c>
       <c r="DS17" t="n">
         <v>20748.4</v>
@@ -9916,7 +9916,7 @@
         <v>12.7</v>
       </c>
       <c r="DU17" t="n">
-        <v>212.6000000000001</v>
+        <v>189.6000000000002</v>
       </c>
       <c r="DV17" t="n">
         <v>1243.6</v>
@@ -9925,7 +9925,7 @@
         <v>3.9</v>
       </c>
       <c r="DX17" t="n">
-        <v>1009.1</v>
+        <v>930.0000000000019</v>
       </c>
       <c r="DY17" t="n">
         <v>7105.3</v>
@@ -9934,7 +9934,7 @@
         <v>5.8</v>
       </c>
       <c r="EA17" t="n">
-        <v>5086.700000000004</v>
+        <v>4930.100000000006</v>
       </c>
       <c r="EB17" t="n">
         <v>31817.5</v>
@@ -9943,7 +9943,7 @@
         <v>12</v>
       </c>
       <c r="ED17" t="n">
-        <v>190.8999999999999</v>
+        <v>184.5999999999998</v>
       </c>
       <c r="EE17" t="n">
         <v>1331</v>
@@ -10202,7 +10202,7 @@
         <v>5.2</v>
       </c>
       <c r="AL18" t="n">
-        <v>233.1999999999998</v>
+        <v>217.3999999999998</v>
       </c>
       <c r="AM18" t="n">
         <v>2225</v>
@@ -10211,7 +10211,7 @@
         <v>11.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>879.7</v>
+        <v>690</v>
       </c>
       <c r="AP18" t="n">
         <v>1490.5</v>
@@ -10283,7 +10283,7 @@
         <v>-4.7</v>
       </c>
       <c r="BM18" t="n">
-        <v>308.5</v>
+        <v>264.8000000000002</v>
       </c>
       <c r="BN18" t="n">
         <v>2364.8</v>
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.09999999999991</v>
+        <v>7.699999999999818</v>
       </c>
       <c r="C19" t="n">
         <v>15815.7</v>
@@ -10659,7 +10659,7 @@
         <v>7.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.299999999999898</v>
+        <v>1.599999999999696</v>
       </c>
       <c r="I19" t="n">
         <v>908.6</v>
@@ -10686,7 +10686,7 @@
         <v>4.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>3601.799999999988</v>
+        <v>1352.499999999941</v>
       </c>
       <c r="R19" t="n">
         <v>511070.8</v>
@@ -10704,7 +10704,7 @@
         <v>0.5</v>
       </c>
       <c r="W19" t="n">
-        <v>615.0999999999995</v>
+        <v>592.0999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>5222.6</v>
@@ -10713,7 +10713,7 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1036.5</v>
+        <v>947</v>
       </c>
       <c r="AA19" t="n">
         <v>9214.9</v>
@@ -10722,7 +10722,7 @@
         <v>6.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>487.8000000000002</v>
+        <v>409.5000000000005</v>
       </c>
       <c r="AD19" t="n">
         <v>3485</v>
@@ -10740,7 +10740,7 @@
         <v>1.8</v>
       </c>
       <c r="AI19" t="n">
-        <v>3558.400000000081</v>
+        <v>850.7000000000689</v>
       </c>
       <c r="AJ19" t="n">
         <v>577137.1</v>
@@ -10767,7 +10767,7 @@
         <v>26.4</v>
       </c>
       <c r="AR19" t="n">
-        <v>1047.900000000001</v>
+        <v>895.6000000000008</v>
       </c>
       <c r="AS19" t="n">
         <v>7715.9</v>
@@ -10785,7 +10785,7 @@
         <v>7.8</v>
       </c>
       <c r="AX19" t="n">
-        <v>198.5</v>
+        <v>183.6999999999999</v>
       </c>
       <c r="AY19" t="n">
         <v>1791.1</v>
@@ -10803,7 +10803,7 @@
         <v>1.6</v>
       </c>
       <c r="BD19" t="n">
-        <v>1782.200000000001</v>
+        <v>1627.700000000003</v>
       </c>
       <c r="BE19" t="n">
         <v>14095.5</v>
@@ -10839,7 +10839,7 @@
         <v>4.1</v>
       </c>
       <c r="BP19" t="n">
-        <v>1541.1</v>
+        <v>1244.000000000001</v>
       </c>
       <c r="BQ19" t="n">
         <v>11389.6</v>
@@ -10848,7 +10848,7 @@
         <v>4.9</v>
       </c>
       <c r="BS19" t="n">
-        <v>51.09999999999894</v>
+        <v>48.59999999999843</v>
       </c>
       <c r="BT19" t="n">
         <v>4925.4</v>
@@ -10857,7 +10857,7 @@
         <v>19.8</v>
       </c>
       <c r="BV19" t="n">
-        <v>5725.099999999999</v>
+        <v>5488.600000000007</v>
       </c>
       <c r="BW19" t="n">
         <v>44578.6</v>
@@ -10866,7 +10866,7 @@
         <v>6.4</v>
       </c>
       <c r="BY19" t="n">
-        <v>5034.5</v>
+        <v>4797.2</v>
       </c>
       <c r="BZ19" t="n">
         <v>38324.1</v>
@@ -10875,7 +10875,7 @@
         <v>4.9</v>
       </c>
       <c r="CB19" t="n">
-        <v>375.9000000000005</v>
+        <v>115.300000000001</v>
       </c>
       <c r="CC19" t="n">
         <v>35704.9</v>
@@ -10884,7 +10884,7 @@
         <v>5</v>
       </c>
       <c r="CE19" t="n">
-        <v>877.1999999999998</v>
+        <v>871.2999999999993</v>
       </c>
       <c r="CF19" t="n">
         <v>6898.4</v>
@@ -10893,7 +10893,7 @@
         <v>3.9</v>
       </c>
       <c r="CH19" t="n">
-        <v>225.3999999999978</v>
+        <v>51.99999999999679</v>
       </c>
       <c r="CI19" t="n">
         <v>25784.6</v>
@@ -10902,7 +10902,7 @@
         <v>7.7</v>
       </c>
       <c r="CK19" t="n">
-        <v>453.3000000000002</v>
+        <v>274.5000000000005</v>
       </c>
       <c r="CL19" t="n">
         <v>3398</v>
@@ -10920,7 +10920,7 @@
         <v>0.9</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1204.200000000001</v>
+        <v>813</v>
       </c>
       <c r="CR19" t="n">
         <v>9195.799999999999</v>
@@ -10947,7 +10947,7 @@
         <v>3.7</v>
       </c>
       <c r="CZ19" t="n">
-        <v>1010.5</v>
+        <v>952.3999999999985</v>
       </c>
       <c r="DA19" t="n">
         <v>7533.3</v>
@@ -10956,7 +10956,7 @@
         <v>-2.8</v>
       </c>
       <c r="DC19" t="n">
-        <v>14.59999999999945</v>
+        <v>4.499999999999091</v>
       </c>
       <c r="DD19" t="n">
         <v>6917</v>
@@ -11001,7 +11001,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DR19" t="n">
-        <v>90.80000000000018</v>
+        <v>81.699999999998</v>
       </c>
       <c r="DS19" t="n">
         <v>28248.1</v>
@@ -11019,7 +11019,7 @@
         <v>3.9</v>
       </c>
       <c r="DX19" t="n">
-        <v>122.999999999998</v>
+        <v>46.89999999999706</v>
       </c>
       <c r="DY19" t="n">
         <v>9507.200000000001</v>
@@ -11037,7 +11037,7 @@
         <v>12.2</v>
       </c>
       <c r="ED19" t="n">
-        <v>238.5</v>
+        <v>151.4999999999998</v>
       </c>
       <c r="EE19" t="n">
         <v>1869.5</v>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1364.299999999999</v>
+        <v>1275.199999999999</v>
       </c>
       <c r="C20" t="n">
         <v>17635.2</v>
@@ -11197,7 +11197,7 @@
         <v>5.3</v>
       </c>
       <c r="E20" t="n">
-        <v>147.0999999999999</v>
+        <v>107.0999999999999</v>
       </c>
       <c r="F20" t="n">
         <v>4135.3</v>
@@ -11206,7 +11206,7 @@
         <v>7.1</v>
       </c>
       <c r="H20" t="n">
-        <v>102</v>
+        <v>98.7000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>1022.6</v>
@@ -11215,7 +11215,7 @@
         <v>-0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.100000000000001</v>
+        <v>0.800000000000004</v>
       </c>
       <c r="L20" t="n">
         <v>19.1</v>
@@ -11224,7 +11224,7 @@
         <v>16.5</v>
       </c>
       <c r="N20" t="n">
-        <v>3169.700000000001</v>
+        <v>2888.3</v>
       </c>
       <c r="O20" t="n">
         <v>30714.4</v>
@@ -11233,7 +11233,7 @@
         <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>58306</v>
+        <v>54704.20000000001</v>
       </c>
       <c r="R20" t="n">
         <v>580120.5</v>
@@ -11242,7 +11242,7 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>3783.099999999999</v>
+        <v>3184.999999999994</v>
       </c>
       <c r="U20" t="n">
         <v>41623.3</v>
@@ -11287,7 +11287,7 @@
         <v>3.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>66088.39999999991</v>
+        <v>62529.99999999983</v>
       </c>
       <c r="AJ20" t="n">
         <v>655087.2</v>
@@ -11296,7 +11296,7 @@
         <v>4.8</v>
       </c>
       <c r="AL20" t="n">
-        <v>364.2999999999997</v>
+        <v>232.6999999999993</v>
       </c>
       <c r="AM20" t="n">
         <v>2887.9</v>
@@ -11323,7 +11323,7 @@
         <v>3.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>4046.400000000001</v>
+        <v>3967.6</v>
       </c>
       <c r="AV20" t="n">
         <v>39280.3</v>
@@ -11341,7 +11341,7 @@
         <v>0.4</v>
       </c>
       <c r="BA20" t="n">
-        <v>567.9000000000005</v>
+        <v>543.6999999999998</v>
       </c>
       <c r="BB20" t="n">
         <v>5526.4</v>
@@ -11359,7 +11359,7 @@
         <v>1.7</v>
       </c>
       <c r="BG20" t="n">
-        <v>157.8999999999999</v>
+        <v>147.3999999999999</v>
       </c>
       <c r="BH20" t="n">
         <v>1526.5</v>
@@ -11368,7 +11368,7 @@
         <v>9</v>
       </c>
       <c r="BJ20" t="n">
-        <v>5299.200000000004</v>
+        <v>4438.500000000015</v>
       </c>
       <c r="BK20" t="n">
         <v>49076.1</v>
@@ -11377,7 +11377,7 @@
         <v>-3.5</v>
       </c>
       <c r="BM20" t="n">
-        <v>280.4000000000001</v>
+        <v>256.6999999999998</v>
       </c>
       <c r="BN20" t="n">
         <v>2976.6</v>
@@ -11422,7 +11422,7 @@
         <v>4.5</v>
       </c>
       <c r="CB20" t="n">
-        <v>3243.800000000003</v>
+        <v>2867.900000000002</v>
       </c>
       <c r="CC20" t="n">
         <v>40757.2</v>
@@ -11458,7 +11458,7 @@
         <v>3.1</v>
       </c>
       <c r="CN20" t="n">
-        <v>1559.100000000002</v>
+        <v>1279.800000000004</v>
       </c>
       <c r="CO20" t="n">
         <v>16098.4</v>
@@ -11476,7 +11476,7 @@
         <v>1.2</v>
       </c>
       <c r="CT20" t="n">
-        <v>8837.399999999994</v>
+        <v>8711.799999999988</v>
       </c>
       <c r="CU20" t="n">
         <v>70778.5</v>
@@ -11485,7 +11485,7 @@
         <v>5.1</v>
       </c>
       <c r="CW20" t="n">
-        <v>1776.799999999999</v>
+        <v>1567.700000000001</v>
       </c>
       <c r="CX20" t="n">
         <v>23172.6</v>
@@ -11503,7 +11503,7 @@
         <v>-3</v>
       </c>
       <c r="DC20" t="n">
-        <v>730.3000000000002</v>
+        <v>715.7000000000007</v>
       </c>
       <c r="DD20" t="n">
         <v>7795.6</v>
@@ -11512,7 +11512,7 @@
         <v>5.4</v>
       </c>
       <c r="DF20" t="n">
-        <v>2558</v>
+        <v>2512.099999999998</v>
       </c>
       <c r="DG20" t="n">
         <v>24505</v>
@@ -11521,7 +11521,7 @@
         <v>6.3</v>
       </c>
       <c r="DI20" t="n">
-        <v>85.29999999999995</v>
+        <v>81.20000000000005</v>
       </c>
       <c r="DJ20" t="n">
         <v>739.2</v>
@@ -11530,7 +11530,7 @@
         <v>7.9</v>
       </c>
       <c r="DL20" t="n">
-        <v>2035.399999999998</v>
+        <v>1749.399999999998</v>
       </c>
       <c r="DM20" t="n">
         <v>22139.1</v>
@@ -11539,7 +11539,7 @@
         <v>5</v>
       </c>
       <c r="DO20" t="n">
-        <v>617.2999999999993</v>
+        <v>564.7999999999993</v>
       </c>
       <c r="DP20" t="n">
         <v>6976.1</v>
@@ -11548,7 +11548,7 @@
         <v>7.3</v>
       </c>
       <c r="DR20" t="n">
-        <v>3293.799999999999</v>
+        <v>3202.999999999999</v>
       </c>
       <c r="DS20" t="n">
         <v>31959.3</v>
@@ -11557,7 +11557,7 @@
         <v>12.6</v>
       </c>
       <c r="DU20" t="n">
-        <v>51.09999999999971</v>
+        <v>47.69999999999973</v>
       </c>
       <c r="DV20" t="n">
         <v>1901.3</v>
@@ -11566,7 +11566,7 @@
         <v>4.9</v>
       </c>
       <c r="DX20" t="n">
-        <v>1197.6</v>
+        <v>1074.600000000002</v>
       </c>
       <c r="DY20" t="n">
         <v>10802.5</v>
@@ -11744,7 +11744,7 @@
         <v>6.2</v>
       </c>
       <c r="E21" t="n">
-        <v>331.5999999999999</v>
+        <v>184.5</v>
       </c>
       <c r="F21" t="n">
         <v>4281.2</v>
@@ -11825,7 +11825,7 @@
         <v>0.1</v>
       </c>
       <c r="AF21" t="n">
-        <v>73.79999999999922</v>
+        <v>68.49999999999898</v>
       </c>
       <c r="AG21" t="n">
         <v>4709.8</v>
@@ -11852,7 +11852,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AO21" t="n">
-        <v>12.7999999999997</v>
+        <v>5.999999999999519</v>
       </c>
       <c r="AP21" t="n">
         <v>1732.8</v>
@@ -11879,7 +11879,7 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>175.0999999999999</v>
+        <v>111.0999999999999</v>
       </c>
       <c r="AY21" t="n">
         <v>2106.7</v>
@@ -11942,7 +11942,7 @@
         <v>6</v>
       </c>
       <c r="BS21" t="n">
-        <v>125.2999999999993</v>
+        <v>103.4999999999982</v>
       </c>
       <c r="BT21" t="n">
         <v>5998.7</v>
@@ -11987,7 +11987,7 @@
         <v>2</v>
       </c>
       <c r="CH21" t="n">
-        <v>169.5999999999981</v>
+        <v>81.99999999999909</v>
       </c>
       <c r="CI21" t="n">
         <v>32879.6</v>
@@ -12122,7 +12122,7 @@
         <v>7.4</v>
       </c>
       <c r="EA21" t="n">
-        <v>4974.699999999997</v>
+        <v>4859.799999999988</v>
       </c>
       <c r="EB21" t="n">
         <v>54462.4</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1402.400000000002</v>
+        <v>45.10000000000286</v>
       </c>
       <c r="C22" t="n">
         <v>20682.8</v>
@@ -12300,7 +12300,7 @@
         <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>36.80000000000008</v>
+        <v>25.40000000000017</v>
       </c>
       <c r="I22" t="n">
         <v>1216.4</v>
@@ -12318,7 +12318,7 @@
         <v>24</v>
       </c>
       <c r="N22" t="n">
-        <v>1258.799999999998</v>
+        <v>1073.399999999997</v>
       </c>
       <c r="O22" t="n">
         <v>37628.3</v>
@@ -12327,7 +12327,7 @@
         <v>4.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>13720.40000000002</v>
+        <v>6631.700000000066</v>
       </c>
       <c r="R22" t="n">
         <v>708109.4</v>
@@ -12345,7 +12345,7 @@
         <v>0.2</v>
       </c>
       <c r="W22" t="n">
-        <v>127.7999999999993</v>
+        <v>114.1999999999998</v>
       </c>
       <c r="X22" t="n">
         <v>7067</v>
@@ -12354,7 +12354,7 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>338.1999999999989</v>
+        <v>1.299999999997397</v>
       </c>
       <c r="AA22" t="n">
         <v>12232.4</v>
@@ -12363,7 +12363,7 @@
         <v>7.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>152</v>
+        <v>146.1000000000004</v>
       </c>
       <c r="AD22" t="n">
         <v>4911.7</v>
@@ -12372,7 +12372,7 @@
         <v>0.8</v>
       </c>
       <c r="AF22" t="n">
-        <v>212.6000000000004</v>
+        <v>138.8000000000012</v>
       </c>
       <c r="AG22" t="n">
         <v>5249.6</v>
@@ -12381,7 +12381,7 @@
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>16051.99999999988</v>
+        <v>8313.299999999694</v>
       </c>
       <c r="AJ22" t="n">
         <v>799947.6</v>
@@ -12390,7 +12390,7 @@
         <v>4.6</v>
       </c>
       <c r="AL22" t="n">
-        <v>409.8999999999996</v>
+        <v>324.0999999999989</v>
       </c>
       <c r="AM22" t="n">
         <v>3705.9</v>
@@ -12399,7 +12399,7 @@
         <v>8.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>153.8000000000002</v>
+        <v>141.0000000000005</v>
       </c>
       <c r="AP22" t="n">
         <v>1937.1</v>
@@ -12408,7 +12408,7 @@
         <v>20.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>601.8999999999976</v>
+        <v>572.199999999995</v>
       </c>
       <c r="AS22" t="n">
         <v>9914.700000000001</v>
@@ -12417,7 +12417,7 @@
         <v>2.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>4299.799999999996</v>
+        <v>3969.699999999997</v>
       </c>
       <c r="AV22" t="n">
         <v>48211.4</v>
@@ -12426,7 +12426,7 @@
         <v>7.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>182.4000000000001</v>
+        <v>7.300000000000182</v>
       </c>
       <c r="AY22" t="n">
         <v>2342.1</v>
@@ -12435,7 +12435,7 @@
         <v>5.9</v>
       </c>
       <c r="BA22" t="n">
-        <v>162.0999999999995</v>
+        <v>95.69999999999987</v>
       </c>
       <c r="BB22" t="n">
         <v>6777.9</v>
@@ -12444,7 +12444,7 @@
         <v>1.6</v>
       </c>
       <c r="BD22" t="n">
-        <v>473.500000000003</v>
+        <v>333.7000000000049</v>
       </c>
       <c r="BE22" t="n">
         <v>19444.3</v>
@@ -12453,7 +12453,7 @@
         <v>1.8</v>
       </c>
       <c r="BG22" t="n">
-        <v>80.7000000000001</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="BH22" t="n">
         <v>1901.1</v>
@@ -12471,7 +12471,7 @@
         <v>-2.1</v>
       </c>
       <c r="BM22" t="n">
-        <v>238.5</v>
+        <v>193.8000000000002</v>
       </c>
       <c r="BN22" t="n">
         <v>3572.4</v>
@@ -12489,7 +12489,7 @@
         <v>6.6</v>
       </c>
       <c r="BS22" t="n">
-        <v>295.6999999999998</v>
+        <v>170.4000000000005</v>
       </c>
       <c r="BT22" t="n">
         <v>6682</v>
@@ -12498,7 +12498,7 @@
         <v>14.5</v>
       </c>
       <c r="BV22" t="n">
-        <v>1313.700000000003</v>
+        <v>866.6000000000035</v>
       </c>
       <c r="BW22" t="n">
         <v>61636.5</v>
@@ -12507,7 +12507,7 @@
         <v>5.4</v>
       </c>
       <c r="BY22" t="n">
-        <v>937.4000000000005</v>
+        <v>639.100000000004</v>
       </c>
       <c r="BZ22" t="n">
         <v>53053.4</v>
@@ -12525,7 +12525,7 @@
         <v>5.2</v>
       </c>
       <c r="CE22" t="n">
-        <v>492.900000000001</v>
+        <v>407.8000000000025</v>
       </c>
       <c r="CF22" t="n">
         <v>9177.799999999999</v>
@@ -12534,7 +12534,7 @@
         <v>2.5</v>
       </c>
       <c r="CH22" t="n">
-        <v>3517.900000000001</v>
+        <v>3348.300000000003</v>
       </c>
       <c r="CI22" t="n">
         <v>36668.3</v>
@@ -12543,7 +12543,7 @@
         <v>7.3</v>
       </c>
       <c r="CK22" t="n">
-        <v>200.5999999999995</v>
+        <v>172.3999999999992</v>
       </c>
       <c r="CL22" t="n">
         <v>4763.9</v>
@@ -12552,7 +12552,7 @@
         <v>2.5</v>
       </c>
       <c r="CN22" t="n">
-        <v>435.2999999999988</v>
+        <v>125.9000000000008</v>
       </c>
       <c r="CO22" t="n">
         <v>19221.7</v>
@@ -12561,7 +12561,7 @@
         <v>-1.1</v>
       </c>
       <c r="CQ22" t="n">
-        <v>498.900000000001</v>
+        <v>319.4000000000009</v>
       </c>
       <c r="CR22" t="n">
         <v>12313.2</v>
@@ -12570,7 +12570,7 @@
         <v>-1</v>
       </c>
       <c r="CT22" t="n">
-        <v>527.7999999999884</v>
+        <v>96.59999999997677</v>
       </c>
       <c r="CU22" t="n">
         <v>89024.3</v>
@@ -12579,7 +12579,7 @@
         <v>4.1</v>
       </c>
       <c r="CW22" t="n">
-        <v>1051.800000000002</v>
+        <v>282.000000000002</v>
       </c>
       <c r="CX22" t="n">
         <v>27899.8</v>
@@ -12588,7 +12588,7 @@
         <v>4.1</v>
       </c>
       <c r="CZ22" t="n">
-        <v>188</v>
+        <v>102.8999999999996</v>
       </c>
       <c r="DA22" t="n">
         <v>10433.4</v>
@@ -12597,7 +12597,7 @@
         <v>-2.5</v>
       </c>
       <c r="DC22" t="n">
-        <v>346.5999999999985</v>
+        <v>318.2999999999983</v>
       </c>
       <c r="DD22" t="n">
         <v>9331.1</v>
@@ -12606,7 +12606,7 @@
         <v>5</v>
       </c>
       <c r="DF22" t="n">
-        <v>1017.700000000004</v>
+        <v>814.8000000000062</v>
       </c>
       <c r="DG22" t="n">
         <v>30201.7</v>
@@ -12615,7 +12615,7 @@
         <v>6.5</v>
       </c>
       <c r="DI22" t="n">
-        <v>96.20000000000005</v>
+        <v>50.80000000000002</v>
       </c>
       <c r="DJ22" t="n">
         <v>954.9</v>
@@ -12624,7 +12624,7 @@
         <v>6</v>
       </c>
       <c r="DL22" t="n">
-        <v>687.099999999999</v>
+        <v>312.3999999999949</v>
       </c>
       <c r="DM22" t="n">
         <v>26878.8</v>
@@ -12633,7 +12633,7 @@
         <v>5.3</v>
       </c>
       <c r="DO22" t="n">
-        <v>506.0999999999985</v>
+        <v>357.4999999999972</v>
       </c>
       <c r="DP22" t="n">
         <v>8347.299999999999</v>
@@ -12642,7 +12642,7 @@
         <v>5.9</v>
       </c>
       <c r="DR22" t="n">
-        <v>1204.099999999999</v>
+        <v>858.8999999999978</v>
       </c>
       <c r="DS22" t="n">
         <v>39493</v>
@@ -12651,7 +12651,7 @@
         <v>11.8</v>
       </c>
       <c r="DU22" t="n">
-        <v>31.80000000000018</v>
+        <v>28.69999999999979</v>
       </c>
       <c r="DV22" t="n">
         <v>2403.4</v>
@@ -12838,7 +12838,7 @@
         <v>4.9</v>
       </c>
       <c r="E23" t="n">
-        <v>634.6</v>
+        <v>372.1999999999995</v>
       </c>
       <c r="F23" t="n">
         <v>5478.7</v>
@@ -12847,7 +12847,7 @@
         <v>4.8</v>
       </c>
       <c r="H23" t="n">
-        <v>38.80000000000001</v>
+        <v>1.999999999999929</v>
       </c>
       <c r="I23" t="n">
         <v>1372.7</v>
@@ -12856,7 +12856,7 @@
         <v>-1.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1.1</v>
+        <v>0.4000000000000012</v>
       </c>
       <c r="L23" t="n">
         <v>28.4</v>
@@ -12874,7 +12874,7 @@
         <v>4.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>24253.40000000002</v>
+        <v>10533</v>
       </c>
       <c r="R23" t="n">
         <v>786826</v>
@@ -12883,7 +12883,7 @@
         <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2393.400000000003</v>
+        <v>1668.200000000006</v>
       </c>
       <c r="U23" t="n">
         <v>55091.2</v>
@@ -12892,7 +12892,7 @@
         <v>-0.2</v>
       </c>
       <c r="W23" t="n">
-        <v>358.8000000000006</v>
+        <v>231.0000000000013</v>
       </c>
       <c r="X23" t="n">
         <v>7799.7</v>
@@ -12901,7 +12901,7 @@
         <v>4.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>527.3</v>
+        <v>189.100000000001</v>
       </c>
       <c r="AA23" t="n">
         <v>13505.4</v>
@@ -12928,7 +12928,7 @@
         <v>0.6</v>
       </c>
       <c r="AI23" t="n">
-        <v>28883.70000000003</v>
+        <v>12831.70000000015</v>
       </c>
       <c r="AJ23" t="n">
         <v>889442.1</v>
@@ -12946,7 +12946,7 @@
         <v>8.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>224.7</v>
+        <v>70.89999999999978</v>
       </c>
       <c r="AP23" t="n">
         <v>2238.3</v>
@@ -12973,7 +12973,7 @@
         <v>7.4</v>
       </c>
       <c r="AX23" t="n">
-        <v>251</v>
+        <v>68.59999999999991</v>
       </c>
       <c r="AY23" t="n">
         <v>2594.3</v>
@@ -12982,7 +12982,7 @@
         <v>-1.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>172.7000000000004</v>
+        <v>10.60000000000088</v>
       </c>
       <c r="BB23" t="n">
         <v>7528.9</v>
@@ -12991,7 +12991,7 @@
         <v>0.9</v>
       </c>
       <c r="BD23" t="n">
-        <v>547.8999999999992</v>
+        <v>74.39999999999617</v>
       </c>
       <c r="BE23" t="n">
         <v>21626.3</v>
@@ -13009,7 +13009,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BJ23" t="n">
-        <v>2329.200000000008</v>
+        <v>1588.600000000017</v>
       </c>
       <c r="BK23" t="n">
         <v>68219.39999999999</v>
@@ -13018,7 +13018,7 @@
         <v>-1.4</v>
       </c>
       <c r="BM23" t="n">
-        <v>561.6</v>
+        <v>323.1</v>
       </c>
       <c r="BN23" t="n">
         <v>3785.4</v>
@@ -13036,7 +13036,7 @@
         <v>5.6</v>
       </c>
       <c r="BS23" t="n">
-        <v>587.1000000000004</v>
+        <v>291.4000000000005</v>
       </c>
       <c r="BT23" t="n">
         <v>7678.6</v>
@@ -13045,7 +13045,7 @@
         <v>13</v>
       </c>
       <c r="BV23" t="n">
-        <v>4344.899999999998</v>
+        <v>3031.199999999995</v>
       </c>
       <c r="BW23" t="n">
         <v>68991.5</v>
@@ -13054,7 +13054,7 @@
         <v>5.3</v>
       </c>
       <c r="BY23" t="n">
-        <v>3705.799999999999</v>
+        <v>2768.399999999998</v>
       </c>
       <c r="BZ23" t="n">
         <v>59125.9</v>
@@ -13063,7 +13063,7 @@
         <v>4.3</v>
       </c>
       <c r="CB23" t="n">
-        <v>1127.299999999999</v>
+        <v>136.5999999999956</v>
       </c>
       <c r="CC23" t="n">
         <v>54856.8</v>
@@ -13099,7 +13099,7 @@
         <v>1.3</v>
       </c>
       <c r="CN23" t="n">
-        <v>543.6000000000013</v>
+        <v>108.3000000000025</v>
       </c>
       <c r="CO23" t="n">
         <v>21299.1</v>
@@ -13117,7 +13117,7 @@
         <v>-3.7</v>
       </c>
       <c r="CT23" t="n">
-        <v>2598.400000000005</v>
+        <v>2070.600000000017</v>
       </c>
       <c r="CU23" t="n">
         <v>99303.39999999999</v>
@@ -13135,7 +13135,7 @@
         <v>3.6</v>
       </c>
       <c r="CZ23" t="n">
-        <v>424.4000000000001</v>
+        <v>236.4000000000001</v>
       </c>
       <c r="DA23" t="n">
         <v>11530.1</v>
@@ -13144,7 +13144,7 @@
         <v>-3.1</v>
       </c>
       <c r="DC23" t="n">
-        <v>440.900000000001</v>
+        <v>94.30000000000251</v>
       </c>
       <c r="DD23" t="n">
         <v>10302.1</v>
@@ -13171,7 +13171,7 @@
         <v>11.1</v>
       </c>
       <c r="DL23" t="n">
-        <v>757.9999999999986</v>
+        <v>70.89999999999964</v>
       </c>
       <c r="DM23" t="n">
         <v>29882.3</v>
@@ -13180,7 +13180,7 @@
         <v>4.4</v>
       </c>
       <c r="DO23" t="n">
-        <v>1114.1</v>
+        <v>608.0000000000014</v>
       </c>
       <c r="DP23" t="n">
         <v>9514.799999999999</v>
@@ -13198,7 +13198,7 @@
         <v>9.9</v>
       </c>
       <c r="DU23" t="n">
-        <v>49.49999999999972</v>
+        <v>17.69999999999954</v>
       </c>
       <c r="DV23" t="n">
         <v>2650</v>
@@ -13216,7 +13216,7 @@
         <v>5.2</v>
       </c>
       <c r="EA23" t="n">
-        <v>3606.599999999999</v>
+        <v>3533.899999999996</v>
       </c>
       <c r="EB23" t="n">
         <v>64969.9</v>
@@ -13225,7 +13225,7 @@
         <v>10.1</v>
       </c>
       <c r="ED23" t="n">
-        <v>139.9999999999998</v>
+        <v>118.3999999999994</v>
       </c>
       <c r="EE23" t="n">
         <v>2756.7</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2395</v>
+        <v>2312.100000000001</v>
       </c>
       <c r="C24" t="n">
         <v>2200.5</v>
@@ -13394,7 +13394,7 @@
         <v>-24.3</v>
       </c>
       <c r="H24" t="n">
-        <v>134.2</v>
+        <v>95.39999999999998</v>
       </c>
       <c r="I24" t="n">
         <v>144.5</v>
@@ -13412,7 +13412,7 @@
         <v>-81.8</v>
       </c>
       <c r="N24" t="n">
-        <v>3555.599999999999</v>
+        <v>2344.699999999999</v>
       </c>
       <c r="O24" t="n">
         <v>5187.4</v>
@@ -13421,7 +13421,7 @@
         <v>-10.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>70180.29999999999</v>
+        <v>45926.89999999997</v>
       </c>
       <c r="R24" t="n">
         <v>83517.39999999999</v>
@@ -13430,7 +13430,7 @@
         <v>-19.2</v>
       </c>
       <c r="T24" t="n">
-        <v>5226.4</v>
+        <v>2832.999999999997</v>
       </c>
       <c r="U24" t="n">
         <v>6209.2</v>
@@ -13439,7 +13439,7 @@
         <v>-19.6</v>
       </c>
       <c r="W24" t="n">
-        <v>804.9000000000001</v>
+        <v>446.0999999999995</v>
       </c>
       <c r="X24" t="n">
         <v>764.7</v>
@@ -13448,7 +13448,7 @@
         <v>-29.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1207.5</v>
+        <v>680.2</v>
       </c>
       <c r="AA24" t="n">
         <v>1746.3</v>
@@ -13457,7 +13457,7 @@
         <v>-7.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>499.4999999999999</v>
+        <v>367.5999999999997</v>
       </c>
       <c r="AD24" t="n">
         <v>532.3</v>
@@ -13466,7 +13466,7 @@
         <v>-29.1</v>
       </c>
       <c r="AF24" t="n">
-        <v>513.7</v>
+        <v>486.7</v>
       </c>
       <c r="AG24" t="n">
         <v>541.9</v>
@@ -13475,7 +13475,7 @@
         <v>-30.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>78287.2</v>
+        <v>49403.49999999997</v>
       </c>
       <c r="AJ24" t="n">
         <v>97661.3</v>
@@ -13484,7 +13484,7 @@
         <v>-17.8</v>
       </c>
       <c r="AL24" t="n">
-        <v>357.2</v>
+        <v>290.3999999999996</v>
       </c>
       <c r="AM24" t="n">
         <v>386.7</v>
@@ -13502,7 +13502,7 @@
         <v>-4.6</v>
       </c>
       <c r="AR24" t="n">
-        <v>928.7</v>
+        <v>641.299999999999</v>
       </c>
       <c r="AS24" t="n">
         <v>1133.5</v>
@@ -13511,7 +13511,7 @@
         <v>-26.1</v>
       </c>
       <c r="AU24" t="n">
-        <v>4802.500000000001</v>
+        <v>2567.599999999997</v>
       </c>
       <c r="AV24" t="n">
         <v>5610.2</v>
@@ -13529,7 +13529,7 @@
         <v>-17.3</v>
       </c>
       <c r="BA24" t="n">
-        <v>653.4</v>
+        <v>480.6999999999996</v>
       </c>
       <c r="BB24" t="n">
         <v>705.2</v>
@@ -13538,7 +13538,7 @@
         <v>-27.2</v>
       </c>
       <c r="BD24" t="n">
-        <v>2003.8</v>
+        <v>1455.900000000001</v>
       </c>
       <c r="BE24" t="n">
         <v>2082.7</v>
@@ -13547,7 +13547,7 @@
         <v>-26.7</v>
       </c>
       <c r="BG24" t="n">
-        <v>172.4</v>
+        <v>120.5000000000001</v>
       </c>
       <c r="BH24" t="n">
         <v>307.8</v>
@@ -13556,7 +13556,7 @@
         <v>-1.9</v>
       </c>
       <c r="BJ24" t="n">
-        <v>6346.5</v>
+        <v>4017.299999999992</v>
       </c>
       <c r="BK24" t="n">
         <v>6444.6</v>
@@ -13574,7 +13574,7 @@
         <v>-3.9</v>
       </c>
       <c r="BP24" t="n">
-        <v>1334.6</v>
+        <v>1038.8</v>
       </c>
       <c r="BQ24" t="n">
         <v>1826.1</v>
@@ -13583,7 +13583,7 @@
         <v>-12.9</v>
       </c>
       <c r="BS24" t="n">
-        <v>772</v>
+        <v>184.8999999999996</v>
       </c>
       <c r="BT24" t="n">
         <v>1346.3</v>
@@ -13592,7 +13592,7 @@
         <v>-13.1</v>
       </c>
       <c r="BV24" t="n">
-        <v>5600</v>
+        <v>1255.100000000002</v>
       </c>
       <c r="BW24" t="n">
         <v>10490</v>
@@ -13601,7 +13601,7 @@
         <v>-7.4</v>
       </c>
       <c r="BY24" t="n">
-        <v>4655.700000000001</v>
+        <v>949.9000000000019</v>
       </c>
       <c r="BZ24" t="n">
         <v>8835.799999999999</v>
@@ -13610,7 +13610,7 @@
         <v>-6.7</v>
       </c>
       <c r="CB24" t="n">
-        <v>5045.599999999999</v>
+        <v>3918.3</v>
       </c>
       <c r="CC24" t="n">
         <v>4900.7</v>
@@ -13619,7 +13619,7 @@
         <v>-24.9</v>
       </c>
       <c r="CE24" t="n">
-        <v>922.7</v>
+        <v>826.5999999999999</v>
       </c>
       <c r="CF24" t="n">
         <v>966.5</v>
@@ -13628,7 +13628,7 @@
         <v>-28.4</v>
       </c>
       <c r="CH24" t="n">
-        <v>3445.900000000001</v>
+        <v>1160.500000000002</v>
       </c>
       <c r="CI24" t="n">
         <v>5887.6</v>
@@ -13637,7 +13637,7 @@
         <v>1.5</v>
       </c>
       <c r="CK24" t="n">
-        <v>406.0999999999999</v>
+        <v>314.7999999999995</v>
       </c>
       <c r="CL24" t="n">
         <v>789.5</v>
@@ -13646,7 +13646,7 @@
         <v>2.8</v>
       </c>
       <c r="CN24" t="n">
-        <v>2130.1</v>
+        <v>1586.499999999999</v>
       </c>
       <c r="CO24" t="n">
         <v>1974.7</v>
@@ -13655,7 +13655,7 @@
         <v>-30.6</v>
       </c>
       <c r="CQ24" t="n">
-        <v>1102.8</v>
+        <v>1036.400000000001</v>
       </c>
       <c r="CR24" t="n">
         <v>1256.9</v>
@@ -13664,7 +13664,7 @@
         <v>-28.4</v>
       </c>
       <c r="CT24" t="n">
-        <v>7898.100000000002</v>
+        <v>5299.699999999997</v>
       </c>
       <c r="CU24" t="n">
         <v>10558.4</v>
@@ -13673,7 +13673,7 @@
         <v>-14.8</v>
       </c>
       <c r="CW24" t="n">
-        <v>3126.7</v>
+        <v>2713.300000000001</v>
       </c>
       <c r="CX24" t="n">
         <v>2996.6</v>
@@ -13682,7 +13682,7 @@
         <v>-25.3</v>
       </c>
       <c r="CZ24" t="n">
-        <v>1082</v>
+        <v>657.5999999999999</v>
       </c>
       <c r="DA24" t="n">
         <v>1171.2</v>
@@ -13691,7 +13691,7 @@
         <v>-27.9</v>
       </c>
       <c r="DC24" t="n">
-        <v>905.5999999999999</v>
+        <v>464.6999999999989</v>
       </c>
       <c r="DD24" t="n">
         <v>1213.4</v>
@@ -13700,7 +13700,7 @@
         <v>-21.5</v>
       </c>
       <c r="DF24" t="n">
-        <v>2507</v>
+        <v>2221.500000000002</v>
       </c>
       <c r="DG24" t="n">
         <v>3653.9</v>
@@ -13709,7 +13709,7 @@
         <v>-10.1</v>
       </c>
       <c r="DI24" t="n">
-        <v>89.29999999999998</v>
+        <v>51.20000000000001</v>
       </c>
       <c r="DJ24" t="n">
         <v>129.4</v>
@@ -13718,7 +13718,7 @@
         <v>-3.6</v>
       </c>
       <c r="DL24" t="n">
-        <v>2759</v>
+        <v>2001.000000000001</v>
       </c>
       <c r="DM24" t="n">
         <v>2880.5</v>
@@ -13736,7 +13736,7 @@
         <v>-24.6</v>
       </c>
       <c r="DR24" t="n">
-        <v>3639.400000000001</v>
+        <v>2961.7</v>
       </c>
       <c r="DS24" t="n">
         <v>4324</v>
@@ -13745,7 +13745,7 @@
         <v>-21.7</v>
       </c>
       <c r="DU24" t="n">
-        <v>209.1</v>
+        <v>159.6000000000003</v>
       </c>
       <c r="DV24" t="n">
         <v>253</v>
@@ -13754,7 +13754,7 @@
         <v>-25.3</v>
       </c>
       <c r="DX24" t="n">
-        <v>1186.7</v>
+        <v>716.5000000000002</v>
       </c>
       <c r="DY24" t="n">
         <v>1818.9</v>
@@ -13763,7 +13763,7 @@
         <v>-15</v>
       </c>
       <c r="EA24" t="n">
-        <v>5725.4</v>
+        <v>2118.800000000001</v>
       </c>
       <c r="EB24" t="n">
         <v>7659.3</v>
@@ -13772,7 +13772,7 @@
         <v>-11.5</v>
       </c>
       <c r="ED24" t="n">
-        <v>239.4999999999999</v>
+        <v>99.50000000000009</v>
       </c>
       <c r="EE24" t="n">
         <v>363</v>
@@ -14731,7 +14731,7 @@
         <v>-4.4</v>
       </c>
       <c r="CK26" t="n">
-        <v>405.8</v>
+        <v>397.8999999999999</v>
       </c>
       <c r="CL26" t="n">
         <v>1595.9</v>
@@ -15017,7 +15017,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>338.2999999999979</v>
+        <v>289.7999999999959</v>
       </c>
       <c r="C27" t="n">
         <v>8547.700000000001</v>
@@ -15026,7 +15026,7 @@
         <v>-3.3</v>
       </c>
       <c r="E27" t="n">
-        <v>112.7</v>
+        <v>93.50000000000001</v>
       </c>
       <c r="F27" t="n">
         <v>1808.2</v>
@@ -15044,7 +15044,7 @@
         <v>-9.1</v>
       </c>
       <c r="K27" t="n">
-        <v>1.600000000000002</v>
+        <v>1.400000000000003</v>
       </c>
       <c r="L27" t="n">
         <v>2.9</v>
@@ -15053,7 +15053,7 @@
         <v>-59.2</v>
       </c>
       <c r="N27" t="n">
-        <v>221.4000000000024</v>
+        <v>52.20000000000348</v>
       </c>
       <c r="O27" t="n">
         <v>15861.4</v>
@@ -15062,7 +15062,7 @@
         <v>0.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>4398.399999999965</v>
+        <v>1136.299999999988</v>
       </c>
       <c r="R27" t="n">
         <v>275408.8</v>
@@ -15080,7 +15080,7 @@
         <v>-10.4</v>
       </c>
       <c r="W27" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="X27" t="n">
         <v>2643.9</v>
@@ -15089,7 +15089,7 @@
         <v>-17.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>138.199999999998</v>
+        <v>117.899999999996</v>
       </c>
       <c r="AA27" t="n">
         <v>5149.4</v>
@@ -15098,7 +15098,7 @@
         <v>-0.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>57.40000000000026</v>
+        <v>21.70000000000033</v>
       </c>
       <c r="AD27" t="n">
         <v>1849.5</v>
@@ -15107,7 +15107,7 @@
         <v>-10.7</v>
       </c>
       <c r="AF27" t="n">
-        <v>37.30000000000035</v>
+        <v>8.000000000000341</v>
       </c>
       <c r="AG27" t="n">
         <v>1859</v>
@@ -15116,7 +15116,7 @@
         <v>-16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>4804.199999999953</v>
+        <v>1446.199999999895</v>
       </c>
       <c r="AJ27" t="n">
         <v>312607.4</v>
@@ -15125,7 +15125,7 @@
         <v>-6.8</v>
       </c>
       <c r="AL27" t="n">
-        <v>400.9000000000001</v>
+        <v>284.7000000000001</v>
       </c>
       <c r="AM27" t="n">
         <v>1557.9</v>
@@ -15134,7 +15134,7 @@
         <v>-2.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.599999999999994</v>
+        <v>5.299999999999983</v>
       </c>
       <c r="AP27" t="n">
         <v>738.4</v>
@@ -15161,7 +15161,7 @@
         <v>-2.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>39.5</v>
+        <v>29.30000000000001</v>
       </c>
       <c r="AY27" t="n">
         <v>669.3</v>
@@ -15170,7 +15170,7 @@
         <v>-7.8</v>
       </c>
       <c r="BA27" t="n">
-        <v>50.29999999999973</v>
+        <v>27.69999999999937</v>
       </c>
       <c r="BB27" t="n">
         <v>2531.7</v>
@@ -15206,7 +15206,7 @@
         <v>-12.8</v>
       </c>
       <c r="BM27" t="n">
-        <v>273.8</v>
+        <v>271.5</v>
       </c>
       <c r="BN27" t="n">
         <v>1671.9</v>
@@ -15260,7 +15260,7 @@
         <v>-9.5</v>
       </c>
       <c r="CE27" t="n">
-        <v>166.1000000000004</v>
+        <v>112.3000000000007</v>
       </c>
       <c r="CF27" t="n">
         <v>3153.9</v>
@@ -15287,7 +15287,7 @@
         <v>-0.8</v>
       </c>
       <c r="CN27" t="n">
-        <v>148.8999999999992</v>
+        <v>65.59999999999835</v>
       </c>
       <c r="CO27" t="n">
         <v>6870.1</v>
@@ -15296,7 +15296,7 @@
         <v>-17.9</v>
       </c>
       <c r="CQ27" t="n">
-        <v>144.2000000000003</v>
+        <v>87.80000000000067</v>
       </c>
       <c r="CR27" t="n">
         <v>3983.9</v>
@@ -15305,7 +15305,7 @@
         <v>-16.5</v>
       </c>
       <c r="CT27" t="n">
-        <v>427.4000000000005</v>
+        <v>106.0999999999976</v>
       </c>
       <c r="CU27" t="n">
         <v>35328.8</v>
@@ -15314,7 +15314,7 @@
         <v>0.9</v>
       </c>
       <c r="CW27" t="n">
-        <v>309.5</v>
+        <v>176.4000000000024</v>
       </c>
       <c r="CX27" t="n">
         <v>11122.2</v>
@@ -15332,7 +15332,7 @@
         <v>-13</v>
       </c>
       <c r="DC27" t="n">
-        <v>138.0999999999999</v>
+        <v>55.19999999999982</v>
       </c>
       <c r="DD27" t="n">
         <v>3670.5</v>
@@ -15350,7 +15350,7 @@
         <v>-5.5</v>
       </c>
       <c r="DI27" t="n">
-        <v>13.40000000000005</v>
+        <v>6.100000000000124</v>
       </c>
       <c r="DJ27" t="n">
         <v>402.8</v>
@@ -15368,7 +15368,7 @@
         <v>-9.6</v>
       </c>
       <c r="DO27" t="n">
-        <v>279.1000000000004</v>
+        <v>235.4000000000011</v>
       </c>
       <c r="DP27" t="n">
         <v>3085.1</v>
@@ -15395,7 +15395,7 @@
         <v>-6.9</v>
       </c>
       <c r="DX27" t="n">
-        <v>103.200000000001</v>
+        <v>45.100000000002</v>
       </c>
       <c r="DY27" t="n">
         <v>5596.9</v>
@@ -15413,7 +15413,7 @@
         <v>-4</v>
       </c>
       <c r="ED27" t="n">
-        <v>23.09999999999991</v>
+        <v>11.2999999999999</v>
       </c>
       <c r="EE27" t="n">
         <v>1091.9</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1867.300000000001</v>
+        <v>1529.000000000003</v>
       </c>
       <c r="C28" t="n">
         <v>11012.6</v>
@@ -15573,7 +15573,7 @@
         <v>0.1</v>
       </c>
       <c r="E28" t="n">
-        <v>413.9000000000001</v>
+        <v>301.2000000000001</v>
       </c>
       <c r="F28" t="n">
         <v>2359</v>
@@ -15591,7 +15591,7 @@
         <v>-6.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>1.299999999999998</v>
       </c>
       <c r="L28" t="n">
         <v>3.7</v>
@@ -15600,7 +15600,7 @@
         <v>-66.09999999999999</v>
       </c>
       <c r="N28" t="n">
-        <v>3231.299999999999</v>
+        <v>3009.899999999996</v>
       </c>
       <c r="O28" t="n">
         <v>19454.8</v>
@@ -15609,7 +15609,7 @@
         <v>0.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>62621.70000000001</v>
+        <v>58223.30000000005</v>
       </c>
       <c r="R28" t="n">
         <v>346170.9</v>
@@ -15618,7 +15618,7 @@
         <v>-4.9</v>
       </c>
       <c r="T28" t="n">
-        <v>4256.5</v>
+        <v>4203.899999999999</v>
       </c>
       <c r="U28" t="n">
         <v>23942.7</v>
@@ -15627,7 +15627,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="W28" t="n">
-        <v>148.5</v>
+        <v>94.5</v>
       </c>
       <c r="X28" t="n">
         <v>3219.7</v>
@@ -15636,7 +15636,7 @@
         <v>-18.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>1066.6</v>
+        <v>928.4000000000019</v>
       </c>
       <c r="AA28" t="n">
         <v>6397.4</v>
@@ -15645,7 +15645,7 @@
         <v>0.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>458.4000000000001</v>
+        <v>400.9999999999998</v>
       </c>
       <c r="AD28" t="n">
         <v>2318</v>
@@ -15654,7 +15654,7 @@
         <v>-9.4</v>
       </c>
       <c r="AF28" t="n">
-        <v>475.4000000000001</v>
+        <v>438.0999999999997</v>
       </c>
       <c r="AG28" t="n">
         <v>2337.6</v>
@@ -15663,7 +15663,7 @@
         <v>-14.8</v>
       </c>
       <c r="AI28" t="n">
-        <v>71187.09999999998</v>
+        <v>66382.90000000002</v>
       </c>
       <c r="AJ28" t="n">
         <v>391601.2</v>
@@ -15681,7 +15681,7 @@
         <v>1.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>140.2</v>
+        <v>131.6</v>
       </c>
       <c r="AP28" t="n">
         <v>915.1</v>
@@ -15690,7 +15690,7 @@
         <v>-3.1</v>
       </c>
       <c r="AR28" t="n">
-        <v>949.2000000000007</v>
+        <v>801.1000000000008</v>
       </c>
       <c r="AS28" t="n">
         <v>4419.3</v>
@@ -15708,7 +15708,7 @@
         <v>0.3</v>
       </c>
       <c r="AX28" t="n">
-        <v>165.9</v>
+        <v>126.4</v>
       </c>
       <c r="AY28" t="n">
         <v>860.6</v>
@@ -15726,7 +15726,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="BD28" t="n">
-        <v>1536.699999999999</v>
+        <v>1514.099999999998</v>
       </c>
       <c r="BE28" t="n">
         <v>9253.5</v>
@@ -15735,7 +15735,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="BG28" t="n">
-        <v>176.3000000000001</v>
+        <v>136.3000000000001</v>
       </c>
       <c r="BH28" t="n">
         <v>1047.4</v>
@@ -15744,7 +15744,7 @@
         <v>2.6</v>
       </c>
       <c r="BJ28" t="n">
-        <v>4342.600000000002</v>
+        <v>3955.200000000001</v>
       </c>
       <c r="BK28" t="n">
         <v>29372.1</v>
@@ -15762,7 +15762,7 @@
         <v>-3.7</v>
       </c>
       <c r="BP28" t="n">
-        <v>1201.9</v>
+        <v>1187.5</v>
       </c>
       <c r="BQ28" t="n">
         <v>6546.6</v>
@@ -15780,7 +15780,7 @@
         <v>-11.3</v>
       </c>
       <c r="BV28" t="n">
-        <v>647.4999999999964</v>
+        <v>367.4999999999964</v>
       </c>
       <c r="BW28" t="n">
         <v>32192.8</v>
@@ -15789,7 +15789,7 @@
         <v>-2.6</v>
       </c>
       <c r="BY28" t="n">
-        <v>614.9000000000015</v>
+        <v>308.2000000000044</v>
       </c>
       <c r="BZ28" t="n">
         <v>27511.5</v>
@@ -15798,7 +15798,7 @@
         <v>-1.5</v>
       </c>
       <c r="CB28" t="n">
-        <v>4212.900000000001</v>
+        <v>3698.000000000005</v>
       </c>
       <c r="CC28" t="n">
         <v>23434.6</v>
@@ -15807,7 +15807,7 @@
         <v>-6.1</v>
       </c>
       <c r="CE28" t="n">
-        <v>891.1999999999998</v>
+        <v>725.0999999999995</v>
       </c>
       <c r="CF28" t="n">
         <v>3996.9</v>
@@ -15816,7 +15816,7 @@
         <v>-17</v>
       </c>
       <c r="CH28" t="n">
-        <v>3263.700000000001</v>
+        <v>3159.000000000001</v>
       </c>
       <c r="CI28" t="n">
         <v>17014.6</v>
@@ -15825,7 +15825,7 @@
         <v>-10.2</v>
       </c>
       <c r="CK28" t="n">
-        <v>420.6000000000004</v>
+        <v>393.3000000000005</v>
       </c>
       <c r="CL28" t="n">
         <v>2392.6</v>
@@ -15834,7 +15834,7 @@
         <v>-1.4</v>
       </c>
       <c r="CN28" t="n">
-        <v>1818.6</v>
+        <v>1669.700000000001</v>
       </c>
       <c r="CO28" t="n">
         <v>8548</v>
@@ -15852,7 +15852,7 @@
         <v>-16</v>
       </c>
       <c r="CT28" t="n">
-        <v>7773.199999999997</v>
+        <v>7345.799999999997</v>
       </c>
       <c r="CU28" t="n">
         <v>44864.2</v>
@@ -15861,7 +15861,7 @@
         <v>4.4</v>
       </c>
       <c r="CW28" t="n">
-        <v>2411.900000000001</v>
+        <v>2102.400000000001</v>
       </c>
       <c r="CX28" t="n">
         <v>14236.9</v>
@@ -15870,7 +15870,7 @@
         <v>-4.9</v>
       </c>
       <c r="CZ28" t="n">
-        <v>920.5</v>
+        <v>905.5</v>
       </c>
       <c r="DA28" t="n">
         <v>4868.4</v>
@@ -15879,7 +15879,7 @@
         <v>-10.8</v>
       </c>
       <c r="DC28" t="n">
-        <v>809.1999999999998</v>
+        <v>671.0999999999999</v>
       </c>
       <c r="DD28" t="n">
         <v>4671.3</v>
@@ -15888,7 +15888,7 @@
         <v>-7.1</v>
       </c>
       <c r="DF28" t="n">
-        <v>2387.800000000001</v>
+        <v>2262.100000000001</v>
       </c>
       <c r="DG28" t="n">
         <v>13237.4</v>
@@ -15897,7 +15897,7 @@
         <v>-5.5</v>
       </c>
       <c r="DI28" t="n">
-        <v>90.29999999999995</v>
+        <v>76.89999999999991</v>
       </c>
       <c r="DJ28" t="n">
         <v>498.1</v>
@@ -15915,7 +15915,7 @@
         <v>-7.3</v>
       </c>
       <c r="DO28" t="n">
-        <v>714.1000000000004</v>
+        <v>434.9999999999999</v>
       </c>
       <c r="DP28" t="n">
         <v>4071.4</v>
@@ -15924,7 +15924,7 @@
         <v>-5.7</v>
       </c>
       <c r="DR28" t="n">
-        <v>3912.700000000001</v>
+        <v>3746.600000000004</v>
       </c>
       <c r="DS28" t="n">
         <v>19597.5</v>
@@ -15933,7 +15933,7 @@
         <v>-5</v>
       </c>
       <c r="DU28" t="n">
-        <v>224.0999999999999</v>
+        <v>212.6999999999999</v>
       </c>
       <c r="DV28" t="n">
         <v>1146.1</v>
@@ -15942,7 +15942,7 @@
         <v>-4.7</v>
       </c>
       <c r="DX28" t="n">
-        <v>1157.8</v>
+        <v>1054.599999999999</v>
       </c>
       <c r="DY28" t="n">
         <v>6921.5</v>
@@ -15951,7 +15951,7 @@
         <v>0.2</v>
       </c>
       <c r="EA28" t="n">
-        <v>5383.299999999999</v>
+        <v>5372.299999999996</v>
       </c>
       <c r="EB28" t="n">
         <v>29692.4</v>
@@ -15960,7 +15960,7 @@
         <v>-2.1</v>
       </c>
       <c r="ED28" t="n">
-        <v>232.3000000000002</v>
+        <v>209.2000000000003</v>
       </c>
       <c r="EE28" t="n">
         <v>1372.8</v>
@@ -16129,7 +16129,7 @@
         <v>-1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>115.8000000000001</v>
+        <v>113.9000000000001</v>
       </c>
       <c r="I29" t="n">
         <v>739.3</v>
@@ -16174,7 +16174,7 @@
         <v>-8.4</v>
       </c>
       <c r="W29" t="n">
-        <v>651.8999999999996</v>
+        <v>503.3999999999996</v>
       </c>
       <c r="X29" t="n">
         <v>3995.2</v>
@@ -16219,7 +16219,7 @@
         <v>-3.6</v>
       </c>
       <c r="AL29" t="n">
-        <v>423.1999999999998</v>
+        <v>378.9999999999998</v>
       </c>
       <c r="AM29" t="n">
         <v>2496.1</v>
@@ -16246,7 +16246,7 @@
         <v>-12.1</v>
       </c>
       <c r="AU29" t="n">
-        <v>105.9000000000051</v>
+        <v>104.1000000000095</v>
       </c>
       <c r="AV29" t="n">
         <v>28430</v>
@@ -16264,7 +16264,7 @@
         <v>-5.2</v>
       </c>
       <c r="BA29" t="n">
-        <v>662.3999999999996</v>
+        <v>653.9999999999991</v>
       </c>
       <c r="BB29" t="n">
         <v>3796.7</v>
@@ -16300,7 +16300,7 @@
         <v>-4.2</v>
       </c>
       <c r="BM29" t="n">
-        <v>310.5</v>
+        <v>241.9000000000001</v>
       </c>
       <c r="BN29" t="n">
         <v>2285.1</v>
@@ -16318,7 +16318,7 @@
         <v>-8</v>
       </c>
       <c r="BS29" t="n">
-        <v>584.6999999999998</v>
+        <v>525.099999999999</v>
       </c>
       <c r="BT29" t="n">
         <v>4154.4</v>
@@ -16453,7 +16453,7 @@
         <v>-0.9</v>
       </c>
       <c r="DL29" t="n">
-        <v>2618.900000000001</v>
+        <v>2544.800000000003</v>
       </c>
       <c r="DM29" t="n">
         <v>15953.8</v>
@@ -16667,7 +16667,7 @@
         <v>2.4</v>
       </c>
       <c r="E30" t="n">
-        <v>49.69999999999982</v>
+        <v>25.59999999999991</v>
       </c>
       <c r="F30" t="n">
         <v>3290.7</v>
@@ -16703,7 +16703,7 @@
         <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5659.900000000081</v>
+        <v>3766.800000000104</v>
       </c>
       <c r="R30" t="n">
         <v>479030.4</v>
@@ -16712,7 +16712,7 @@
         <v>-2.4</v>
       </c>
       <c r="T30" t="n">
-        <v>444.2000000000044</v>
+        <v>326.4000000000088</v>
       </c>
       <c r="U30" t="n">
         <v>32386.5</v>
@@ -16748,7 +16748,7 @@
         <v>-7.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>33.4000000000006</v>
+        <v>10.40000000000111</v>
       </c>
       <c r="AG30" t="n">
         <v>3309.9</v>
@@ -16757,7 +16757,7 @@
         <v>-11</v>
       </c>
       <c r="AI30" t="n">
-        <v>5745.199999999953</v>
+        <v>3725.499999999884</v>
       </c>
       <c r="AJ30" t="n">
         <v>541536.4</v>
@@ -16829,7 +16829,7 @@
         <v>-7.2</v>
       </c>
       <c r="BG30" t="n">
-        <v>21.7000000000001</v>
+        <v>9.900000000000288</v>
       </c>
       <c r="BH30" t="n">
         <v>1439.9</v>
@@ -16856,7 +16856,7 @@
         <v>-3.7</v>
       </c>
       <c r="BP30" t="n">
-        <v>249.1999999999991</v>
+        <v>188.3999999999982</v>
       </c>
       <c r="BQ30" t="n">
         <v>8851.799999999999</v>
@@ -16874,7 +16874,7 @@
         <v>-11.1</v>
       </c>
       <c r="BV30" t="n">
-        <v>5966.300000000003</v>
+        <v>5952.599999999999</v>
       </c>
       <c r="BW30" t="n">
         <v>44640.6</v>
@@ -16883,7 +16883,7 @@
         <v>-1.7</v>
       </c>
       <c r="BY30" t="n">
-        <v>5174.099999999999</v>
+        <v>5163.700000000001</v>
       </c>
       <c r="BZ30" t="n">
         <v>38511.7</v>
@@ -16892,7 +16892,7 @@
         <v>-0.6</v>
       </c>
       <c r="CB30" t="n">
-        <v>627.799999999992</v>
+        <v>488.5999999999904</v>
       </c>
       <c r="CC30" t="n">
         <v>32871.9</v>
@@ -16910,7 +16910,7 @@
         <v>-16.9</v>
       </c>
       <c r="CH30" t="n">
-        <v>171.5</v>
+        <v>94.40000000000236</v>
       </c>
       <c r="CI30" t="n">
         <v>22291.3</v>
@@ -16937,7 +16937,7 @@
         <v>-12.9</v>
       </c>
       <c r="CQ30" t="n">
-        <v>30.099999999999</v>
+        <v>29.99999999999909</v>
       </c>
       <c r="CR30" t="n">
         <v>7047.1</v>
@@ -16946,7 +16946,7 @@
         <v>-14</v>
       </c>
       <c r="CT30" t="n">
-        <v>1153.299999999988</v>
+        <v>827.7999999999806</v>
       </c>
       <c r="CU30" t="n">
         <v>63014.8</v>
@@ -16955,7 +16955,7 @@
         <v>7.1</v>
       </c>
       <c r="CW30" t="n">
-        <v>231.4000000000024</v>
+        <v>140.0000000000046</v>
       </c>
       <c r="CX30" t="n">
         <v>19584.4</v>
@@ -16964,7 +16964,7 @@
         <v>-1.6</v>
       </c>
       <c r="CZ30" t="n">
-        <v>68.0999999999998</v>
+        <v>44.79999999999961</v>
       </c>
       <c r="DA30" t="n">
         <v>6748.4</v>
@@ -16973,7 +16973,7 @@
         <v>-7.8</v>
       </c>
       <c r="DC30" t="n">
-        <v>61.10000000000036</v>
+        <v>0.9000000000005386</v>
       </c>
       <c r="DD30" t="n">
         <v>6297</v>
@@ -16982,7 +16982,7 @@
         <v>-6.1</v>
       </c>
       <c r="DF30" t="n">
-        <v>310.400000000001</v>
+        <v>197.6000000000031</v>
       </c>
       <c r="DG30" t="n">
         <v>17865.5</v>
@@ -16991,7 +16991,7 @@
         <v>-5.4</v>
       </c>
       <c r="DI30" t="n">
-        <v>9.399999999999977</v>
+        <v>4.099999999999909</v>
       </c>
       <c r="DJ30" t="n">
         <v>670.4</v>
@@ -17009,7 +17009,7 @@
         <v>-3.6</v>
       </c>
       <c r="DO30" t="n">
-        <v>103.5999999999995</v>
+        <v>39.39999999999968</v>
       </c>
       <c r="DP30" t="n">
         <v>5611.4</v>
@@ -17027,7 +17027,7 @@
         <v>-3.2</v>
       </c>
       <c r="DU30" t="n">
-        <v>19.4999999999998</v>
+        <v>16.69999999999962</v>
       </c>
       <c r="DV30" t="n">
         <v>1600.1</v>
@@ -17045,7 +17045,7 @@
         <v>0.7</v>
       </c>
       <c r="EA30" t="n">
-        <v>273.7999999999956</v>
+        <v>219.3999999999905</v>
       </c>
       <c r="EB30" t="n">
         <v>41578.5</v>
@@ -17054,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="ED30" t="n">
-        <v>13.90000000000009</v>
+        <v>7.200000000000299</v>
       </c>
       <c r="EE30" t="n">
         <v>1902.8</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1970</v>
+        <v>1712.199999999999</v>
       </c>
       <c r="C31" t="n">
         <v>17437.4</v>
@@ -17214,7 +17214,7 @@
         <v>3.9</v>
       </c>
       <c r="E31" t="n">
-        <v>474.7999999999997</v>
+        <v>425.0999999999999</v>
       </c>
       <c r="F31" t="n">
         <v>3839.6</v>
@@ -17241,7 +17241,7 @@
         <v>-72.2</v>
       </c>
       <c r="N31" t="n">
-        <v>3729.299999999999</v>
+        <v>3458.399999999996</v>
       </c>
       <c r="O31" t="n">
         <v>30587</v>
@@ -17250,7 +17250,7 @@
         <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>67321</v>
+        <v>61661.09999999992</v>
       </c>
       <c r="R31" t="n">
         <v>553950.5</v>
@@ -17259,7 +17259,7 @@
         <v>-1.3</v>
       </c>
       <c r="T31" t="n">
-        <v>4596.900000000001</v>
+        <v>4152.699999999996</v>
       </c>
       <c r="U31" t="n">
         <v>37133.6</v>
@@ -17268,7 +17268,7 @@
         <v>-6.7</v>
       </c>
       <c r="W31" t="n">
-        <v>677.8999999999996</v>
+        <v>637.8999999999987</v>
       </c>
       <c r="X31" t="n">
         <v>5344</v>
@@ -17277,7 +17277,7 @@
         <v>-13.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>1085.9</v>
+        <v>911.2999999999981</v>
       </c>
       <c r="AA31" t="n">
         <v>9972.9</v>
@@ -17304,7 +17304,7 @@
         <v>-9.1</v>
       </c>
       <c r="AI31" t="n">
-        <v>75193.90000000002</v>
+        <v>69448.70000000007</v>
       </c>
       <c r="AJ31" t="n">
         <v>625313.8</v>
@@ -17322,7 +17322,7 @@
         <v>7.9</v>
       </c>
       <c r="AO31" t="n">
-        <v>172.7</v>
+        <v>156.9000000000001</v>
       </c>
       <c r="AP31" t="n">
         <v>1331.4</v>
@@ -17331,7 +17331,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AR31" t="n">
-        <v>923.3000000000011</v>
+        <v>823.4000000000019</v>
       </c>
       <c r="AS31" t="n">
         <v>7477.6</v>
@@ -17340,7 +17340,7 @@
         <v>-7.4</v>
       </c>
       <c r="AU31" t="n">
-        <v>3587.299999999996</v>
+        <v>3532.699999999998</v>
       </c>
       <c r="AV31" t="n">
         <v>37395.9</v>
@@ -17349,7 +17349,7 @@
         <v>1.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>176.2</v>
+        <v>174.9</v>
       </c>
       <c r="AY31" t="n">
         <v>1375.3</v>
@@ -17358,7 +17358,7 @@
         <v>-4.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>701.2000000000007</v>
+        <v>646.7000000000007</v>
       </c>
       <c r="BB31" t="n">
         <v>5133.6</v>
@@ -17367,7 +17367,7 @@
         <v>-7.1</v>
       </c>
       <c r="BD31" t="n">
-        <v>1844.700000000001</v>
+        <v>1715.6</v>
       </c>
       <c r="BE31" t="n">
         <v>14384.9</v>
@@ -17376,7 +17376,7 @@
         <v>-5.8</v>
       </c>
       <c r="BG31" t="n">
-        <v>169.2</v>
+        <v>147.4999999999999</v>
       </c>
       <c r="BH31" t="n">
         <v>1667.2</v>
@@ -17403,7 +17403,7 @@
         <v>-3</v>
       </c>
       <c r="BP31" t="n">
-        <v>1223.200000000001</v>
+        <v>974.0000000000018</v>
       </c>
       <c r="BQ31" t="n">
         <v>10076.2</v>
@@ -17439,7 +17439,7 @@
         <v>0.2</v>
       </c>
       <c r="CB31" t="n">
-        <v>4534.5</v>
+        <v>3906.700000000008</v>
       </c>
       <c r="CC31" t="n">
         <v>38678</v>
@@ -17448,7 +17448,7 @@
         <v>0.5</v>
       </c>
       <c r="CE31" t="n">
-        <v>869.2999999999993</v>
+        <v>800.9999999999982</v>
       </c>
       <c r="CF31" t="n">
         <v>6276.3</v>
@@ -17475,7 +17475,7 @@
         <v>-3.5</v>
       </c>
       <c r="CN31" t="n">
-        <v>1805.100000000002</v>
+        <v>1681.200000000001</v>
       </c>
       <c r="CO31" t="n">
         <v>13882.6</v>
@@ -17484,7 +17484,7 @@
         <v>-11.6</v>
       </c>
       <c r="CQ31" t="n">
-        <v>1157.6</v>
+        <v>1127.500000000001</v>
       </c>
       <c r="CR31" t="n">
         <v>8137.7</v>
@@ -17493,7 +17493,7 @@
         <v>-13.1</v>
       </c>
       <c r="CT31" t="n">
-        <v>9159.600000000006</v>
+        <v>8006.300000000017</v>
       </c>
       <c r="CU31" t="n">
         <v>73110</v>
@@ -17502,7 +17502,7 @@
         <v>7.3</v>
       </c>
       <c r="CW31" t="n">
-        <v>2683</v>
+        <v>2451.599999999998</v>
       </c>
       <c r="CX31" t="n">
         <v>22678.7</v>
@@ -17511,7 +17511,7 @@
         <v>0.2</v>
       </c>
       <c r="CZ31" t="n">
-        <v>968.7000000000007</v>
+        <v>900.6000000000009</v>
       </c>
       <c r="DA31" t="n">
         <v>7805.7</v>
@@ -17520,7 +17520,7 @@
         <v>-6.3</v>
       </c>
       <c r="DC31" t="n">
-        <v>806.3000000000011</v>
+        <v>745.2000000000007</v>
       </c>
       <c r="DD31" t="n">
         <v>7242.6</v>
@@ -17529,7 +17529,7 @@
         <v>-5.1</v>
       </c>
       <c r="DF31" t="n">
-        <v>2506.900000000001</v>
+        <v>2196.5</v>
       </c>
       <c r="DG31" t="n">
         <v>20423.8</v>
@@ -17547,7 +17547,7 @@
         <v>-2.2</v>
       </c>
       <c r="DL31" t="n">
-        <v>2751.5</v>
+        <v>2460.7</v>
       </c>
       <c r="DM31" t="n">
         <v>22004.1</v>
@@ -17556,7 +17556,7 @@
         <v>-2</v>
       </c>
       <c r="DO31" t="n">
-        <v>808.1999999999998</v>
+        <v>704.6000000000004</v>
       </c>
       <c r="DP31" t="n">
         <v>6587</v>
@@ -17583,7 +17583,7 @@
         <v>-2.2</v>
       </c>
       <c r="DX31" t="n">
-        <v>1298.9</v>
+        <v>1252.800000000002</v>
       </c>
       <c r="DY31" t="n">
         <v>10852.6</v>
@@ -17592,7 +17592,7 @@
         <v>1.4</v>
       </c>
       <c r="EA31" t="n">
-        <v>5280.899999999994</v>
+        <v>5007.099999999999</v>
       </c>
       <c r="EB31" t="n">
         <v>47788.3</v>
@@ -17601,7 +17601,7 @@
         <v>1.9</v>
       </c>
       <c r="ED31" t="n">
-        <v>244.3999999999996</v>
+        <v>230.4999999999995</v>
       </c>
       <c r="EE31" t="n">
         <v>2212.5</v>
@@ -17770,7 +17770,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>5.799999999999812</v>
+        <v>4.899999999999622</v>
       </c>
       <c r="I32" t="n">
         <v>1126.6</v>
@@ -17779,7 +17779,7 @@
         <v>-0.4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.800000000000001</v>
+        <v>2.699999999999996</v>
       </c>
       <c r="L32" t="n">
         <v>5.9</v>
@@ -17833,7 +17833,7 @@
         <v>4.1</v>
       </c>
       <c r="AC32" t="n">
-        <v>62.00000000000045</v>
+        <v>55.40000000000054</v>
       </c>
       <c r="AD32" t="n">
         <v>4223.5</v>
@@ -17842,7 +17842,7 @@
         <v>-5.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>32.30000000000018</v>
+        <v>12.10000000000036</v>
       </c>
       <c r="AG32" t="n">
         <v>4453.4</v>
@@ -17932,7 +17932,7 @@
         <v>6.6</v>
       </c>
       <c r="BJ32" t="n">
-        <v>553.4000000000005</v>
+        <v>522.2000000000016</v>
       </c>
       <c r="BK32" t="n">
         <v>54103.2</v>
@@ -18013,7 +18013,7 @@
         <v>-13.9</v>
       </c>
       <c r="CK32" t="n">
-        <v>12.00000000000091</v>
+        <v>3.800000000001603</v>
       </c>
       <c r="CL32" t="n">
         <v>3988.5</v>
@@ -18112,7 +18112,7 @@
         <v>-1.6</v>
       </c>
       <c r="DR32" t="n">
-        <v>399.4999999999964</v>
+        <v>352.1999999999967</v>
       </c>
       <c r="DS32" t="n">
         <v>36167.2</v>
@@ -18121,7 +18121,7 @@
         <v>-1.3</v>
       </c>
       <c r="DU32" t="n">
-        <v>21</v>
+        <v>17.4999999999998</v>
       </c>
       <c r="DV32" t="n">
         <v>2098.1</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>703.2999999999988</v>
+        <v>380.0999999999976</v>
       </c>
       <c r="C33" t="n">
         <v>22353.3</v>
@@ -18308,7 +18308,7 @@
         <v>6.2</v>
       </c>
       <c r="E33" t="n">
-        <v>207.9999999999991</v>
+        <v>129.8999999999983</v>
       </c>
       <c r="F33" t="n">
         <v>4953.4</v>
@@ -18317,7 +18317,7 @@
         <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>19.00000000000018</v>
+        <v>13.20000000000037</v>
       </c>
       <c r="I33" t="n">
         <v>1265.8</v>
@@ -18335,7 +18335,7 @@
         <v>-74.5</v>
       </c>
       <c r="N33" t="n">
-        <v>696.8999999999942</v>
+        <v>447.8999999999901</v>
       </c>
       <c r="O33" t="n">
         <v>38514</v>
@@ -18344,7 +18344,7 @@
         <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>8913.300000000163</v>
+        <v>2787.900000000256</v>
       </c>
       <c r="R33" t="n">
         <v>703889.6</v>
@@ -18371,7 +18371,7 @@
         <v>-11.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>254.3000000000011</v>
+        <v>118.0000000000023</v>
       </c>
       <c r="AA33" t="n">
         <v>12543.1</v>
@@ -18380,7 +18380,7 @@
         <v>4.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>78.49999999999909</v>
+        <v>16.49999999999864</v>
       </c>
       <c r="AD33" t="n">
         <v>4788.1</v>
@@ -18389,7 +18389,7 @@
         <v>-5</v>
       </c>
       <c r="AF33" t="n">
-        <v>85.09999999999945</v>
+        <v>52.79999999999927</v>
       </c>
       <c r="AG33" t="n">
         <v>5072.6</v>
@@ -18398,7 +18398,7 @@
         <v>-5.8</v>
       </c>
       <c r="AI33" t="n">
-        <v>11097.80000000005</v>
+        <v>4159.100000000097</v>
       </c>
       <c r="AJ33" t="n">
         <v>792225.2</v>
@@ -18407,7 +18407,7 @@
         <v>0.1</v>
       </c>
       <c r="AL33" t="n">
-        <v>44.70000000000027</v>
+        <v>11.40000000000009</v>
       </c>
       <c r="AM33" t="n">
         <v>4603.2</v>
@@ -18425,7 +18425,7 @@
         <v>-9.6</v>
       </c>
       <c r="AR33" t="n">
-        <v>151.400000000001</v>
+        <v>57.60000000000309</v>
       </c>
       <c r="AS33" t="n">
         <v>9527</v>
@@ -18443,7 +18443,7 @@
         <v>2.8</v>
       </c>
       <c r="AX33" t="n">
-        <v>191.2</v>
+        <v>163.2</v>
       </c>
       <c r="AY33" t="n">
         <v>1683.1</v>
@@ -18452,7 +18452,7 @@
         <v>-7.6</v>
       </c>
       <c r="BA33" t="n">
-        <v>70.10000000000127</v>
+        <v>23.00000000000274</v>
       </c>
       <c r="BB33" t="n">
         <v>6558.9</v>
@@ -18461,7 +18461,7 @@
         <v>-6</v>
       </c>
       <c r="BD33" t="n">
-        <v>229.000000000003</v>
+        <v>159.3000000000059</v>
       </c>
       <c r="BE33" t="n">
         <v>18370.5</v>
@@ -18470,7 +18470,7 @@
         <v>-3.5</v>
       </c>
       <c r="BG33" t="n">
-        <v>91.49999999999983</v>
+        <v>34.79999999999973</v>
       </c>
       <c r="BH33" t="n">
         <v>2119.3</v>
@@ -18479,7 +18479,7 @@
         <v>6.5</v>
       </c>
       <c r="BJ33" t="n">
-        <v>849.4000000000005</v>
+        <v>296</v>
       </c>
       <c r="BK33" t="n">
         <v>61197.1</v>
@@ -18488,7 +18488,7 @@
         <v>3.2</v>
       </c>
       <c r="BM33" t="n">
-        <v>212.9000000000001</v>
+        <v>188</v>
       </c>
       <c r="BN33" t="n">
         <v>3420.7</v>
@@ -18497,7 +18497,7 @@
         <v>-4.2</v>
       </c>
       <c r="BP33" t="n">
-        <v>269.6000000000022</v>
+        <v>166.1000000000042</v>
       </c>
       <c r="BQ33" t="n">
         <v>12581.5</v>
@@ -18506,7 +18506,7 @@
         <v>-8.1</v>
       </c>
       <c r="BS33" t="n">
-        <v>368.7999999999984</v>
+        <v>205.9999999999973</v>
       </c>
       <c r="BT33" t="n">
         <v>6576.1</v>
@@ -18515,7 +18515,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="BV33" t="n">
-        <v>1615.5</v>
+        <v>961.5</v>
       </c>
       <c r="BW33" t="n">
         <v>62866.4</v>
@@ -18524,7 +18524,7 @@
         <v>0.1</v>
       </c>
       <c r="BY33" t="n">
-        <v>1155.199999999997</v>
+        <v>720.4999999999936</v>
       </c>
       <c r="BZ33" t="n">
         <v>54171</v>
@@ -18533,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="CB33" t="n">
-        <v>987.2999999999965</v>
+        <v>270.9999999999936</v>
       </c>
       <c r="CC33" t="n">
         <v>50111.2</v>
@@ -18542,7 +18542,7 @@
         <v>3.8</v>
       </c>
       <c r="CE33" t="n">
-        <v>47.5</v>
+        <v>11.69999999999891</v>
       </c>
       <c r="CF33" t="n">
         <v>7875.7</v>
@@ -18551,7 +18551,7 @@
         <v>-15</v>
       </c>
       <c r="CH33" t="n">
-        <v>342.4999999999932</v>
+        <v>311.0999999999881</v>
       </c>
       <c r="CI33" t="n">
         <v>31247.9</v>
@@ -18560,7 +18560,7 @@
         <v>-14.2</v>
       </c>
       <c r="CK33" t="n">
-        <v>162.199999999999</v>
+        <v>150.1999999999981</v>
       </c>
       <c r="CL33" t="n">
         <v>4447.1</v>
@@ -18569,7 +18569,7 @@
         <v>-2.9</v>
       </c>
       <c r="CN33" t="n">
-        <v>287.4000000000008</v>
+        <v>166.6000000000047</v>
       </c>
       <c r="CO33" t="n">
         <v>17785</v>
@@ -18587,7 +18587,7 @@
         <v>-12.1</v>
       </c>
       <c r="CT33" t="n">
-        <v>821.7000000000153</v>
+        <v>418.4000000000269</v>
       </c>
       <c r="CU33" t="n">
         <v>93547.3</v>
@@ -18596,7 +18596,7 @@
         <v>7.7</v>
       </c>
       <c r="CW33" t="n">
-        <v>706.7000000000012</v>
+        <v>453.2000000000012</v>
       </c>
       <c r="CX33" t="n">
         <v>28798.1</v>
@@ -18614,7 +18614,7 @@
         <v>-4.5</v>
       </c>
       <c r="DC33" t="n">
-        <v>206.2000000000004</v>
+        <v>204.1000000000018</v>
       </c>
       <c r="DD33" t="n">
         <v>8835</v>
@@ -18623,7 +18623,7 @@
         <v>-4.5</v>
       </c>
       <c r="DF33" t="n">
-        <v>569.1000000000022</v>
+        <v>409.9000000000042</v>
       </c>
       <c r="DG33" t="n">
         <v>25469.1</v>
@@ -18632,7 +18632,7 @@
         <v>-5.2</v>
       </c>
       <c r="DI33" t="n">
-        <v>49.39999999999991</v>
+        <v>44.69999999999991</v>
       </c>
       <c r="DJ33" t="n">
         <v>973.1</v>
@@ -18650,7 +18650,7 @@
         <v>0.5</v>
       </c>
       <c r="DO33" t="n">
-        <v>319.7000000000016</v>
+        <v>165.300000000002</v>
       </c>
       <c r="DP33" t="n">
         <v>8331</v>
@@ -18677,7 +18677,7 @@
         <v>-2.5</v>
       </c>
       <c r="DX33" t="n">
-        <v>199.700000000001</v>
+        <v>126.6000000000011</v>
       </c>
       <c r="DY33" t="n">
         <v>13598.6</v>
@@ -18695,7 +18695,7 @@
         <v>4.2</v>
       </c>
       <c r="ED33" t="n">
-        <v>260.1999999999998</v>
+        <v>243.2999999999992</v>
       </c>
       <c r="EE33" t="n">
         <v>2785.2</v>
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2242.6</v>
+        <v>1539.300000000001</v>
       </c>
       <c r="C34" t="n">
         <v>25586.5</v>
@@ -18855,7 +18855,7 @@
         <v>6.4</v>
       </c>
       <c r="E34" t="n">
-        <v>487.2</v>
+        <v>279.2000000000009</v>
       </c>
       <c r="F34" t="n">
         <v>5730.2</v>
@@ -18873,7 +18873,7 @@
         <v>0.9</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3</v>
+        <v>0.1000000000000012</v>
       </c>
       <c r="L34" t="n">
         <v>7.4</v>
@@ -18900,7 +18900,7 @@
         <v>0.8</v>
       </c>
       <c r="T34" t="n">
-        <v>721.7999999999993</v>
+        <v>324.3999999999988</v>
       </c>
       <c r="U34" t="n">
         <v>52415.9</v>
@@ -18927,7 +18927,7 @@
         <v>5.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>538.8</v>
+        <v>460.3000000000009</v>
       </c>
       <c r="AD34" t="n">
         <v>5395.4</v>
@@ -18936,7 +18936,7 @@
         <v>-5.1</v>
       </c>
       <c r="AF34" t="n">
-        <v>539.4</v>
+        <v>454.3000000000005</v>
       </c>
       <c r="AG34" t="n">
         <v>5708</v>
@@ -18954,7 +18954,7 @@
         <v>0.6</v>
       </c>
       <c r="AL34" t="n">
-        <v>430.4</v>
+        <v>385.6999999999997</v>
       </c>
       <c r="AM34" t="n">
         <v>5224.6</v>
@@ -18963,7 +18963,7 @@
         <v>15.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>194.9</v>
+        <v>59.20000000000002</v>
       </c>
       <c r="AP34" t="n">
         <v>1887.5</v>
@@ -18972,7 +18972,7 @@
         <v>-8.4</v>
       </c>
       <c r="AR34" t="n">
-        <v>1136.2</v>
+        <v>984.799999999999</v>
       </c>
       <c r="AS34" t="n">
         <v>10714.6</v>
@@ -18981,7 +18981,7 @@
         <v>-4.2</v>
       </c>
       <c r="AU34" t="n">
-        <v>461.4000000000033</v>
+        <v>190.9000000000106</v>
       </c>
       <c r="AV34" t="n">
         <v>51771</v>
@@ -18999,7 +18999,7 @@
         <v>-5.6</v>
       </c>
       <c r="BA34" t="n">
-        <v>728.6</v>
+        <v>658.4999999999987</v>
       </c>
       <c r="BB34" t="n">
         <v>7312.2</v>
@@ -19008,7 +19008,7 @@
         <v>-6.2</v>
       </c>
       <c r="BD34" t="n">
-        <v>2063.6</v>
+        <v>1834.599999999997</v>
       </c>
       <c r="BE34" t="n">
         <v>20542.9</v>
@@ -19026,7 +19026,7 @@
         <v>7.7</v>
       </c>
       <c r="BJ34" t="n">
-        <v>6275</v>
+        <v>5425.599999999999</v>
       </c>
       <c r="BK34" t="n">
         <v>68997.10000000001</v>
@@ -19035,7 +19035,7 @@
         <v>3.7</v>
       </c>
       <c r="BM34" t="n">
-        <v>543.0999999999999</v>
+        <v>330.1999999999998</v>
       </c>
       <c r="BN34" t="n">
         <v>3587.3</v>
@@ -19062,7 +19062,7 @@
         <v>-6.5</v>
       </c>
       <c r="BV34" t="n">
-        <v>2938.5</v>
+        <v>1323</v>
       </c>
       <c r="BW34" t="n">
         <v>70892.7</v>
@@ -19071,7 +19071,7 @@
         <v>0.7</v>
       </c>
       <c r="BY34" t="n">
-        <v>2632.4</v>
+        <v>1477.200000000003</v>
       </c>
       <c r="BZ34" t="n">
         <v>60677.3</v>
@@ -19080,7 +19080,7 @@
         <v>1.4</v>
       </c>
       <c r="CB34" t="n">
-        <v>4885.2</v>
+        <v>3897.900000000003</v>
       </c>
       <c r="CC34" t="n">
         <v>57069.2</v>
@@ -19089,7 +19089,7 @@
         <v>4.7</v>
       </c>
       <c r="CE34" t="n">
-        <v>941</v>
+        <v>893.5</v>
       </c>
       <c r="CF34" t="n">
         <v>8735.700000000001</v>
@@ -19098,7 +19098,7 @@
         <v>-14.5</v>
       </c>
       <c r="CH34" t="n">
-        <v>1836.800000000003</v>
+        <v>1494.30000000001</v>
       </c>
       <c r="CI34" t="n">
         <v>34631.3</v>
@@ -19107,7 +19107,7 @@
         <v>-14.4</v>
       </c>
       <c r="CK34" t="n">
-        <v>172.7000000000005</v>
+        <v>10.50000000000151</v>
       </c>
       <c r="CL34" t="n">
         <v>5115.2</v>
@@ -19116,7 +19116,7 @@
         <v>-1.5</v>
       </c>
       <c r="CN34" t="n">
-        <v>1971.5</v>
+        <v>1684.099999999999</v>
       </c>
       <c r="CO34" t="n">
         <v>19955.3</v>
@@ -19125,7 +19125,7 @@
         <v>-7.9</v>
       </c>
       <c r="CQ34" t="n">
-        <v>1247.5</v>
+        <v>1179.2</v>
       </c>
       <c r="CR34" t="n">
         <v>11658.6</v>
@@ -19143,7 +19143,7 @@
         <v>8.1</v>
       </c>
       <c r="CW34" t="n">
-        <v>2971.2</v>
+        <v>2264.499999999999</v>
       </c>
       <c r="CX34" t="n">
         <v>32661.3</v>
@@ -19152,7 +19152,7 @@
         <v>2.4</v>
       </c>
       <c r="CZ34" t="n">
-        <v>64</v>
+        <v>16.80000000000018</v>
       </c>
       <c r="DA34" t="n">
         <v>11035.8</v>
@@ -19179,7 +19179,7 @@
         <v>-4.5</v>
       </c>
       <c r="DI34" t="n">
-        <v>136.5</v>
+        <v>87.10000000000008</v>
       </c>
       <c r="DJ34" t="n">
         <v>1120.9</v>
@@ -19188,7 +19188,7 @@
         <v>-5.2</v>
       </c>
       <c r="DL34" t="n">
-        <v>3023.3</v>
+        <v>2784.899999999995</v>
       </c>
       <c r="DM34" t="n">
         <v>32118.7</v>
@@ -19197,7 +19197,7 @@
         <v>1.7</v>
       </c>
       <c r="DO34" t="n">
-        <v>831.7</v>
+        <v>511.9999999999985</v>
       </c>
       <c r="DP34" t="n">
         <v>9666.299999999999</v>
@@ -19206,7 +19206,7 @@
         <v>-0.8</v>
       </c>
       <c r="DR34" t="n">
-        <v>4456.8</v>
+        <v>4111.199999999994</v>
       </c>
       <c r="DS34" t="n">
         <v>45901.3</v>
@@ -19215,7 +19215,7 @@
         <v>-0.4</v>
       </c>
       <c r="DU34" t="n">
-        <v>253.5</v>
+        <v>238</v>
       </c>
       <c r="DV34" t="n">
         <v>2646.5</v>
@@ -19224,7 +19224,7 @@
         <v>-2.3</v>
       </c>
       <c r="DX34" t="n">
-        <v>255.4999999999991</v>
+        <v>55.79999999999808</v>
       </c>
       <c r="DY34" t="n">
         <v>15168.5</v>
@@ -19233,7 +19233,7 @@
         <v>1.5</v>
       </c>
       <c r="EA34" t="n">
-        <v>1869.1</v>
+        <v>1838.600000000006</v>
       </c>
       <c r="EB34" t="n">
         <v>67104.2</v>
@@ -19411,7 +19411,7 @@
         <v>59.9</v>
       </c>
       <c r="H35" t="n">
-        <v>111.4</v>
+        <v>107.6000000000001</v>
       </c>
       <c r="I35" t="n">
         <v>217.6</v>
@@ -19420,7 +19420,7 @@
         <v>48.3</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="L35" t="n">
         <v>1.9</v>
@@ -19429,7 +19429,7 @@
         <v>533.3</v>
       </c>
       <c r="N35" t="n">
-        <v>3562</v>
+        <v>3095.699999999997</v>
       </c>
       <c r="O35" t="n">
         <v>6899</v>
@@ -19438,7 +19438,7 @@
         <v>34.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>62366.59999999999</v>
+        <v>61496.00000000006</v>
       </c>
       <c r="R35" t="n">
         <v>122434</v>
@@ -19447,7 +19447,7 @@
         <v>47.1</v>
       </c>
       <c r="T35" t="n">
-        <v>4642.3</v>
+        <v>3920.500000000001</v>
       </c>
       <c r="U35" t="n">
         <v>8532.200000000001</v>
@@ -19456,7 +19456,7 @@
         <v>38.4</v>
       </c>
       <c r="W35" t="n">
-        <v>617.5000000000001</v>
+        <v>599.7000000000005</v>
       </c>
       <c r="X35" t="n">
         <v>1130.3</v>
@@ -19465,7 +19465,7 @@
         <v>43.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>1150.6</v>
+        <v>926.1999999999998</v>
       </c>
       <c r="AA35" t="n">
         <v>2242.1</v>
@@ -19492,7 +19492,7 @@
         <v>49.2</v>
       </c>
       <c r="AI35" t="n">
-        <v>70360.60000000001</v>
+        <v>66119.10000000003</v>
       </c>
       <c r="AJ35" t="n">
         <v>139909</v>
@@ -19528,7 +19528,7 @@
         <v>42.7</v>
       </c>
       <c r="AU35" t="n">
-        <v>4196.4</v>
+        <v>3734.999999999996</v>
       </c>
       <c r="AV35" t="n">
         <v>7756.7</v>
@@ -19537,7 +19537,7 @@
         <v>45.4</v>
       </c>
       <c r="AX35" t="n">
-        <v>154.9</v>
+        <v>137.7</v>
       </c>
       <c r="AY35" t="n">
         <v>261.1</v>
@@ -19564,7 +19564,7 @@
         <v>54.8</v>
       </c>
       <c r="BG35" t="n">
-        <v>190.7</v>
+        <v>187.7999999999999</v>
       </c>
       <c r="BH35" t="n">
         <v>400.6</v>
@@ -19591,7 +19591,7 @@
         <v>15</v>
       </c>
       <c r="BP35" t="n">
-        <v>1257.1</v>
+        <v>1004.800000000001</v>
       </c>
       <c r="BQ35" t="n">
         <v>2354.1</v>
@@ -19600,7 +19600,7 @@
         <v>27.3</v>
       </c>
       <c r="BS35" t="n">
-        <v>669.7</v>
+        <v>366.699999999999</v>
       </c>
       <c r="BT35" t="n">
         <v>1745.3</v>
@@ -19609,7 +19609,7 @@
         <v>24</v>
       </c>
       <c r="BV35" t="n">
-        <v>5507.9</v>
+        <v>2569.4</v>
       </c>
       <c r="BW35" t="n">
         <v>12915.3</v>
@@ -19618,7 +19618,7 @@
         <v>22.1</v>
       </c>
       <c r="BY35" t="n">
-        <v>4647.6</v>
+        <v>2015.2</v>
       </c>
       <c r="BZ35" t="n">
         <v>10769.4</v>
@@ -19645,7 +19645,7 @@
         <v>21.5</v>
       </c>
       <c r="CH35" t="n">
-        <v>3173</v>
+        <v>1336.199999999997</v>
       </c>
       <c r="CI35" t="n">
         <v>5982.1</v>
@@ -19654,7 +19654,7 @@
         <v>1.9</v>
       </c>
       <c r="CK35" t="n">
-        <v>429.7</v>
+        <v>256.9999999999995</v>
       </c>
       <c r="CL35" t="n">
         <v>810.7</v>
@@ -19681,7 +19681,7 @@
         <v>21.5</v>
       </c>
       <c r="CT35" t="n">
-        <v>8275.200000000001</v>
+        <v>8022.500000000011</v>
       </c>
       <c r="CU35" t="n">
         <v>16242</v>
@@ -19699,7 +19699,7 @@
         <v>60.6</v>
       </c>
       <c r="CZ35" t="n">
-        <v>939.2000000000003</v>
+        <v>875.2000000000003</v>
       </c>
       <c r="DA35" t="n">
         <v>1792.2</v>
@@ -19708,7 +19708,7 @@
         <v>52.8</v>
       </c>
       <c r="DC35" t="n">
-        <v>808</v>
+        <v>626.3000000000001</v>
       </c>
       <c r="DD35" t="n">
         <v>1557.5</v>
@@ -19717,7 +19717,7 @@
         <v>30.2</v>
       </c>
       <c r="DF35" t="n">
-        <v>2486.1</v>
+        <v>2053.700000000001</v>
       </c>
       <c r="DG35" t="n">
         <v>4559.6</v>
@@ -19771,7 +19771,7 @@
         <v>45.3</v>
       </c>
       <c r="DX35" t="n">
-        <v>1251.8</v>
+        <v>996.3000000000009</v>
       </c>
       <c r="DY35" t="n">
         <v>2419.4</v>
@@ -19780,7 +19780,7 @@
         <v>32.4</v>
       </c>
       <c r="EA35" t="n">
-        <v>5170.8</v>
+        <v>3301.7</v>
       </c>
       <c r="EB35" t="n">
         <v>11469.7</v>
@@ -19789,7 +19789,7 @@
         <v>51.2</v>
       </c>
       <c r="ED35" t="n">
-        <v>256.7</v>
+        <v>139.1999999999998</v>
       </c>
       <c r="EE35" t="n">
         <v>580.1</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2222</v>
+        <v>2128.600000000001</v>
       </c>
       <c r="C37" t="n">
         <v>9031.299999999999</v>
@@ -20496,7 +20496,7 @@
         <v>36.1</v>
       </c>
       <c r="E37" t="n">
-        <v>19.69999999999993</v>
+        <v>11.79999999999995</v>
       </c>
       <c r="F37" t="n">
         <v>1851.8</v>
@@ -20505,7 +20505,7 @@
         <v>34.2</v>
       </c>
       <c r="H37" t="n">
-        <v>121.6</v>
+        <v>105.7</v>
       </c>
       <c r="I37" t="n">
         <v>505.6</v>
@@ -20514,7 +20514,7 @@
         <v>31.2</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8000000000000003</v>
+        <v>0.5000000000000002</v>
       </c>
       <c r="L37" t="n">
         <v>3.5</v>
@@ -20523,7 +20523,7 @@
         <v>45.8</v>
       </c>
       <c r="N37" t="n">
-        <v>3553.5</v>
+        <v>3490.6</v>
       </c>
       <c r="O37" t="n">
         <v>14959.6</v>
@@ -20550,7 +20550,7 @@
         <v>29.7</v>
       </c>
       <c r="W37" t="n">
-        <v>601.4000000000001</v>
+        <v>569.2000000000004</v>
       </c>
       <c r="X37" t="n">
         <v>2648.6</v>
@@ -20568,7 +20568,7 @@
         <v>20.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>443</v>
+        <v>442.1000000000003</v>
       </c>
       <c r="AD37" t="n">
         <v>1795.8</v>
@@ -20613,7 +20613,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AR37" t="n">
-        <v>803.9000000000001</v>
+        <v>771.9000000000003</v>
       </c>
       <c r="AS37" t="n">
         <v>3675.8</v>
@@ -20649,7 +20649,7 @@
         <v>29.6</v>
       </c>
       <c r="BD37" t="n">
-        <v>1739.1</v>
+        <v>1633.2</v>
       </c>
       <c r="BE37" t="n">
         <v>7367.4</v>
@@ -20721,7 +20721,7 @@
         <v>19.1</v>
       </c>
       <c r="CB37" t="n">
-        <v>240.8000000000029</v>
+        <v>134.8000000000038</v>
       </c>
       <c r="CC37" t="n">
         <v>19954.8</v>
@@ -20775,7 +20775,7 @@
         <v>12.7</v>
       </c>
       <c r="CT37" t="n">
-        <v>149.2000000000044</v>
+        <v>131.3000000000066</v>
       </c>
       <c r="CU37" t="n">
         <v>35265.9</v>
@@ -20829,7 +20829,7 @@
         <v>0.9</v>
       </c>
       <c r="DL37" t="n">
-        <v>2690.5</v>
+        <v>2491.599999999999</v>
       </c>
       <c r="DM37" t="n">
         <v>11592.1</v>
@@ -21043,7 +21043,7 @@
         <v>29.5</v>
       </c>
       <c r="E38" t="n">
-        <v>88.50000000000017</v>
+        <v>68.80000000000024</v>
       </c>
       <c r="F38" t="n">
         <v>2363.9</v>
@@ -21079,7 +21079,7 @@
         <v>20.1</v>
       </c>
       <c r="Q38" t="n">
-        <v>6127.099999999948</v>
+        <v>5882.999999999942</v>
       </c>
       <c r="R38" t="n">
         <v>357511</v>
@@ -21106,7 +21106,7 @@
         <v>27.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>125.5999999999999</v>
+        <v>122.7999999999999</v>
       </c>
       <c r="AA38" t="n">
         <v>6013.7</v>
@@ -21124,7 +21124,7 @@
         <v>20.9</v>
       </c>
       <c r="AF38" t="n">
-        <v>50.10000000000008</v>
+        <v>39.30000000000007</v>
       </c>
       <c r="AG38" t="n">
         <v>2456.7</v>
@@ -21133,7 +21133,7 @@
         <v>32</v>
       </c>
       <c r="AI38" t="n">
-        <v>6823.100000000035</v>
+        <v>6559.300000000047</v>
       </c>
       <c r="AJ38" t="n">
         <v>401976</v>
@@ -21142,7 +21142,7 @@
         <v>28.6</v>
       </c>
       <c r="AL38" t="n">
-        <v>68.50000000000023</v>
+        <v>61.30000000000024</v>
       </c>
       <c r="AM38" t="n">
         <v>2898.8</v>
@@ -21178,7 +21178,7 @@
         <v>35.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>30.89999999999998</v>
+        <v>13.89999999999998</v>
       </c>
       <c r="AY38" t="n">
         <v>776.7</v>
@@ -21187,7 +21187,7 @@
         <v>16.3</v>
       </c>
       <c r="BA38" t="n">
-        <v>31.2999999999995</v>
+        <v>25.19999999999914</v>
       </c>
       <c r="BB38" t="n">
         <v>3218.7</v>
@@ -21205,7 +21205,7 @@
         <v>28.3</v>
       </c>
       <c r="BG38" t="n">
-        <v>40.10000000000011</v>
+        <v>39.80000000000013</v>
       </c>
       <c r="BH38" t="n">
         <v>1048.2</v>
@@ -21214,7 +21214,7 @@
         <v>19.9</v>
       </c>
       <c r="BJ38" t="n">
-        <v>574.8000000000029</v>
+        <v>401.1000000000031</v>
       </c>
       <c r="BK38" t="n">
         <v>30577.7</v>
@@ -21259,7 +21259,7 @@
         <v>19.5</v>
       </c>
       <c r="BY38" t="n">
-        <v>422.4999999999973</v>
+        <v>353.5999999999968</v>
       </c>
       <c r="BZ38" t="n">
         <v>26746.3</v>
@@ -21268,7 +21268,7 @@
         <v>18.7</v>
       </c>
       <c r="CB38" t="n">
-        <v>673.4999999999973</v>
+        <v>432.6999999999944</v>
       </c>
       <c r="CC38" t="n">
         <v>25768.3</v>
@@ -21277,7 +21277,7 @@
         <v>41.4</v>
       </c>
       <c r="CE38" t="n">
-        <v>155.8000000000002</v>
+        <v>151.5999999999999</v>
       </c>
       <c r="CF38" t="n">
         <v>3488.6</v>
@@ -21295,7 +21295,7 @@
         <v>18.9</v>
       </c>
       <c r="CK38" t="n">
-        <v>26.40000000000009</v>
+        <v>4.800000000000182</v>
       </c>
       <c r="CL38" t="n">
         <v>2102.8</v>
@@ -21304,7 +21304,7 @@
         <v>6.3</v>
       </c>
       <c r="CN38" t="n">
-        <v>74.5</v>
+        <v>67.70000000000005</v>
       </c>
       <c r="CO38" t="n">
         <v>8391.5</v>
@@ -21322,7 +21322,7 @@
         <v>12.9</v>
       </c>
       <c r="CT38" t="n">
-        <v>1167.899999999994</v>
+        <v>1018.69999999999</v>
       </c>
       <c r="CU38" t="n">
         <v>44292.4</v>
@@ -21331,7 +21331,7 @@
         <v>24.2</v>
       </c>
       <c r="CW38" t="n">
-        <v>366.0999999999999</v>
+        <v>343.1999999999998</v>
       </c>
       <c r="CX38" t="n">
         <v>14572.7</v>
@@ -21349,7 +21349,7 @@
         <v>25.5</v>
       </c>
       <c r="DC38" t="n">
-        <v>162.9999999999999</v>
+        <v>127.7999999999998</v>
       </c>
       <c r="DD38" t="n">
         <v>4321.5</v>
@@ -21358,7 +21358,7 @@
         <v>18.6</v>
       </c>
       <c r="DF38" t="n">
-        <v>167.3000000000011</v>
+        <v>146.3000000000025</v>
       </c>
       <c r="DG38" t="n">
         <v>12695.4</v>
@@ -21385,7 +21385,7 @@
         <v>37.9</v>
       </c>
       <c r="DO38" t="n">
-        <v>238.2000000000003</v>
+        <v>213.1000000000004</v>
       </c>
       <c r="DP38" t="n">
         <v>3838.6</v>
@@ -21403,7 +21403,7 @@
         <v>26.5</v>
       </c>
       <c r="DU38" t="n">
-        <v>16.2000000000001</v>
+        <v>7.600000000000076</v>
       </c>
       <c r="DV38" t="n">
         <v>1105.9</v>
@@ -21412,7 +21412,7 @@
         <v>20.9</v>
       </c>
       <c r="DX38" t="n">
-        <v>41.20000000000005</v>
+        <v>16.70000000000005</v>
       </c>
       <c r="DY38" t="n">
         <v>6417.3</v>
@@ -21421,7 +21421,7 @@
         <v>15.2</v>
       </c>
       <c r="EA38" t="n">
-        <v>177.5999999999995</v>
+        <v>11.59999999999951</v>
       </c>
       <c r="EB38" t="n">
         <v>34948.2</v>
@@ -21430,7 +21430,7 @@
         <v>47</v>
       </c>
       <c r="ED38" t="n">
-        <v>32.99999999999991</v>
+        <v>5.899999999999796</v>
       </c>
       <c r="EE38" t="n">
         <v>1602.4</v>
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1660.699999999999</v>
+        <v>1300.899999999998</v>
       </c>
       <c r="C39" t="n">
         <v>14327.3</v>
@@ -21590,7 +21590,7 @@
         <v>25.2</v>
       </c>
       <c r="E39" t="n">
-        <v>464</v>
+        <v>375.4999999999998</v>
       </c>
       <c r="F39" t="n">
         <v>3012.2</v>
@@ -21599,7 +21599,7 @@
         <v>25.1</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0999999999999</v>
+        <v>95.4999999999999</v>
       </c>
       <c r="I39" t="n">
         <v>802.9</v>
@@ -21617,7 +21617,7 @@
         <v>48.7</v>
       </c>
       <c r="N39" t="n">
-        <v>3451.599999999999</v>
+        <v>3434.599999999997</v>
       </c>
       <c r="O39" t="n">
         <v>23275.1</v>
@@ -21626,7 +21626,7 @@
         <v>19.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>66706.29999999999</v>
+        <v>60579.20000000004</v>
       </c>
       <c r="R39" t="n">
         <v>440952.6</v>
@@ -21635,7 +21635,7 @@
         <v>27.4</v>
       </c>
       <c r="T39" t="n">
-        <v>4126.399999999998</v>
+        <v>3927.099999999997</v>
       </c>
       <c r="U39" t="n">
         <v>31355</v>
@@ -21653,7 +21653,7 @@
         <v>28.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>1093.4</v>
+        <v>967.8000000000002</v>
       </c>
       <c r="AA39" t="n">
         <v>7457</v>
@@ -21662,7 +21662,7 @@
         <v>17.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>477.5999999999999</v>
+        <v>442.9999999999998</v>
       </c>
       <c r="AD39" t="n">
         <v>2814.8</v>
@@ -21680,7 +21680,7 @@
         <v>29.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>75129.29999999999</v>
+        <v>68306.19999999995</v>
       </c>
       <c r="AJ39" t="n">
         <v>495357.8</v>
@@ -21689,7 +21689,7 @@
         <v>26.4</v>
       </c>
       <c r="AL39" t="n">
-        <v>459.6999999999998</v>
+        <v>391.1999999999996</v>
       </c>
       <c r="AM39" t="n">
         <v>3693.8</v>
@@ -21698,7 +21698,7 @@
         <v>76.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>132.8</v>
+        <v>119</v>
       </c>
       <c r="AP39" t="n">
         <v>816.6</v>
@@ -21716,7 +21716,7 @@
         <v>27.7</v>
       </c>
       <c r="AU39" t="n">
-        <v>3984.200000000001</v>
+        <v>3572.300000000002</v>
       </c>
       <c r="AV39" t="n">
         <v>29975.4</v>
@@ -21725,7 +21725,7 @@
         <v>34.3</v>
       </c>
       <c r="AX39" t="n">
-        <v>156.6999999999999</v>
+        <v>125.7999999999999</v>
       </c>
       <c r="AY39" t="n">
         <v>976.8</v>
@@ -21734,7 +21734,7 @@
         <v>13.6</v>
       </c>
       <c r="BA39" t="n">
-        <v>639</v>
+        <v>607.7000000000005</v>
       </c>
       <c r="BB39" t="n">
         <v>3967.6</v>
@@ -21743,7 +21743,7 @@
         <v>20.7</v>
       </c>
       <c r="BD39" t="n">
-        <v>1769.799999999999</v>
+        <v>1658.999999999998</v>
       </c>
       <c r="BE39" t="n">
         <v>11440.7</v>
@@ -21752,7 +21752,7 @@
         <v>25.2</v>
       </c>
       <c r="BG39" t="n">
-        <v>202.6999999999998</v>
+        <v>162.5999999999997</v>
       </c>
       <c r="BH39" t="n">
         <v>1307.8</v>
@@ -21761,7 +21761,7 @@
         <v>19.3</v>
       </c>
       <c r="BJ39" t="n">
-        <v>5960.799999999999</v>
+        <v>5385.999999999996</v>
       </c>
       <c r="BK39" t="n">
         <v>36689.9</v>
@@ -21779,7 +21779,7 @@
         <v>4.3</v>
       </c>
       <c r="BP39" t="n">
-        <v>1186</v>
+        <v>1138.8</v>
       </c>
       <c r="BQ39" t="n">
         <v>8011.5</v>
@@ -21788,7 +21788,7 @@
         <v>20</v>
       </c>
       <c r="BS39" t="n">
-        <v>517.3000000000002</v>
+        <v>451.2999999999997</v>
       </c>
       <c r="BT39" t="n">
         <v>4711.8</v>
@@ -21815,7 +21815,7 @@
         <v>18.7</v>
       </c>
       <c r="CB39" t="n">
-        <v>4879.799999999999</v>
+        <v>4206.300000000002</v>
       </c>
       <c r="CC39" t="n">
         <v>32331</v>
@@ -21824,7 +21824,7 @@
         <v>37.4</v>
       </c>
       <c r="CE39" t="n">
-        <v>755.8999999999996</v>
+        <v>600.0999999999995</v>
       </c>
       <c r="CF39" t="n">
         <v>4383.5</v>
@@ -21842,7 +21842,7 @@
         <v>22.8</v>
       </c>
       <c r="CK39" t="n">
-        <v>376.9000000000001</v>
+        <v>350.5</v>
       </c>
       <c r="CL39" t="n">
         <v>2547.3</v>
@@ -21851,7 +21851,7 @@
         <v>6.2</v>
       </c>
       <c r="CN39" t="n">
-        <v>153.1999999999989</v>
+        <v>78.69999999999891</v>
       </c>
       <c r="CO39" t="n">
         <v>10402.5</v>
@@ -21869,7 +21869,7 @@
         <v>12.8</v>
       </c>
       <c r="CT39" t="n">
-        <v>9009.900000000001</v>
+        <v>7842.000000000007</v>
       </c>
       <c r="CU39" t="n">
         <v>54469.6</v>
@@ -21878,7 +21878,7 @@
         <v>20.4</v>
       </c>
       <c r="CW39" t="n">
-        <v>2858.5</v>
+        <v>2492.4</v>
       </c>
       <c r="CX39" t="n">
         <v>18210.1</v>
@@ -21887,7 +21887,7 @@
         <v>28.4</v>
       </c>
       <c r="CZ39" t="n">
-        <v>905.5</v>
+        <v>844.4000000000001</v>
       </c>
       <c r="DA39" t="n">
         <v>6067</v>
@@ -21896,7 +21896,7 @@
         <v>23.2</v>
       </c>
       <c r="DC39" t="n">
-        <v>828.8999999999996</v>
+        <v>665.8999999999997</v>
       </c>
       <c r="DD39" t="n">
         <v>5386.3</v>
@@ -21905,7 +21905,7 @@
         <v>15.9</v>
       </c>
       <c r="DF39" t="n">
-        <v>2424.700000000001</v>
+        <v>2257.4</v>
       </c>
       <c r="DG39" t="n">
         <v>15737.9</v>
@@ -21914,7 +21914,7 @@
         <v>17.7</v>
       </c>
       <c r="DI39" t="n">
-        <v>106</v>
+        <v>87.69999999999996</v>
       </c>
       <c r="DJ39" t="n">
         <v>536.2</v>
@@ -21932,7 +21932,7 @@
         <v>34.4</v>
       </c>
       <c r="DO39" t="n">
-        <v>773.8000000000002</v>
+        <v>535.5999999999999</v>
       </c>
       <c r="DP39" t="n">
         <v>4905.6</v>
@@ -21941,7 +21941,7 @@
         <v>21</v>
       </c>
       <c r="DR39" t="n">
-        <v>4131.900000000001</v>
+        <v>3886.800000000004</v>
       </c>
       <c r="DS39" t="n">
         <v>24861.7</v>
@@ -21950,7 +21950,7 @@
         <v>23.4</v>
       </c>
       <c r="DU39" t="n">
-        <v>240</v>
+        <v>223.7999999999999</v>
       </c>
       <c r="DV39" t="n">
         <v>1381.2</v>
@@ -21959,7 +21959,7 @@
         <v>18.8</v>
       </c>
       <c r="DX39" t="n">
-        <v>1143.4</v>
+        <v>1102.2</v>
       </c>
       <c r="DY39" t="n">
         <v>7823.6</v>
@@ -21968,7 +21968,7 @@
         <v>13.9</v>
       </c>
       <c r="EA39" t="n">
-        <v>220.6000000000049</v>
+        <v>43.0000000000054</v>
       </c>
       <c r="EB39" t="n">
         <v>42831.7</v>
@@ -21977,7 +21977,7 @@
         <v>45</v>
       </c>
       <c r="ED39" t="n">
-        <v>43.69999999999999</v>
+        <v>10.70000000000008</v>
       </c>
       <c r="EE39" t="n">
         <v>1998.6</v>
@@ -22155,7 +22155,7 @@
         <v>21.9</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2000000000000007</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="L40" t="n">
         <v>6</v>
@@ -22254,7 +22254,7 @@
         <v>-2.5</v>
       </c>
       <c r="AR40" t="n">
-        <v>98</v>
+        <v>82.60000000000036</v>
       </c>
       <c r="AS40" t="n">
         <v>6662.5</v>
@@ -22317,7 +22317,7 @@
         <v>21.7</v>
       </c>
       <c r="BM40" t="n">
-        <v>286.9000000000001</v>
+        <v>215.2000000000001</v>
       </c>
       <c r="BN40" t="n">
         <v>2330</v>
@@ -22344,7 +22344,7 @@
         <v>27.1</v>
       </c>
       <c r="BV40" t="n">
-        <v>505.0999999999995</v>
+        <v>287.0999999999995</v>
       </c>
       <c r="BW40" t="n">
         <v>46042.2</v>
@@ -22353,7 +22353,7 @@
         <v>20</v>
       </c>
       <c r="BY40" t="n">
-        <v>456.700000000008</v>
+        <v>152.200000000008</v>
       </c>
       <c r="BZ40" t="n">
         <v>39050.9</v>
@@ -22380,7 +22380,7 @@
         <v>11.1</v>
       </c>
       <c r="CH40" t="n">
-        <v>103.9999999999959</v>
+        <v>54.79999999999471</v>
       </c>
       <c r="CI40" t="n">
         <v>24554</v>
@@ -22398,7 +22398,7 @@
         <v>8.1</v>
       </c>
       <c r="CN40" t="n">
-        <v>1734.400000000001</v>
+        <v>1581.200000000002</v>
       </c>
       <c r="CO40" t="n">
         <v>12293.7</v>
@@ -22407,7 +22407,7 @@
         <v>16.5</v>
       </c>
       <c r="CQ40" t="n">
-        <v>1067.3</v>
+        <v>982.9999999999998</v>
       </c>
       <c r="CR40" t="n">
         <v>6693.5</v>
@@ -22470,7 +22470,7 @@
         <v>-1.6</v>
       </c>
       <c r="DL40" t="n">
-        <v>2997.900000000001</v>
+        <v>2843.300000000003</v>
       </c>
       <c r="DM40" t="n">
         <v>22315.8</v>
@@ -22524,7 +22524,7 @@
         <v>42.5</v>
       </c>
       <c r="ED40" t="n">
-        <v>289.2</v>
+        <v>245.5</v>
       </c>
       <c r="EE40" t="n">
         <v>2431.8</v>
@@ -22684,7 +22684,7 @@
         <v>20.4</v>
       </c>
       <c r="E41" t="n">
-        <v>79.70000000000027</v>
+        <v>52.50000000000045</v>
       </c>
       <c r="F41" t="n">
         <v>4076.7</v>
@@ -22702,7 +22702,7 @@
         <v>19</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.09999999999999912</v>
       </c>
       <c r="L41" t="n">
         <v>6.7</v>
@@ -22711,7 +22711,7 @@
         <v>48.9</v>
       </c>
       <c r="N41" t="n">
-        <v>392.2999999999988</v>
+        <v>210.3999999999978</v>
       </c>
       <c r="O41" t="n">
         <v>31074.7</v>
@@ -22720,7 +22720,7 @@
         <v>17.1</v>
       </c>
       <c r="Q41" t="n">
-        <v>7293.79999999993</v>
+        <v>5582.699999999895</v>
       </c>
       <c r="R41" t="n">
         <v>593891.7</v>
@@ -22729,7 +22729,7 @@
         <v>23.4</v>
       </c>
       <c r="T41" t="n">
-        <v>358.3999999999942</v>
+        <v>47.99999999998909</v>
       </c>
       <c r="U41" t="n">
         <v>42393.9</v>
@@ -22738,7 +22738,7 @@
         <v>29.7</v>
       </c>
       <c r="W41" t="n">
-        <v>60.00000000000045</v>
+        <v>32.20000000000071</v>
       </c>
       <c r="X41" t="n">
         <v>5794.2</v>
@@ -22747,7 +22747,7 @@
         <v>29.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>88.900000000001</v>
+        <v>53.00000000000114</v>
       </c>
       <c r="AA41" t="n">
         <v>9877.5</v>
@@ -22756,7 +22756,7 @@
         <v>15.3</v>
       </c>
       <c r="AC41" t="n">
-        <v>55.29999999999973</v>
+        <v>44.09999999999945</v>
       </c>
       <c r="AD41" t="n">
         <v>3844</v>
@@ -22765,7 +22765,7 @@
         <v>15.4</v>
       </c>
       <c r="AF41" t="n">
-        <v>52.60000000000036</v>
+        <v>41.90000000000009</v>
       </c>
       <c r="AG41" t="n">
         <v>4128.9</v>
@@ -22774,7 +22774,7 @@
         <v>21.3</v>
       </c>
       <c r="AI41" t="n">
-        <v>7219.900000000023</v>
+        <v>4883.600000000035</v>
       </c>
       <c r="AJ41" t="n">
         <v>669491</v>
@@ -22819,7 +22819,7 @@
         <v>34.5</v>
       </c>
       <c r="AX41" t="n">
-        <v>24.1999999999999</v>
+        <v>23.2999999999997</v>
       </c>
       <c r="AY41" t="n">
         <v>1307.5</v>
@@ -22828,7 +22828,7 @@
         <v>11.4</v>
       </c>
       <c r="BA41" t="n">
-        <v>86.40000000000009</v>
+        <v>59.5</v>
       </c>
       <c r="BB41" t="n">
         <v>5308.7</v>
@@ -22837,7 +22837,7 @@
         <v>15.6</v>
       </c>
       <c r="BD41" t="n">
-        <v>153.8000000000009</v>
+        <v>56.30000000000089</v>
       </c>
       <c r="BE41" t="n">
         <v>15360.3</v>
@@ -22855,7 +22855,7 @@
         <v>16.9</v>
       </c>
       <c r="BJ41" t="n">
-        <v>268.5999999999995</v>
+        <v>164.9999999999982</v>
       </c>
       <c r="BK41" t="n">
         <v>47233.3</v>
@@ -22873,7 +22873,7 @@
         <v>3</v>
       </c>
       <c r="BP41" t="n">
-        <v>1277.799999999999</v>
+        <v>1114.199999999999</v>
       </c>
       <c r="BQ41" t="n">
         <v>11615.9</v>
@@ -22891,7 +22891,7 @@
         <v>27.7</v>
       </c>
       <c r="BV41" t="n">
-        <v>6330.400000000001</v>
+        <v>5825.300000000001</v>
       </c>
       <c r="BW41" t="n">
         <v>53462.3</v>
@@ -22900,7 +22900,7 @@
         <v>19.2</v>
       </c>
       <c r="BY41" t="n">
-        <v>5517.199999999997</v>
+        <v>5060.499999999989</v>
       </c>
       <c r="BZ41" t="n">
         <v>45513.2</v>
@@ -22909,7 +22909,7 @@
         <v>18.2</v>
       </c>
       <c r="CB41" t="n">
-        <v>938.9000000000051</v>
+        <v>883.4000000000051</v>
       </c>
       <c r="CC41" t="n">
         <v>44190.9</v>
@@ -22927,7 +22927,7 @@
         <v>10</v>
       </c>
       <c r="CH41" t="n">
-        <v>149.4000000000051</v>
+        <v>45.4000000000092</v>
       </c>
       <c r="CI41" t="n">
         <v>28239.5</v>
@@ -22936,7 +22936,7 @@
         <v>25.8</v>
       </c>
       <c r="CK41" t="n">
-        <v>34.99999999999955</v>
+        <v>26.09999999999946</v>
       </c>
       <c r="CL41" t="n">
         <v>3436</v>
@@ -22963,7 +22963,7 @@
         <v>9.4</v>
       </c>
       <c r="CT41" t="n">
-        <v>1232.699999999999</v>
+        <v>1009.699999999999</v>
       </c>
       <c r="CU41" t="n">
         <v>73501.10000000001</v>
@@ -22981,7 +22981,7 @@
         <v>22.9</v>
       </c>
       <c r="CZ41" t="n">
-        <v>112.7999999999997</v>
+        <v>59.69999999999934</v>
       </c>
       <c r="DA41" t="n">
         <v>8148.4</v>
@@ -23026,7 +23026,7 @@
         <v>30.1</v>
       </c>
       <c r="DO41" t="n">
-        <v>233.9000000000005</v>
+        <v>191.1000000000012</v>
       </c>
       <c r="DP41" t="n">
         <v>6614.2</v>
@@ -23035,7 +23035,7 @@
         <v>17.2</v>
       </c>
       <c r="DR41" t="n">
-        <v>388.3000000000029</v>
+        <v>325.2000000000035</v>
       </c>
       <c r="DS41" t="n">
         <v>33848.9</v>
@@ -23053,7 +23053,7 @@
         <v>11.8</v>
       </c>
       <c r="DX41" t="n">
-        <v>199.5999999999999</v>
+        <v>88.09999999999991</v>
       </c>
       <c r="DY41" t="n">
         <v>10413.8</v>
@@ -23062,7 +23062,7 @@
         <v>12.4</v>
       </c>
       <c r="EA41" t="n">
-        <v>174.6000000000058</v>
+        <v>103.400000000016</v>
       </c>
       <c r="EB41" t="n">
         <v>58370.2</v>
@@ -23222,7 +23222,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2054.900000000001</v>
+        <v>1671.300000000001</v>
       </c>
       <c r="C42" t="n">
         <v>20860.4</v>
@@ -23231,7 +23231,7 @@
         <v>18.2</v>
       </c>
       <c r="E42" t="n">
-        <v>494.0000000000005</v>
+        <v>414.3000000000002</v>
       </c>
       <c r="F42" t="n">
         <v>4692.4</v>
@@ -23249,7 +23249,7 @@
         <v>17.9</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.1000000000000006</v>
       </c>
       <c r="L42" t="n">
         <v>7.3</v>
@@ -23267,7 +23267,7 @@
         <v>15</v>
       </c>
       <c r="Q42" t="n">
-        <v>73786.30000000005</v>
+        <v>66492.50000000012</v>
       </c>
       <c r="R42" t="n">
         <v>676968</v>
@@ -23276,7 +23276,7 @@
         <v>21.5</v>
       </c>
       <c r="T42" t="n">
-        <v>4701.599999999999</v>
+        <v>4343.200000000005</v>
       </c>
       <c r="U42" t="n">
         <v>48346.2</v>
@@ -23294,7 +23294,7 @@
         <v>27.7</v>
       </c>
       <c r="Z42" t="n">
-        <v>1177.9</v>
+        <v>1088.999999999999</v>
       </c>
       <c r="AA42" t="n">
         <v>11239.2</v>
@@ -23303,7 +23303,7 @@
         <v>14.9</v>
       </c>
       <c r="AC42" t="n">
-        <v>531.5999999999999</v>
+        <v>476.3000000000002</v>
       </c>
       <c r="AD42" t="n">
         <v>4395.4</v>
@@ -23321,7 +23321,7 @@
         <v>17.9</v>
       </c>
       <c r="AI42" t="n">
-        <v>82207.90000000002</v>
+        <v>74988</v>
       </c>
       <c r="AJ42" t="n">
         <v>763321</v>
@@ -23330,7 +23330,7 @@
         <v>21.3</v>
       </c>
       <c r="AL42" t="n">
-        <v>33</v>
+        <v>21.00000000000045</v>
       </c>
       <c r="AM42" t="n">
         <v>5929.9</v>
@@ -23339,7 +23339,7 @@
         <v>63.2</v>
       </c>
       <c r="AO42" t="n">
-        <v>148.9000000000001</v>
+        <v>112.6000000000003</v>
       </c>
       <c r="AP42" t="n">
         <v>1279.5</v>
@@ -23348,7 +23348,7 @@
         <v>0.3</v>
       </c>
       <c r="AR42" t="n">
-        <v>996.7999999999993</v>
+        <v>917.2999999999993</v>
       </c>
       <c r="AS42" t="n">
         <v>8820</v>
@@ -23357,7 +23357,7 @@
         <v>17.9</v>
       </c>
       <c r="AU42" t="n">
-        <v>4511.400000000001</v>
+        <v>3800.699999999996</v>
       </c>
       <c r="AV42" t="n">
         <v>46368.9</v>
@@ -23366,7 +23366,7 @@
         <v>33.1</v>
       </c>
       <c r="AX42" t="n">
-        <v>159.0999999999999</v>
+        <v>134.9</v>
       </c>
       <c r="AY42" t="n">
         <v>1486.7</v>
@@ -23393,7 +23393,7 @@
         <v>18.3</v>
       </c>
       <c r="BG42" t="n">
-        <v>7.399999999999579</v>
+        <v>1.599999999999369</v>
       </c>
       <c r="BH42" t="n">
         <v>2026.8</v>
@@ -23402,7 +23402,7 @@
         <v>17.5</v>
       </c>
       <c r="BJ42" t="n">
-        <v>361.9000000000005</v>
+        <v>93.30000000000098</v>
       </c>
       <c r="BK42" t="n">
         <v>52714</v>
@@ -23411,7 +23411,7 @@
         <v>12.4</v>
       </c>
       <c r="BM42" t="n">
-        <v>256.3999999999996</v>
+        <v>231.8999999999996</v>
       </c>
       <c r="BN42" t="n">
         <v>2934.6</v>
@@ -23456,7 +23456,7 @@
         <v>17.8</v>
       </c>
       <c r="CB42" t="n">
-        <v>5422.099999999999</v>
+        <v>4483.199999999994</v>
       </c>
       <c r="CC42" t="n">
         <v>50747.5</v>
@@ -23465,7 +23465,7 @@
         <v>29.4</v>
       </c>
       <c r="CE42" t="n">
-        <v>816.3000000000002</v>
+        <v>711.5</v>
       </c>
       <c r="CF42" t="n">
         <v>6831.9</v>
@@ -23474,7 +23474,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="CH42" t="n">
-        <v>2923.700000000001</v>
+        <v>2774.299999999996</v>
       </c>
       <c r="CI42" t="n">
         <v>32129.6</v>
@@ -23501,7 +23501,7 @@
         <v>13.4</v>
       </c>
       <c r="CQ42" t="n">
-        <v>1118.599999999999</v>
+        <v>1052.699999999998</v>
       </c>
       <c r="CR42" t="n">
         <v>8978.1</v>
@@ -23510,7 +23510,7 @@
         <v>9</v>
       </c>
       <c r="CT42" t="n">
-        <v>9959.300000000003</v>
+        <v>8726.600000000004</v>
       </c>
       <c r="CU42" t="n">
         <v>84801.89999999999</v>
@@ -23519,7 +23519,7 @@
         <v>14.6</v>
       </c>
       <c r="CW42" t="n">
-        <v>3051</v>
+        <v>2738.099999999998</v>
       </c>
       <c r="CX42" t="n">
         <v>27775.5</v>
@@ -23528,7 +23528,7 @@
         <v>20.8</v>
       </c>
       <c r="CZ42" t="n">
-        <v>1043.700000000001</v>
+        <v>930.9000000000012</v>
       </c>
       <c r="DA42" t="n">
         <v>9276.200000000001</v>
@@ -23537,7 +23537,7 @@
         <v>18</v>
       </c>
       <c r="DC42" t="n">
-        <v>845.8000000000002</v>
+        <v>723.6999999999998</v>
       </c>
       <c r="DD42" t="n">
         <v>8083.4</v>
@@ -23555,7 +23555,7 @@
         <v>21.5</v>
       </c>
       <c r="DI42" t="n">
-        <v>106.1</v>
+        <v>75.99999999999997</v>
       </c>
       <c r="DJ42" t="n">
         <v>823</v>
@@ -23564,7 +23564,7 @@
         <v>-0.2</v>
       </c>
       <c r="DL42" t="n">
-        <v>2963.899999999998</v>
+        <v>2717.399999999998</v>
       </c>
       <c r="DM42" t="n">
         <v>29662.1</v>
@@ -23573,7 +23573,7 @@
         <v>27.9</v>
       </c>
       <c r="DO42" t="n">
-        <v>817.5</v>
+        <v>583.5999999999995</v>
       </c>
       <c r="DP42" t="n">
         <v>7683</v>
@@ -23591,7 +23591,7 @@
         <v>17</v>
       </c>
       <c r="DU42" t="n">
-        <v>273.8999999999999</v>
+        <v>230.1999999999999</v>
       </c>
       <c r="DV42" t="n">
         <v>2105</v>
@@ -23600,7 +23600,7 @@
         <v>9.4</v>
       </c>
       <c r="DX42" t="n">
-        <v>1313.4</v>
+        <v>1113.8</v>
       </c>
       <c r="DY42" t="n">
         <v>11925.2</v>
@@ -23609,7 +23609,7 @@
         <v>11.2</v>
       </c>
       <c r="EA42" t="n">
-        <v>269.4000000000005</v>
+        <v>94.7999999999947</v>
       </c>
       <c r="EB42" t="n">
         <v>66027.89999999999</v>
@@ -23618,7 +23618,7 @@
         <v>38.1</v>
       </c>
       <c r="ED42" t="n">
-        <v>39.5</v>
+        <v>7.699999999999989</v>
       </c>
       <c r="EE42" t="n">
         <v>3190.9</v>
@@ -23787,7 +23787,7 @@
         <v>18.2</v>
       </c>
       <c r="H43" t="n">
-        <v>116.9000000000001</v>
+        <v>116.5000000000002</v>
       </c>
       <c r="I43" t="n">
         <v>1341.2</v>
@@ -23796,7 +23796,7 @@
         <v>16.7</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999959</v>
       </c>
       <c r="L43" t="n">
         <v>8.199999999999999</v>
@@ -23805,7 +23805,7 @@
         <v>49.1</v>
       </c>
       <c r="N43" t="n">
-        <v>4034</v>
+        <v>4008.5</v>
       </c>
       <c r="O43" t="n">
         <v>39569.5</v>
@@ -23832,7 +23832,7 @@
         <v>28.7</v>
       </c>
       <c r="W43" t="n">
-        <v>693.0999999999995</v>
+        <v>681.0999999999995</v>
       </c>
       <c r="X43" t="n">
         <v>7380.6</v>
@@ -23859,7 +23859,7 @@
         <v>12.1</v>
       </c>
       <c r="AF43" t="n">
-        <v>31.39999999999964</v>
+        <v>20.5</v>
       </c>
       <c r="AG43" t="n">
         <v>5275.9</v>
@@ -23877,7 +23877,7 @@
         <v>20.3</v>
       </c>
       <c r="AL43" t="n">
-        <v>54.20000000000027</v>
+        <v>21.20000000000027</v>
       </c>
       <c r="AM43" t="n">
         <v>6705.7</v>
@@ -23922,7 +23922,7 @@
         <v>10.8</v>
       </c>
       <c r="BA43" t="n">
-        <v>17.00000000000091</v>
+        <v>1.400000000001459</v>
       </c>
       <c r="BB43" t="n">
         <v>6801</v>
@@ -23931,7 +23931,7 @@
         <v>11.3</v>
       </c>
       <c r="BD43" t="n">
-        <v>160.3999999999987</v>
+        <v>142.5999999999985</v>
       </c>
       <c r="BE43" t="n">
         <v>19588.2</v>
@@ -23940,7 +23940,7 @@
         <v>16.4</v>
       </c>
       <c r="BG43" t="n">
-        <v>25.50000000000051</v>
+        <v>18.10000000000093</v>
       </c>
       <c r="BH43" t="n">
         <v>2266.4</v>
@@ -23949,7 +23949,7 @@
         <v>16.3</v>
       </c>
       <c r="BJ43" t="n">
-        <v>642.2999999999965</v>
+        <v>280.3999999999961</v>
       </c>
       <c r="BK43" t="n">
         <v>58896</v>
@@ -23976,7 +23976,7 @@
         <v>32.9</v>
       </c>
       <c r="BS43" t="n">
-        <v>188.6000000000004</v>
+        <v>184.6000000000004</v>
       </c>
       <c r="BT43" t="n">
         <v>7796.2</v>
@@ -24030,7 +24030,7 @@
         <v>28.1</v>
       </c>
       <c r="CK43" t="n">
-        <v>18.59999999999991</v>
+        <v>4.69999999999936</v>
       </c>
       <c r="CL43" t="n">
         <v>4428.7</v>
@@ -24129,7 +24129,7 @@
         <v>14.2</v>
       </c>
       <c r="DR43" t="n">
-        <v>264.5</v>
+        <v>242.1000000000058</v>
       </c>
       <c r="DS43" t="n">
         <v>43433.9</v>
@@ -24156,7 +24156,7 @@
         <v>11.1</v>
       </c>
       <c r="EA43" t="n">
-        <v>6282</v>
+        <v>6012.599999999999</v>
       </c>
       <c r="EB43" t="n">
         <v>73643.60000000001</v>
@@ -24165,7 +24165,7 @@
         <v>35.6</v>
       </c>
       <c r="ED43" t="n">
-        <v>325.5999999999999</v>
+        <v>286.0999999999999</v>
       </c>
       <c r="EE43" t="n">
         <v>3647.9</v>
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>838.800000000002</v>
+        <v>459.100000000004</v>
       </c>
       <c r="C44" t="n">
         <v>25438.5</v>
@@ -24325,7 +24325,7 @@
         <v>14.9</v>
       </c>
       <c r="E44" t="n">
-        <v>183.6000000000004</v>
+        <v>63.2000000000013</v>
       </c>
       <c r="F44" t="n">
         <v>5930.7</v>
@@ -24361,7 +24361,7 @@
         <v>14.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>9171.899999999907</v>
+        <v>3642.899999999907</v>
       </c>
       <c r="R44" t="n">
         <v>847790.7</v>
@@ -24370,7 +24370,7 @@
         <v>19.4</v>
       </c>
       <c r="T44" t="n">
-        <v>526.8999999999951</v>
+        <v>309.2999999999902</v>
       </c>
       <c r="U44" t="n">
         <v>60646.3</v>
@@ -24388,7 +24388,7 @@
         <v>25</v>
       </c>
       <c r="Z44" t="n">
-        <v>195.5999999999999</v>
+        <v>31</v>
       </c>
       <c r="AA44" t="n">
         <v>13926.2</v>
@@ -24415,7 +24415,7 @@
         <v>14.1</v>
       </c>
       <c r="AI44" t="n">
-        <v>11693.60000000012</v>
+        <v>5528.400000000167</v>
       </c>
       <c r="AJ44" t="n">
         <v>957000.4</v>
@@ -24433,7 +24433,7 @@
         <v>56.3</v>
       </c>
       <c r="AO44" t="n">
-        <v>116.3999999999999</v>
+        <v>104.8</v>
       </c>
       <c r="AP44" t="n">
         <v>1613.1</v>
@@ -24442,7 +24442,7 @@
         <v>1.7</v>
       </c>
       <c r="AR44" t="n">
-        <v>135.200000000001</v>
+        <v>84.50000000000028</v>
       </c>
       <c r="AS44" t="n">
         <v>11042.8</v>
@@ -24451,7 +24451,7 @@
         <v>16</v>
       </c>
       <c r="AU44" t="n">
-        <v>716.8999999999942</v>
+        <v>501.7999999999947</v>
       </c>
       <c r="AV44" t="n">
         <v>57984.2</v>
@@ -24460,7 +24460,7 @@
         <v>31.6</v>
       </c>
       <c r="AX44" t="n">
-        <v>31.30000000000001</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="AY44" t="n">
         <v>1888.9</v>
@@ -24469,7 +24469,7 @@
         <v>10.9</v>
       </c>
       <c r="BA44" t="n">
-        <v>770.7999999999993</v>
+        <v>753.7999999999984</v>
       </c>
       <c r="BB44" t="n">
         <v>7662.6</v>
@@ -24487,7 +24487,7 @@
         <v>15.1</v>
       </c>
       <c r="BG44" t="n">
-        <v>145.4999999999995</v>
+        <v>119.999999999999</v>
       </c>
       <c r="BH44" t="n">
         <v>2539.5</v>
@@ -24505,7 +24505,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="BM44" t="n">
-        <v>165.5</v>
+        <v>145.9999999999995</v>
       </c>
       <c r="BN44" t="n">
         <v>3471.7</v>
@@ -24514,7 +24514,7 @@
         <v>2.4</v>
       </c>
       <c r="BP44" t="n">
-        <v>228.9000000000001</v>
+        <v>223.7000000000003</v>
       </c>
       <c r="BQ44" t="n">
         <v>17835.4</v>
@@ -24523,7 +24523,7 @@
         <v>35.5</v>
       </c>
       <c r="BS44" t="n">
-        <v>440.5999999999997</v>
+        <v>251.9999999999993</v>
       </c>
       <c r="BT44" t="n">
         <v>8898.9</v>
@@ -24532,7 +24532,7 @@
         <v>30.2</v>
       </c>
       <c r="BV44" t="n">
-        <v>1844.099999999999</v>
+        <v>1230.699999999998</v>
       </c>
       <c r="BW44" t="n">
         <v>76262.3</v>
@@ -24541,7 +24541,7 @@
         <v>20.6</v>
       </c>
       <c r="BY44" t="n">
-        <v>1258.300000000003</v>
+        <v>859.3000000000029</v>
       </c>
       <c r="BZ44" t="n">
         <v>64823.8</v>
@@ -24550,7 +24550,7 @@
         <v>19.6</v>
       </c>
       <c r="CB44" t="n">
-        <v>946.7000000000035</v>
+        <v>138.6000000000058</v>
       </c>
       <c r="CC44" t="n">
         <v>64508.6</v>
@@ -24559,7 +24559,7 @@
         <v>26.8</v>
       </c>
       <c r="CE44" t="n">
-        <v>44.10000000000127</v>
+        <v>25.800000000002</v>
       </c>
       <c r="CF44" t="n">
         <v>8615.299999999999</v>
@@ -24568,7 +24568,7 @@
         <v>8.6</v>
       </c>
       <c r="CH44" t="n">
-        <v>259.1000000000063</v>
+        <v>37.90000000000967</v>
       </c>
       <c r="CI44" t="n">
         <v>40487.8</v>
@@ -24577,7 +24577,7 @@
         <v>28.6</v>
       </c>
       <c r="CK44" t="n">
-        <v>227.5999999999995</v>
+        <v>208.9999999999996</v>
       </c>
       <c r="CL44" t="n">
         <v>4962</v>
@@ -24586,7 +24586,7 @@
         <v>11</v>
       </c>
       <c r="CN44" t="n">
-        <v>178.9000000000024</v>
+        <v>140.7000000000026</v>
       </c>
       <c r="CO44" t="n">
         <v>20181.6</v>
@@ -24595,7 +24595,7 @@
         <v>10.6</v>
       </c>
       <c r="CQ44" t="n">
-        <v>96.90000000000009</v>
+        <v>20.89999999999918</v>
       </c>
       <c r="CR44" t="n">
         <v>11371.6</v>
@@ -24613,7 +24613,7 @@
         <v>13.4</v>
       </c>
       <c r="CW44" t="n">
-        <v>589.8999999999978</v>
+        <v>307.6999999999966</v>
       </c>
       <c r="CX44" t="n">
         <v>34492</v>
@@ -24622,7 +24622,7 @@
         <v>17.4</v>
       </c>
       <c r="CZ44" t="n">
-        <v>57.70000000000209</v>
+        <v>31.30000000000405</v>
       </c>
       <c r="DA44" t="n">
         <v>11583.5</v>
@@ -24640,7 +24640,7 @@
         <v>11.2</v>
       </c>
       <c r="DF44" t="n">
-        <v>677.5999999999949</v>
+        <v>654.799999999992</v>
       </c>
       <c r="DG44" t="n">
         <v>32947.4</v>
@@ -24649,7 +24649,7 @@
         <v>24.7</v>
       </c>
       <c r="DI44" t="n">
-        <v>43.90000000000011</v>
+        <v>40.90000000000021</v>
       </c>
       <c r="DJ44" t="n">
         <v>1046.3</v>
@@ -24667,7 +24667,7 @@
         <v>24</v>
       </c>
       <c r="DO44" t="n">
-        <v>381.1999999999999</v>
+        <v>177.2999999999999</v>
       </c>
       <c r="DP44" t="n">
         <v>9688.9</v>
@@ -24676,7 +24676,7 @@
         <v>13.5</v>
       </c>
       <c r="DR44" t="n">
-        <v>451.7000000000035</v>
+        <v>187.2000000000035</v>
       </c>
       <c r="DS44" t="n">
         <v>48727.9</v>
